--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F55CE8-F621-45C4-A92E-73549EC4623A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE6B618-2196-421A-9E29-7C176AD223AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-21" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-23" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -931,15 +931,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>37892</v>
+        <v>33552</v>
       </c>
       <c r="F2">
-        <v>1290</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -951,15 +951,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>38905</v>
+        <v>40261</v>
       </c>
       <c r="F3">
-        <v>1820</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -971,15 +971,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>33355</v>
+        <v>37892</v>
       </c>
       <c r="F4">
-        <v>1610</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -991,15 +991,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>37535</v>
+        <v>38905</v>
       </c>
       <c r="F5">
-        <v>599</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1011,15 +1011,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>38598</v>
+        <v>33355</v>
       </c>
       <c r="F6">
-        <v>671</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1031,15 +1031,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>41346</v>
+        <v>37535</v>
       </c>
       <c r="F7">
-        <v>1295</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1051,15 +1051,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>55761</v>
+        <v>38598</v>
       </c>
       <c r="F8">
-        <v>1280</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1071,15 +1071,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>48682</v>
+        <v>41346</v>
       </c>
       <c r="F9">
-        <v>1248</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1091,15 +1091,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>47525</v>
+        <v>55761</v>
       </c>
       <c r="F10">
-        <v>1564</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1111,15 +1111,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>45533</v>
+        <v>48682</v>
       </c>
       <c r="F11">
-        <v>1243</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1131,15 +1131,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>46169</v>
+        <v>47525</v>
       </c>
       <c r="F12">
-        <v>529</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44206</v>
+        <v>44208</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1151,15 +1151,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>54940</v>
+        <v>45533</v>
       </c>
       <c r="F13">
-        <v>563</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44205</v>
+        <v>44207</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1171,15 +1171,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>59937</v>
+        <v>46169</v>
       </c>
       <c r="F14">
-        <v>1035</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1191,15 +1191,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>68053</v>
+        <v>54940</v>
       </c>
       <c r="F15">
-        <v>1325</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44203</v>
+        <v>44205</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1211,15 +1211,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>52618</v>
+        <v>59937</v>
       </c>
       <c r="F16">
-        <v>1162</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1231,15 +1231,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>62322</v>
+        <v>68053</v>
       </c>
       <c r="F17">
-        <v>1041</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1251,15 +1251,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>60916</v>
+        <v>52618</v>
       </c>
       <c r="F18">
-        <v>830</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44200</v>
+        <v>44202</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1271,15 +1271,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>58784</v>
+        <v>62322</v>
       </c>
       <c r="F19">
-        <v>407</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44199</v>
+        <v>44201</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1291,15 +1291,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>54990</v>
+        <v>60916</v>
       </c>
       <c r="F20">
-        <v>455</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44198</v>
+        <v>44200</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1311,15 +1311,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>57725</v>
+        <v>58784</v>
       </c>
       <c r="F21">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44197</v>
+        <v>44199</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1331,15 +1331,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>53285</v>
+        <v>54990</v>
       </c>
       <c r="F22">
-        <v>656</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1351,15 +1351,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>55892</v>
+        <v>57725</v>
       </c>
       <c r="F23">
-        <v>964</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44195</v>
+        <v>44197</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1371,15 +1371,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>50023</v>
+        <v>53285</v>
       </c>
       <c r="F24">
-        <v>981</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1391,15 +1391,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>53135</v>
+        <v>55892</v>
       </c>
       <c r="F25">
-        <v>414</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1411,15 +1411,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>41385</v>
+        <v>50023</v>
       </c>
       <c r="F26">
-        <v>357</v>
+        <v>981</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1431,15 +1431,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>30501</v>
+        <v>53135</v>
       </c>
       <c r="F27">
-        <v>317</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1451,15 +1451,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>35691</v>
+        <v>41385</v>
       </c>
       <c r="F28">
-        <v>230</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1471,15 +1471,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>32725</v>
+        <v>30501</v>
       </c>
       <c r="F29">
-        <v>613</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1491,15 +1491,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>39877</v>
+        <v>35691</v>
       </c>
       <c r="F30">
-        <v>585</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1511,15 +1511,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>39237</v>
+        <v>32725</v>
       </c>
       <c r="F31">
-        <v>744</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1531,15 +1531,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>36804</v>
+        <v>39877</v>
       </c>
       <c r="F32">
-        <v>691</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1551,15 +1551,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>33364</v>
+        <v>39237</v>
       </c>
       <c r="F33">
-        <v>215</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1571,15 +1571,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>35928</v>
+        <v>36804</v>
       </c>
       <c r="F34">
-        <v>326</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1591,15 +1591,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>27052</v>
+        <v>33364</v>
       </c>
       <c r="F35">
-        <v>534</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1611,15 +1611,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>28507</v>
+        <v>35928</v>
       </c>
       <c r="F36">
-        <v>489</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1631,15 +1631,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>35383</v>
+        <v>27052</v>
       </c>
       <c r="F37">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1651,15 +1651,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>25161</v>
+        <v>28507</v>
       </c>
       <c r="F38">
-        <v>613</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1671,15 +1671,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>18450</v>
+        <v>35383</v>
       </c>
       <c r="F39">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1691,15 +1691,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>20263</v>
+        <v>25161</v>
       </c>
       <c r="F40">
-        <v>232</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1711,15 +1711,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>18447</v>
+        <v>18450</v>
       </c>
       <c r="F41">
-        <v>144</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1731,15 +1731,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>21502</v>
+        <v>20263</v>
       </c>
       <c r="F42">
-        <v>519</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1751,15 +1751,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>21672</v>
+        <v>18447</v>
       </c>
       <c r="F43">
-        <v>424</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1771,15 +1771,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>20964</v>
+        <v>21502</v>
       </c>
       <c r="F44">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1791,15 +1791,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>16578</v>
+        <v>21672</v>
       </c>
       <c r="F45">
-        <v>533</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1811,15 +1811,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>12282</v>
+        <v>20964</v>
       </c>
       <c r="F46">
-        <v>616</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1831,15 +1831,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>14718</v>
+        <v>16578</v>
       </c>
       <c r="F47">
-        <v>189</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1851,15 +1851,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>17272</v>
+        <v>12282</v>
       </c>
       <c r="F48">
-        <v>231</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1871,15 +1871,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>15539</v>
+        <v>14718</v>
       </c>
       <c r="F49">
-        <v>397</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44169</v>
+        <v>44171</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1891,15 +1891,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>16298</v>
+        <v>17272</v>
       </c>
       <c r="F50">
-        <v>504</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44168</v>
+        <v>44170</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1911,15 +1911,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>14879</v>
+        <v>15539</v>
       </c>
       <c r="F51">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1931,15 +1931,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>16170</v>
+        <v>16298</v>
       </c>
       <c r="F52">
-        <v>648</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1951,15 +1951,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>13430</v>
+        <v>14879</v>
       </c>
       <c r="F53">
-        <v>603</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1971,15 +1971,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>12330</v>
+        <v>16170</v>
       </c>
       <c r="F54">
-        <v>205</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1991,15 +1991,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>12155</v>
+        <v>13430</v>
       </c>
       <c r="F55">
-        <v>215</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2011,15 +2011,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>15871</v>
+        <v>12330</v>
       </c>
       <c r="F56">
-        <v>479</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2031,15 +2031,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>16022</v>
+        <v>12155</v>
       </c>
       <c r="F57">
-        <v>521</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2051,15 +2051,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>17555</v>
+        <v>15871</v>
       </c>
       <c r="F58">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2071,15 +2071,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>18213</v>
+        <v>16022</v>
       </c>
       <c r="F59">
-        <v>696</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2091,15 +2091,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>11299</v>
+        <v>17555</v>
       </c>
       <c r="F60">
-        <v>608</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2111,15 +2111,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>15450</v>
+        <v>18213</v>
       </c>
       <c r="F61">
-        <v>206</v>
+        <v>696</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2131,15 +2131,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>18662</v>
+        <v>11299</v>
       </c>
       <c r="F62">
-        <v>398</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2151,15 +2151,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>19875</v>
+        <v>15450</v>
       </c>
       <c r="F63">
-        <v>341</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2171,15 +2171,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>20252</v>
+        <v>18662</v>
       </c>
       <c r="F64">
-        <v>511</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2191,15 +2191,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>22915</v>
+        <v>19875</v>
       </c>
       <c r="F65">
-        <v>501</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2211,15 +2211,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>19609</v>
+        <v>20252</v>
       </c>
       <c r="F66">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2231,15 +2231,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>20051</v>
+        <v>22915</v>
       </c>
       <c r="F67">
-        <v>598</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2251,15 +2251,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>21363</v>
+        <v>19609</v>
       </c>
       <c r="F68">
-        <v>213</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2271,15 +2271,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>24962</v>
+        <v>20051</v>
       </c>
       <c r="F69">
-        <v>168</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2291,15 +2291,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>26860</v>
+        <v>21363</v>
       </c>
       <c r="F70">
-        <v>462</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44148</v>
+        <v>44150</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2311,15 +2311,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>27301</v>
+        <v>24962</v>
       </c>
       <c r="F71">
-        <v>376</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44147</v>
+        <v>44149</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2331,15 +2331,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>33470</v>
+        <v>26860</v>
       </c>
       <c r="F72">
-        <v>563</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2351,15 +2351,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>22950</v>
+        <v>27301</v>
       </c>
       <c r="F73">
-        <v>595</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44145</v>
+        <v>44147</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2371,15 +2371,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>20412</v>
+        <v>33470</v>
       </c>
       <c r="F74">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2391,15 +2391,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>21350</v>
+        <v>22950</v>
       </c>
       <c r="F75">
-        <v>194</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2411,15 +2411,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>20572</v>
+        <v>20412</v>
       </c>
       <c r="F76">
-        <v>156</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2431,15 +2431,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>24957</v>
+        <v>21350</v>
       </c>
       <c r="F77">
-        <v>413</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44141</v>
+        <v>44143</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2451,15 +2451,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>23287</v>
+        <v>20572</v>
       </c>
       <c r="F78">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2471,15 +2471,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>24141</v>
+        <v>24957</v>
       </c>
       <c r="F79">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2491,15 +2491,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>25177</v>
+        <v>23287</v>
       </c>
       <c r="F80">
-        <v>492</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2511,15 +2511,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>20018</v>
+        <v>24141</v>
       </c>
       <c r="F81">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2531,15 +2531,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>18950</v>
+        <v>25177</v>
       </c>
       <c r="F82">
-        <v>136</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44136</v>
+        <v>44138</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2551,15 +2551,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>23254</v>
+        <v>20018</v>
       </c>
       <c r="F83">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2571,15 +2571,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>21915</v>
+        <v>18950</v>
       </c>
       <c r="F84">
-        <v>326</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2591,15 +2591,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>24405</v>
+        <v>23254</v>
       </c>
       <c r="F85">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2611,15 +2611,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>23065</v>
+        <v>21915</v>
       </c>
       <c r="F86">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44132</v>
+        <v>44134</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2631,15 +2631,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>24701</v>
+        <v>24405</v>
       </c>
       <c r="F87">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2651,15 +2651,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>22885</v>
+        <v>23065</v>
       </c>
       <c r="F88">
-        <v>367</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2671,15 +2671,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>20890</v>
+        <v>24701</v>
       </c>
       <c r="F89">
-        <v>102</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2691,15 +2691,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>19790</v>
+        <v>22885</v>
       </c>
       <c r="F90">
-        <v>151</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2711,15 +2711,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>23012</v>
+        <v>20890</v>
       </c>
       <c r="F91">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44127</v>
+        <v>44129</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2731,15 +2731,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>20530</v>
+        <v>19790</v>
       </c>
       <c r="F92">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2751,15 +2751,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>21242</v>
+        <v>23012</v>
       </c>
       <c r="F93">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2771,15 +2771,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>26688</v>
+        <v>20530</v>
       </c>
       <c r="F94">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2791,15 +2791,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>21331</v>
+        <v>21242</v>
       </c>
       <c r="F95">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2811,15 +2811,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>18804</v>
+        <v>26688</v>
       </c>
       <c r="F96">
-        <v>80</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2831,15 +2831,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>16982</v>
+        <v>21331</v>
       </c>
       <c r="F97">
-        <v>67</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2851,15 +2851,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>16171</v>
+        <v>18804</v>
       </c>
       <c r="F98">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2871,15 +2871,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>15650</v>
+        <v>16982</v>
       </c>
       <c r="F99">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2891,15 +2891,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>18980</v>
+        <v>16171</v>
       </c>
       <c r="F100">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2911,15 +2911,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>19724</v>
+        <v>15650</v>
       </c>
       <c r="F101">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2931,15 +2931,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>17234</v>
+        <v>18980</v>
       </c>
       <c r="F102">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2951,15 +2951,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>13972</v>
+        <v>19724</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2971,15 +2971,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>12872</v>
+        <v>17234</v>
       </c>
       <c r="F104">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2991,15 +2991,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>15166</v>
+        <v>13972</v>
       </c>
       <c r="F105">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3011,15 +3011,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>13864</v>
+        <v>15166</v>
       </c>
       <c r="F106">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3031,15 +3031,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>17540</v>
+        <v>13864</v>
       </c>
       <c r="F107">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3051,15 +3051,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>14162</v>
+        <v>17540</v>
       </c>
       <c r="F108">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3071,15 +3071,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>14542</v>
+        <v>14162</v>
       </c>
       <c r="F109">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3091,15 +3091,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>12594</v>
+        <v>14542</v>
       </c>
       <c r="F110">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3111,15 +3111,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>22961</v>
+        <v>12594</v>
       </c>
       <c r="F111">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3131,15 +3131,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>12872</v>
+        <v>22961</v>
       </c>
       <c r="F112">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3151,15 +3151,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>6968</v>
+        <v>12872</v>
       </c>
       <c r="F113">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3171,15 +3171,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>6914</v>
+        <v>6968</v>
       </c>
       <c r="F114">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3191,15 +3191,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>7108</v>
+        <v>6914</v>
       </c>
       <c r="F115">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3211,7 +3211,7 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>7143</v>
+        <v>7108</v>
       </c>
       <c r="F116">
         <v>71</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3231,15 +3231,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>4044</v>
+        <v>7143</v>
       </c>
       <c r="F117">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3251,15 +3251,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>5693</v>
+        <v>4044</v>
       </c>
       <c r="F118">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3271,15 +3271,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>6042</v>
+        <v>5693</v>
       </c>
       <c r="F119">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3291,15 +3291,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>6874</v>
+        <v>6042</v>
       </c>
       <c r="F120">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3311,15 +3311,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>6634</v>
+        <v>6874</v>
       </c>
       <c r="F121">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3331,15 +3331,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>6178</v>
+        <v>6634</v>
       </c>
       <c r="F122">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>4926</v>
+        <v>6178</v>
       </c>
       <c r="F123">
         <v>37</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3371,15 +3371,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>4368</v>
+        <v>4926</v>
       </c>
       <c r="F124">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3391,10 +3391,10 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>3899</v>
+        <v>4368</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4479,7 +4479,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4491,15 +4491,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="F180">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4511,15 +4511,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="F181">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4531,15 +4531,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F182">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4551,15 +4551,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F183">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4571,15 +4571,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>769</v>
+        <v>560</v>
       </c>
       <c r="F184">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4591,15 +4591,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>560</v>
+        <v>445</v>
       </c>
       <c r="F185">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4611,15 +4611,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="F186">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4631,15 +4631,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>557</v>
+        <v>726</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4651,15 +4651,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="F188">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4671,15 +4671,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>827</v>
+        <v>687</v>
       </c>
       <c r="F189">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4691,15 +4691,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="F190">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4711,15 +4711,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>642</v>
+        <v>538</v>
       </c>
       <c r="F191">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4731,15 +4731,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>538</v>
+        <v>398</v>
       </c>
       <c r="F192">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4751,15 +4751,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>398</v>
+        <v>530</v>
       </c>
       <c r="F193">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4771,15 +4771,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4791,15 +4791,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="F195">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4811,15 +4811,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>820</v>
+        <v>512</v>
       </c>
       <c r="F196">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4831,15 +4831,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>512</v>
+        <v>642</v>
       </c>
       <c r="F197">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4851,15 +4851,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F198">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4871,15 +4871,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="F199">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4891,15 +4891,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>581</v>
+        <v>343</v>
       </c>
       <c r="F200">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4911,15 +4911,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>343</v>
+        <v>516</v>
       </c>
       <c r="F201">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4931,15 +4931,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="F202">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4951,15 +4951,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="F203">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4971,15 +4971,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="F204">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4991,15 +4991,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>576</v>
+        <v>829</v>
       </c>
       <c r="F205">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5011,15 +5011,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>829</v>
+        <v>689</v>
       </c>
       <c r="F206">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5031,15 +5031,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>689</v>
+        <v>815</v>
       </c>
       <c r="F207">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5051,15 +5051,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>815</v>
+        <v>901</v>
       </c>
       <c r="F208">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5071,15 +5071,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F209">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5091,15 +5091,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>890</v>
+        <v>1006</v>
       </c>
       <c r="F210">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5111,15 +5111,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>1006</v>
+        <v>1118</v>
       </c>
       <c r="F211">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5131,10 +5131,10 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>1118</v>
+        <v>653</v>
       </c>
       <c r="F212">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5479,7 +5479,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5491,15 +5491,15 @@
         <v>8</v>
       </c>
       <c r="E230">
-        <v>1650</v>
+        <v>1557</v>
       </c>
       <c r="F230">
-        <v>258</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5511,15 +5511,15 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>1805</v>
+        <v>1650</v>
       </c>
       <c r="F231">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5531,15 +5531,15 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>1871</v>
+        <v>1805</v>
       </c>
       <c r="F232">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5551,15 +5551,15 @@
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1613</v>
+        <v>1871</v>
       </c>
       <c r="F233">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5571,15 +5571,15 @@
         <v>8</v>
       </c>
       <c r="E234">
-        <v>1570</v>
+        <v>1613</v>
       </c>
       <c r="F234">
-        <v>86</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5591,15 +5591,15 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>1936</v>
+        <v>1570</v>
       </c>
       <c r="F235">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5611,15 +5611,15 @@
         <v>8</v>
       </c>
       <c r="E236">
-        <v>2445</v>
+        <v>1936</v>
       </c>
       <c r="F236">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5631,15 +5631,15 @@
         <v>8</v>
       </c>
       <c r="E237">
-        <v>2095</v>
+        <v>2445</v>
       </c>
       <c r="F237">
-        <v>274</v>
+        <v>154</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5651,15 +5651,15 @@
         <v>8</v>
       </c>
       <c r="E238">
-        <v>1887</v>
+        <v>2095</v>
       </c>
       <c r="F238">
-        <v>343</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5671,15 +5671,15 @@
         <v>8</v>
       </c>
       <c r="E239">
-        <v>2013</v>
+        <v>1887</v>
       </c>
       <c r="F239">
-        <v>422</v>
+        <v>343</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5691,15 +5691,15 @@
         <v>8</v>
       </c>
       <c r="E240">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="F240">
-        <v>131</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5711,15 +5711,15 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>1625</v>
+        <v>2004</v>
       </c>
       <c r="F241">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5731,15 +5731,15 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>2409</v>
+        <v>1625</v>
       </c>
       <c r="F242">
-        <v>379</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5751,15 +5751,15 @@
         <v>8</v>
       </c>
       <c r="E243">
-        <v>2959</v>
+        <v>2409</v>
       </c>
       <c r="F243">
-        <v>220</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5771,15 +5771,15 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>3287</v>
+        <v>2959</v>
       </c>
       <c r="F244">
-        <v>291</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5791,15 +5791,15 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>2615</v>
+        <v>3287</v>
       </c>
       <c r="F245">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5811,15 +5811,15 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>2472</v>
+        <v>2615</v>
       </c>
       <c r="F246">
-        <v>328</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5831,15 +5831,15 @@
         <v>8</v>
       </c>
       <c r="E247">
-        <v>2412</v>
+        <v>2472</v>
       </c>
       <c r="F247">
-        <v>500</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5851,15 +5851,15 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>2684</v>
+        <v>2412</v>
       </c>
       <c r="F248">
-        <v>146</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5871,15 +5871,15 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>3562</v>
+        <v>2684</v>
       </c>
       <c r="F249">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5891,15 +5891,15 @@
         <v>8</v>
       </c>
       <c r="E250">
-        <v>3451</v>
+        <v>3562</v>
       </c>
       <c r="F250">
-        <v>411</v>
+        <v>67</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5911,15 +5911,15 @@
         <v>8</v>
       </c>
       <c r="E251">
-        <v>3560</v>
+        <v>3451</v>
       </c>
       <c r="F251">
-        <v>350</v>
+        <v>411</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5931,15 +5931,15 @@
         <v>8</v>
       </c>
       <c r="E252">
-        <v>3446</v>
+        <v>3560</v>
       </c>
       <c r="F252">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5951,15 +5951,15 @@
         <v>8</v>
       </c>
       <c r="E253">
-        <v>3242</v>
+        <v>3446</v>
       </c>
       <c r="F253">
-        <v>447</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5971,15 +5971,15 @@
         <v>8</v>
       </c>
       <c r="E254">
-        <v>3403</v>
+        <v>3242</v>
       </c>
       <c r="F254">
-        <v>614</v>
+        <v>447</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5991,15 +5991,15 @@
         <v>8</v>
       </c>
       <c r="E255">
-        <v>3877</v>
+        <v>3403</v>
       </c>
       <c r="F255">
-        <v>187</v>
+        <v>614</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6011,15 +6011,15 @@
         <v>8</v>
       </c>
       <c r="E256">
-        <v>3923</v>
+        <v>3877</v>
       </c>
       <c r="F256">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -6031,15 +6031,15 @@
         <v>8</v>
       </c>
       <c r="E257">
-        <v>3896</v>
+        <v>3923</v>
       </c>
       <c r="F257">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -6051,15 +6051,15 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>4649</v>
+        <v>3896</v>
       </c>
       <c r="F258">
-        <v>579</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -6071,15 +6071,15 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>5614</v>
+        <v>4649</v>
       </c>
       <c r="F259">
-        <v>458</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -6091,15 +6091,15 @@
         <v>8</v>
       </c>
       <c r="E260">
-        <v>6111</v>
+        <v>5614</v>
       </c>
       <c r="F260">
-        <v>647</v>
+        <v>458</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -6111,15 +6111,15 @@
         <v>8</v>
       </c>
       <c r="E261">
-        <v>4406</v>
+        <v>6111</v>
       </c>
       <c r="F261">
-        <v>726</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -6131,15 +6131,15 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>3985</v>
+        <v>4406</v>
       </c>
       <c r="F262">
-        <v>272</v>
+        <v>726</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -6151,15 +6151,15 @@
         <v>8</v>
       </c>
       <c r="E263">
-        <v>4339</v>
+        <v>3985</v>
       </c>
       <c r="F263">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6171,15 +6171,15 @@
         <v>8</v>
       </c>
       <c r="E264">
-        <v>4806</v>
+        <v>4339</v>
       </c>
       <c r="F264">
-        <v>584</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -6191,15 +6191,15 @@
         <v>8</v>
       </c>
       <c r="E265">
-        <v>6201</v>
+        <v>4806</v>
       </c>
       <c r="F265">
-        <v>698</v>
+        <v>584</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -6211,15 +6211,15 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>6032</v>
+        <v>6201</v>
       </c>
       <c r="F266">
-        <v>634</v>
+        <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -6231,15 +6231,15 @@
         <v>8</v>
       </c>
       <c r="E267">
-        <v>4076</v>
+        <v>6032</v>
       </c>
       <c r="F267">
-        <v>769</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -6251,15 +6251,15 @@
         <v>8</v>
       </c>
       <c r="E268">
-        <v>3996</v>
+        <v>4076</v>
       </c>
       <c r="F268">
-        <v>969</v>
+        <v>769</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6271,15 +6271,15 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>4310</v>
+        <v>3996</v>
       </c>
       <c r="F269">
-        <v>320</v>
+        <v>969</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6291,15 +6291,15 @@
         <v>8</v>
       </c>
       <c r="E270">
-        <v>4463</v>
+        <v>4310</v>
       </c>
       <c r="F270">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6311,15 +6311,15 @@
         <v>8</v>
       </c>
       <c r="E271">
-        <v>4913</v>
+        <v>4463</v>
       </c>
       <c r="F271">
-        <v>815</v>
+        <v>364</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6331,15 +6331,15 @@
         <v>8</v>
       </c>
       <c r="E272">
-        <v>5386</v>
+        <v>4913</v>
       </c>
       <c r="F272">
-        <v>1010</v>
+        <v>815</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6351,15 +6351,15 @@
         <v>8</v>
       </c>
       <c r="E273">
-        <v>4583</v>
+        <v>5386</v>
       </c>
       <c r="F273">
-        <v>682</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6371,15 +6371,15 @@
         <v>8</v>
       </c>
       <c r="E274">
-        <v>4451</v>
+        <v>4583</v>
       </c>
       <c r="F274">
-        <v>847</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6391,15 +6391,15 @@
         <v>8</v>
       </c>
       <c r="E275">
-        <v>4301</v>
+        <v>4451</v>
       </c>
       <c r="F275">
-        <v>1224</v>
+        <v>847</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6411,15 +6411,15 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>4676</v>
+        <v>4301</v>
       </c>
       <c r="F276">
-        <v>570</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6431,15 +6431,15 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>5850</v>
+        <v>4676</v>
       </c>
       <c r="F277">
-        <v>432</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6451,15 +6451,15 @@
         <v>8</v>
       </c>
       <c r="E278">
-        <v>5526</v>
+        <v>5850</v>
       </c>
       <c r="F278">
-        <v>1105</v>
+        <v>432</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6471,15 +6471,15 @@
         <v>8</v>
       </c>
       <c r="E279">
-        <v>5599</v>
+        <v>5526</v>
       </c>
       <c r="F279">
-        <v>913</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6491,15 +6491,15 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>4618</v>
+        <v>5599</v>
       </c>
       <c r="F280">
-        <v>1036</v>
+        <v>913</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6511,15 +6511,15 @@
         <v>8</v>
       </c>
       <c r="E281">
-        <v>4605</v>
+        <v>4618</v>
       </c>
       <c r="F281">
-        <v>880</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6531,15 +6531,15 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>5252</v>
+        <v>4605</v>
       </c>
       <c r="F282">
-        <v>1076</v>
+        <v>880</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6551,15 +6551,15 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>4342</v>
+        <v>5252</v>
       </c>
       <c r="F283">
-        <v>724</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6571,15 +6571,15 @@
         <v>8</v>
       </c>
       <c r="E284">
-        <v>5288</v>
+        <v>4342</v>
       </c>
       <c r="F284">
-        <v>657</v>
+        <v>724</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6591,15 +6591,15 @@
         <v>8</v>
       </c>
       <c r="E285">
-        <v>5234</v>
+        <v>5288</v>
       </c>
       <c r="F285">
-        <v>843</v>
+        <v>657</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6611,15 +6611,15 @@
         <v>8</v>
       </c>
       <c r="E286">
-        <v>5706</v>
+        <v>5234</v>
       </c>
       <c r="F286">
-        <v>1122</v>
+        <v>843</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6631,15 +6631,15 @@
         <v>8</v>
       </c>
       <c r="E287">
-        <v>4675</v>
+        <v>5706</v>
       </c>
       <c r="F287">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6651,15 +6651,15 @@
         <v>8</v>
       </c>
       <c r="E288">
-        <v>5865</v>
+        <v>4675</v>
       </c>
       <c r="F288">
-        <v>1030</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6671,15 +6671,15 @@
         <v>8</v>
       </c>
       <c r="E289">
-        <v>3888</v>
+        <v>5865</v>
       </c>
       <c r="F289">
-        <v>1105</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6691,15 +6691,15 @@
         <v>8</v>
       </c>
       <c r="E290">
-        <v>4143</v>
+        <v>3888</v>
       </c>
       <c r="F290">
-        <v>567</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6711,15 +6711,15 @@
         <v>8</v>
       </c>
       <c r="E291">
-        <v>6199</v>
+        <v>4143</v>
       </c>
       <c r="F291">
-        <v>599</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -6731,15 +6731,15 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>4000</v>
+        <v>6199</v>
       </c>
       <c r="F292">
-        <v>756</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6751,15 +6751,15 @@
         <v>8</v>
       </c>
       <c r="E293">
-        <v>4672</v>
+        <v>4000</v>
       </c>
       <c r="F293">
-        <v>736</v>
+        <v>756</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6771,15 +6771,15 @@
         <v>8</v>
       </c>
       <c r="E294">
-        <v>4522</v>
+        <v>4672</v>
       </c>
       <c r="F294">
-        <v>657</v>
+        <v>736</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6791,15 +6791,15 @@
         <v>8</v>
       </c>
       <c r="E295">
-        <v>4567</v>
+        <v>4522</v>
       </c>
       <c r="F295">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6811,15 +6811,15 @@
         <v>8</v>
       </c>
       <c r="E296">
-        <v>3250</v>
+        <v>4567</v>
       </c>
       <c r="F296">
-        <v>403</v>
+        <v>672</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6831,15 +6831,15 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>2665</v>
+        <v>3250</v>
       </c>
       <c r="F297">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6851,15 +6851,15 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>2502</v>
+        <v>2665</v>
       </c>
       <c r="F298">
-        <v>212</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6871,15 +6871,15 @@
         <v>8</v>
       </c>
       <c r="E299">
-        <v>2556</v>
+        <v>2502</v>
       </c>
       <c r="F299">
-        <v>292</v>
+        <v>212</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6891,15 +6891,15 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>2890</v>
+        <v>2556</v>
       </c>
       <c r="F300">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6911,15 +6911,15 @@
         <v>8</v>
       </c>
       <c r="E301">
-        <v>2129</v>
+        <v>2890</v>
       </c>
       <c r="F301">
-        <v>181</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6931,15 +6931,15 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>1452</v>
+        <v>2129</v>
       </c>
       <c r="F302">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6951,15 +6951,15 @@
         <v>8</v>
       </c>
       <c r="E303">
-        <v>1427</v>
+        <v>1452</v>
       </c>
       <c r="F303">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6971,15 +6971,15 @@
         <v>8</v>
       </c>
       <c r="E304">
-        <v>967</v>
+        <v>1427</v>
       </c>
       <c r="F304">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6991,15 +6991,15 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>665</v>
+        <v>967</v>
       </c>
       <c r="F305">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7011,15 +7011,15 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>1035</v>
+        <v>665</v>
       </c>
       <c r="F306">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -7031,15 +7031,15 @@
         <v>8</v>
       </c>
       <c r="E307">
-        <v>714</v>
+        <v>1035</v>
       </c>
       <c r="F307">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -7051,15 +7051,15 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="F308">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -7071,15 +7071,15 @@
         <v>8</v>
       </c>
       <c r="E309">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="F309">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -7091,15 +7091,15 @@
         <v>8</v>
       </c>
       <c r="E310">
-        <v>407</v>
+        <v>676</v>
       </c>
       <c r="F310">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -7111,15 +7111,15 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="F311">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -7131,15 +7131,15 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="F312">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -7151,15 +7151,15 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="F313">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7171,15 +7171,15 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7191,15 +7191,15 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7211,15 +7211,15 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
@@ -7231,10 +7231,10 @@
         <v>8</v>
       </c>
       <c r="E317">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F317">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -8039,7 +8039,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>43859</v>
+        <v>43858</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>43857</v>
+        <v>43856</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>43854</v>
+        <v>43853</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>43853</v>
+        <v>43852</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>43852</v>
+        <v>43851</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>43850</v>
+        <v>43849</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>43849</v>
+        <v>43848</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>43848</v>
+        <v>43847</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>43847</v>
+        <v>43846</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>43844</v>
+        <v>43843</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>43843</v>
+        <v>43842</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>43842</v>
+        <v>43841</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>43841</v>
+        <v>43840</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>43840</v>
+        <v>43839</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>43839</v>
+        <v>43838</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>43838</v>
+        <v>43837</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>43837</v>
+        <v>43836</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>43836</v>
+        <v>43835</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>43835</v>
+        <v>43834</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>43834</v>
+        <v>43833</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>43833</v>
+        <v>44115</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8571,15 +8571,15 @@
         <v>8</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>12872</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>44006</v>
+        <v>44094</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8591,15 +8591,15 @@
         <v>8</v>
       </c>
       <c r="E385">
-        <v>653</v>
+        <v>3899</v>
       </c>
       <c r="F385">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>43988</v>
+        <v>44039</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -8611,10 +8611,50 @@
         <v>8</v>
       </c>
       <c r="E386">
-        <v>1557</v>
+        <v>685</v>
       </c>
       <c r="F386">
-        <v>143</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" t="s">
+        <v>8</v>
+      </c>
+      <c r="E387">
+        <v>52</v>
+      </c>
+      <c r="F387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" t="s">
+        <v>8</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE6B618-2196-421A-9E29-7C176AD223AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8EEC585-EF57-4D3E-A306-8845349EAAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-23" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-25" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F388"/>
+  <dimension ref="A1:F390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -931,15 +931,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>33552</v>
+        <v>22195</v>
       </c>
       <c r="F2">
-        <v>1348</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -951,15 +951,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>40261</v>
+        <v>30004</v>
       </c>
       <c r="F3">
-        <v>1401</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -971,15 +971,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>37892</v>
+        <v>33552</v>
       </c>
       <c r="F4">
-        <v>1290</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -991,15 +991,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>38905</v>
+        <v>40261</v>
       </c>
       <c r="F5">
-        <v>1820</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1011,15 +1011,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>33355</v>
+        <v>37892</v>
       </c>
       <c r="F6">
-        <v>1610</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1031,15 +1031,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>37535</v>
+        <v>38905</v>
       </c>
       <c r="F7">
-        <v>599</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1051,15 +1051,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>38598</v>
+        <v>33355</v>
       </c>
       <c r="F8">
-        <v>671</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1071,15 +1071,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>41346</v>
+        <v>37535</v>
       </c>
       <c r="F9">
-        <v>1295</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1091,15 +1091,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>55761</v>
+        <v>38598</v>
       </c>
       <c r="F10">
-        <v>1280</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1111,15 +1111,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>48682</v>
+        <v>41346</v>
       </c>
       <c r="F11">
-        <v>1248</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1131,15 +1131,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>47525</v>
+        <v>55761</v>
       </c>
       <c r="F12">
-        <v>1564</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1151,15 +1151,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>45533</v>
+        <v>48682</v>
       </c>
       <c r="F13">
-        <v>1243</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1171,15 +1171,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>46169</v>
+        <v>47525</v>
       </c>
       <c r="F14">
-        <v>529</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44206</v>
+        <v>44208</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1191,15 +1191,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>54940</v>
+        <v>45533</v>
       </c>
       <c r="F15">
-        <v>563</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44205</v>
+        <v>44207</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1211,15 +1211,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>59937</v>
+        <v>46169</v>
       </c>
       <c r="F16">
-        <v>1035</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1231,15 +1231,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>68053</v>
+        <v>54940</v>
       </c>
       <c r="F17">
-        <v>1325</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44203</v>
+        <v>44205</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1251,15 +1251,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>52618</v>
+        <v>59937</v>
       </c>
       <c r="F18">
-        <v>1162</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1271,15 +1271,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62322</v>
+        <v>68053</v>
       </c>
       <c r="F19">
-        <v>1041</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1291,15 +1291,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>60916</v>
+        <v>52618</v>
       </c>
       <c r="F20">
-        <v>830</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44200</v>
+        <v>44202</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1311,15 +1311,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>58784</v>
+        <v>62322</v>
       </c>
       <c r="F21">
-        <v>407</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44199</v>
+        <v>44201</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1331,15 +1331,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>54990</v>
+        <v>60916</v>
       </c>
       <c r="F22">
-        <v>455</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44198</v>
+        <v>44200</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1351,15 +1351,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>57725</v>
+        <v>58784</v>
       </c>
       <c r="F23">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44197</v>
+        <v>44199</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1371,15 +1371,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>53285</v>
+        <v>54990</v>
       </c>
       <c r="F24">
-        <v>656</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1391,15 +1391,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>55892</v>
+        <v>57725</v>
       </c>
       <c r="F25">
-        <v>964</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44195</v>
+        <v>44197</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1411,15 +1411,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>50023</v>
+        <v>53285</v>
       </c>
       <c r="F26">
-        <v>981</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1431,15 +1431,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>53135</v>
+        <v>55892</v>
       </c>
       <c r="F27">
-        <v>414</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1451,15 +1451,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>41385</v>
+        <v>50023</v>
       </c>
       <c r="F28">
-        <v>357</v>
+        <v>981</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1471,15 +1471,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>30501</v>
+        <v>53135</v>
       </c>
       <c r="F29">
-        <v>317</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1491,15 +1491,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>35691</v>
+        <v>41385</v>
       </c>
       <c r="F30">
-        <v>230</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1511,15 +1511,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>32725</v>
+        <v>30501</v>
       </c>
       <c r="F31">
-        <v>613</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1531,15 +1531,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>39877</v>
+        <v>35691</v>
       </c>
       <c r="F32">
-        <v>585</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1551,15 +1551,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>39237</v>
+        <v>32725</v>
       </c>
       <c r="F33">
-        <v>744</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1571,15 +1571,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>36804</v>
+        <v>39877</v>
       </c>
       <c r="F34">
-        <v>691</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1591,15 +1591,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>33364</v>
+        <v>39237</v>
       </c>
       <c r="F35">
-        <v>215</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1611,15 +1611,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>35928</v>
+        <v>36804</v>
       </c>
       <c r="F36">
-        <v>326</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1631,15 +1631,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>27052</v>
+        <v>33364</v>
       </c>
       <c r="F37">
-        <v>534</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1651,15 +1651,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>28507</v>
+        <v>35928</v>
       </c>
       <c r="F38">
-        <v>489</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1671,15 +1671,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>35383</v>
+        <v>27052</v>
       </c>
       <c r="F39">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1691,15 +1691,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>25161</v>
+        <v>28507</v>
       </c>
       <c r="F40">
-        <v>613</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1711,15 +1711,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>18450</v>
+        <v>35383</v>
       </c>
       <c r="F41">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1731,15 +1731,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>20263</v>
+        <v>25161</v>
       </c>
       <c r="F42">
-        <v>232</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1751,15 +1751,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>18447</v>
+        <v>18450</v>
       </c>
       <c r="F43">
-        <v>144</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1771,15 +1771,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>21502</v>
+        <v>20263</v>
       </c>
       <c r="F44">
-        <v>519</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1791,15 +1791,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>21672</v>
+        <v>18447</v>
       </c>
       <c r="F45">
-        <v>424</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1811,15 +1811,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>20964</v>
+        <v>21502</v>
       </c>
       <c r="F46">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1831,15 +1831,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>16578</v>
+        <v>21672</v>
       </c>
       <c r="F47">
-        <v>533</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1851,15 +1851,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>12282</v>
+        <v>20964</v>
       </c>
       <c r="F48">
-        <v>616</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1871,15 +1871,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>14718</v>
+        <v>16578</v>
       </c>
       <c r="F49">
-        <v>189</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1891,15 +1891,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>17272</v>
+        <v>12282</v>
       </c>
       <c r="F50">
-        <v>231</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1911,15 +1911,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>15539</v>
+        <v>14718</v>
       </c>
       <c r="F51">
-        <v>397</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44169</v>
+        <v>44171</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1931,15 +1931,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>16298</v>
+        <v>17272</v>
       </c>
       <c r="F52">
-        <v>504</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44168</v>
+        <v>44170</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1951,15 +1951,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>14879</v>
+        <v>15539</v>
       </c>
       <c r="F53">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1971,15 +1971,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>16170</v>
+        <v>16298</v>
       </c>
       <c r="F54">
-        <v>648</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1991,15 +1991,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>13430</v>
+        <v>14879</v>
       </c>
       <c r="F55">
-        <v>603</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2011,15 +2011,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>12330</v>
+        <v>16170</v>
       </c>
       <c r="F56">
-        <v>205</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2031,15 +2031,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>12155</v>
+        <v>13430</v>
       </c>
       <c r="F57">
-        <v>215</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2051,15 +2051,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>15871</v>
+        <v>12330</v>
       </c>
       <c r="F58">
-        <v>479</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2071,15 +2071,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>16022</v>
+        <v>12155</v>
       </c>
       <c r="F59">
-        <v>521</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2091,15 +2091,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>17555</v>
+        <v>15871</v>
       </c>
       <c r="F60">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2111,15 +2111,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>18213</v>
+        <v>16022</v>
       </c>
       <c r="F61">
-        <v>696</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2131,15 +2131,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>11299</v>
+        <v>17555</v>
       </c>
       <c r="F62">
-        <v>608</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2151,15 +2151,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>15450</v>
+        <v>18213</v>
       </c>
       <c r="F63">
-        <v>206</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2171,15 +2171,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>18662</v>
+        <v>11299</v>
       </c>
       <c r="F64">
-        <v>398</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2191,15 +2191,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>19875</v>
+        <v>15450</v>
       </c>
       <c r="F65">
-        <v>341</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2211,15 +2211,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>20252</v>
+        <v>18662</v>
       </c>
       <c r="F66">
-        <v>511</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2231,15 +2231,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>22915</v>
+        <v>19875</v>
       </c>
       <c r="F67">
-        <v>501</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2251,15 +2251,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>19609</v>
+        <v>20252</v>
       </c>
       <c r="F68">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2271,15 +2271,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>20051</v>
+        <v>22915</v>
       </c>
       <c r="F69">
-        <v>598</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2291,15 +2291,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>21363</v>
+        <v>19609</v>
       </c>
       <c r="F70">
-        <v>213</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2311,15 +2311,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>24962</v>
+        <v>20051</v>
       </c>
       <c r="F71">
-        <v>168</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2331,15 +2331,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>26860</v>
+        <v>21363</v>
       </c>
       <c r="F72">
-        <v>462</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44148</v>
+        <v>44150</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2351,15 +2351,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>27301</v>
+        <v>24962</v>
       </c>
       <c r="F73">
-        <v>376</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44147</v>
+        <v>44149</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2371,15 +2371,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>33470</v>
+        <v>26860</v>
       </c>
       <c r="F74">
-        <v>563</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2391,15 +2391,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>22950</v>
+        <v>27301</v>
       </c>
       <c r="F75">
-        <v>595</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44145</v>
+        <v>44147</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2411,15 +2411,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>20412</v>
+        <v>33470</v>
       </c>
       <c r="F76">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2431,15 +2431,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>21350</v>
+        <v>22950</v>
       </c>
       <c r="F77">
-        <v>194</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2451,15 +2451,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>20572</v>
+        <v>20412</v>
       </c>
       <c r="F78">
-        <v>156</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2471,15 +2471,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>24957</v>
+        <v>21350</v>
       </c>
       <c r="F79">
-        <v>413</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44141</v>
+        <v>44143</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2491,15 +2491,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>23287</v>
+        <v>20572</v>
       </c>
       <c r="F80">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2511,15 +2511,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>24141</v>
+        <v>24957</v>
       </c>
       <c r="F81">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2531,15 +2531,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>25177</v>
+        <v>23287</v>
       </c>
       <c r="F82">
-        <v>492</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2551,15 +2551,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>20018</v>
+        <v>24141</v>
       </c>
       <c r="F83">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2571,15 +2571,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>18950</v>
+        <v>25177</v>
       </c>
       <c r="F84">
-        <v>136</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44136</v>
+        <v>44138</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2591,15 +2591,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>23254</v>
+        <v>20018</v>
       </c>
       <c r="F85">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2611,15 +2611,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>21915</v>
+        <v>18950</v>
       </c>
       <c r="F86">
-        <v>326</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2631,15 +2631,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>24405</v>
+        <v>23254</v>
       </c>
       <c r="F87">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2651,15 +2651,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>23065</v>
+        <v>21915</v>
       </c>
       <c r="F88">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44132</v>
+        <v>44134</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2671,15 +2671,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>24701</v>
+        <v>24405</v>
       </c>
       <c r="F89">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2691,15 +2691,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>22885</v>
+        <v>23065</v>
       </c>
       <c r="F90">
-        <v>367</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2711,15 +2711,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>20890</v>
+        <v>24701</v>
       </c>
       <c r="F91">
-        <v>102</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2731,15 +2731,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>19790</v>
+        <v>22885</v>
       </c>
       <c r="F92">
-        <v>151</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2751,15 +2751,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>23012</v>
+        <v>20890</v>
       </c>
       <c r="F93">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44127</v>
+        <v>44129</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2771,15 +2771,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>20530</v>
+        <v>19790</v>
       </c>
       <c r="F94">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2791,15 +2791,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>21242</v>
+        <v>23012</v>
       </c>
       <c r="F95">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2811,15 +2811,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>26688</v>
+        <v>20530</v>
       </c>
       <c r="F96">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2831,15 +2831,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>21331</v>
+        <v>21242</v>
       </c>
       <c r="F97">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2851,15 +2851,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>18804</v>
+        <v>26688</v>
       </c>
       <c r="F98">
-        <v>80</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2871,15 +2871,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>16982</v>
+        <v>21331</v>
       </c>
       <c r="F99">
-        <v>67</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2891,15 +2891,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>16171</v>
+        <v>18804</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2911,15 +2911,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>15650</v>
+        <v>16982</v>
       </c>
       <c r="F101">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2931,15 +2931,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>18980</v>
+        <v>16171</v>
       </c>
       <c r="F102">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2951,15 +2951,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>19724</v>
+        <v>15650</v>
       </c>
       <c r="F103">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2971,15 +2971,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>17234</v>
+        <v>18980</v>
       </c>
       <c r="F104">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2991,15 +2991,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>13972</v>
+        <v>19724</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3011,15 +3011,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>15166</v>
+        <v>17234</v>
       </c>
       <c r="F106">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44113</v>
+        <v>44116</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3031,15 +3031,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>13864</v>
+        <v>13972</v>
       </c>
       <c r="F107">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44112</v>
+        <v>44115</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3051,15 +3051,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>17540</v>
+        <v>12872</v>
       </c>
       <c r="F108">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44111</v>
+        <v>44114</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3071,15 +3071,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>14162</v>
+        <v>15166</v>
       </c>
       <c r="F109">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44110</v>
+        <v>44113</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3091,15 +3091,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>14542</v>
+        <v>13864</v>
       </c>
       <c r="F110">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44109</v>
+        <v>44112</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3111,15 +3111,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>12594</v>
+        <v>17540</v>
       </c>
       <c r="F111">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44108</v>
+        <v>44111</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3131,15 +3131,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>22961</v>
+        <v>14162</v>
       </c>
       <c r="F112">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44107</v>
+        <v>44110</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3151,15 +3151,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>12872</v>
+        <v>14542</v>
       </c>
       <c r="F113">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44106</v>
+        <v>44109</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3171,15 +3171,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>6968</v>
+        <v>12594</v>
       </c>
       <c r="F114">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44105</v>
+        <v>44108</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3191,15 +3191,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>6914</v>
+        <v>22961</v>
       </c>
       <c r="F115">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3211,15 +3211,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>7108</v>
+        <v>12872</v>
       </c>
       <c r="F116">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44103</v>
+        <v>44106</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3231,15 +3231,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>7143</v>
+        <v>6968</v>
       </c>
       <c r="F117">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44102</v>
+        <v>44105</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3251,15 +3251,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>4044</v>
+        <v>6914</v>
       </c>
       <c r="F118">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44101</v>
+        <v>44104</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3271,15 +3271,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>5693</v>
+        <v>7108</v>
       </c>
       <c r="F119">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44100</v>
+        <v>44103</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3291,15 +3291,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>6042</v>
+        <v>7143</v>
       </c>
       <c r="F120">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3311,15 +3311,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>6874</v>
+        <v>4044</v>
       </c>
       <c r="F121">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44098</v>
+        <v>44101</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3331,15 +3331,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>6634</v>
+        <v>5693</v>
       </c>
       <c r="F122">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44097</v>
+        <v>44100</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3351,15 +3351,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>6178</v>
+        <v>6042</v>
       </c>
       <c r="F123">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44096</v>
+        <v>44099</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3371,15 +3371,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>4926</v>
+        <v>6874</v>
       </c>
       <c r="F124">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3391,15 +3391,15 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>4368</v>
+        <v>6634</v>
       </c>
       <c r="F125">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44093</v>
+        <v>44097</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3411,15 +3411,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>4422</v>
+        <v>6178</v>
       </c>
       <c r="F126">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3431,15 +3431,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>4322</v>
+        <v>4926</v>
       </c>
       <c r="F127">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44091</v>
+        <v>44095</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3451,15 +3451,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>3395</v>
+        <v>4368</v>
       </c>
       <c r="F128">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44090</v>
+        <v>44094</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3471,15 +3471,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>3991</v>
+        <v>3899</v>
       </c>
       <c r="F129">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44089</v>
+        <v>44093</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3491,7 +3491,7 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>3105</v>
+        <v>4422</v>
       </c>
       <c r="F130">
         <v>27</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44088</v>
+        <v>44092</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3511,15 +3511,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>2621</v>
+        <v>4322</v>
       </c>
       <c r="F131">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44087</v>
+        <v>44091</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3531,15 +3531,15 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>3330</v>
+        <v>3395</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44086</v>
+        <v>44090</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3551,15 +3551,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>3497</v>
+        <v>3991</v>
       </c>
       <c r="F133">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3571,15 +3571,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>3539</v>
+        <v>3105</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3591,15 +3591,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>2919</v>
+        <v>2621</v>
       </c>
       <c r="F135">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44083</v>
+        <v>44087</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3611,15 +3611,15 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>2659</v>
+        <v>3330</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44082</v>
+        <v>44086</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3631,15 +3631,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>2460</v>
+        <v>3497</v>
       </c>
       <c r="F137">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44081</v>
+        <v>44085</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3651,15 +3651,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>2948</v>
+        <v>3539</v>
       </c>
       <c r="F138">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44080</v>
+        <v>44084</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3671,15 +3671,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>2988</v>
+        <v>2919</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44079</v>
+        <v>44083</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3691,15 +3691,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>1813</v>
+        <v>2659</v>
       </c>
       <c r="F140">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3711,15 +3711,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>1940</v>
+        <v>2460</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3731,15 +3731,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>1735</v>
+        <v>2948</v>
       </c>
       <c r="F142">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44076</v>
+        <v>44080</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3751,15 +3751,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>1508</v>
+        <v>2988</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44075</v>
+        <v>44079</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3771,15 +3771,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>1295</v>
+        <v>1813</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44074</v>
+        <v>44078</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3791,15 +3791,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1406</v>
+        <v>1940</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44073</v>
+        <v>44077</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3811,15 +3811,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44072</v>
+        <v>44076</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3831,15 +3831,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1108</v>
+        <v>1508</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3851,15 +3851,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="F148">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44070</v>
+        <v>44074</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3871,15 +3871,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1522</v>
+        <v>1406</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44069</v>
+        <v>44073</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3891,15 +3891,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1048</v>
+        <v>1715</v>
       </c>
       <c r="F150">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44068</v>
+        <v>44072</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3911,15 +3911,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1184</v>
+        <v>1108</v>
       </c>
       <c r="F151">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44067</v>
+        <v>44071</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3931,15 +3931,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>853</v>
+        <v>1276</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44066</v>
+        <v>44070</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3951,15 +3951,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1160</v>
+        <v>1522</v>
       </c>
       <c r="F153">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44065</v>
+        <v>44069</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3971,15 +3971,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1288</v>
+        <v>1048</v>
       </c>
       <c r="F154">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3991,15 +3991,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1033</v>
+        <v>1184</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44063</v>
+        <v>44067</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4011,15 +4011,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1182</v>
+        <v>853</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44062</v>
+        <v>44066</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4031,15 +4031,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>812</v>
+        <v>1160</v>
       </c>
       <c r="F157">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44061</v>
+        <v>44065</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4051,15 +4051,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1089</v>
+        <v>1288</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44060</v>
+        <v>44064</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4071,15 +4071,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>713</v>
+        <v>1033</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44059</v>
+        <v>44063</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4091,15 +4091,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>1040</v>
+        <v>1182</v>
       </c>
       <c r="F160">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44058</v>
+        <v>44062</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4111,15 +4111,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>1077</v>
+        <v>812</v>
       </c>
       <c r="F161">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4131,15 +4131,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1441</v>
+        <v>1089</v>
       </c>
       <c r="F162">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4151,15 +4151,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1129</v>
+        <v>713</v>
       </c>
       <c r="F163">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44055</v>
+        <v>44059</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4171,15 +4171,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>1009</v>
+        <v>1040</v>
       </c>
       <c r="F164">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44054</v>
+        <v>44058</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4191,15 +4191,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1148</v>
+        <v>1077</v>
       </c>
       <c r="F165">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44053</v>
+        <v>44057</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4211,15 +4211,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>740</v>
+        <v>1441</v>
       </c>
       <c r="F166">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44052</v>
+        <v>44056</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4231,15 +4231,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1062</v>
+        <v>1129</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44051</v>
+        <v>44055</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4251,15 +4251,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>758</v>
+        <v>1009</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4271,15 +4271,15 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>871</v>
+        <v>1148</v>
       </c>
       <c r="F169">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44049</v>
+        <v>44053</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>950</v>
+        <v>740</v>
       </c>
       <c r="F170">
         <v>18</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44048</v>
+        <v>44052</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4311,15 +4311,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>892</v>
+        <v>1062</v>
       </c>
       <c r="F171">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44047</v>
+        <v>44051</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4331,15 +4331,15 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>670</v>
+        <v>758</v>
       </c>
       <c r="F172">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4351,15 +4351,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44045</v>
+        <v>44049</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4371,15 +4371,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>744</v>
+        <v>950</v>
       </c>
       <c r="F174">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44044</v>
+        <v>44048</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4391,15 +4391,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>761</v>
+        <v>892</v>
       </c>
       <c r="F175">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4411,15 +4411,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="F176">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44042</v>
+        <v>44046</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4431,15 +4431,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>846</v>
+        <v>898</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44041</v>
+        <v>44045</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4451,15 +4451,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="F178">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44040</v>
+        <v>44044</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4471,15 +4471,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>581</v>
+        <v>761</v>
       </c>
       <c r="F179">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44038</v>
+        <v>44043</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4491,15 +4491,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>745</v>
+        <v>880</v>
       </c>
       <c r="F180">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44037</v>
+        <v>44042</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4511,15 +4511,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>767</v>
+        <v>846</v>
       </c>
       <c r="F181">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44036</v>
+        <v>44041</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4531,15 +4531,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F182">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44035</v>
+        <v>44040</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4551,15 +4551,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>769</v>
+        <v>581</v>
       </c>
       <c r="F183">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4571,15 +4571,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>560</v>
+        <v>685</v>
       </c>
       <c r="F184">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44033</v>
+        <v>44038</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4591,15 +4591,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>445</v>
+        <v>745</v>
       </c>
       <c r="F185">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4611,15 +4611,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>557</v>
+        <v>767</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44031</v>
+        <v>44036</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4631,15 +4631,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="F187">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44030</v>
+        <v>44035</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4651,7 +4651,7 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>827</v>
+        <v>769</v>
       </c>
       <c r="F188">
         <v>9</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44029</v>
+        <v>44034</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4671,15 +4671,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>687</v>
+        <v>560</v>
       </c>
       <c r="F189">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44028</v>
+        <v>44033</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4691,15 +4691,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>642</v>
+        <v>445</v>
       </c>
       <c r="F190">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44027</v>
+        <v>44032</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4711,15 +4711,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="F191">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44026</v>
+        <v>44031</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4731,15 +4731,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>398</v>
+        <v>726</v>
       </c>
       <c r="F192">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44025</v>
+        <v>44030</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4751,15 +4751,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>530</v>
+        <v>827</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44024</v>
+        <v>44029</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4771,15 +4771,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="F194">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44023</v>
+        <v>44028</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4791,15 +4791,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>820</v>
+        <v>642</v>
       </c>
       <c r="F195">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44022</v>
+        <v>44027</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4811,15 +4811,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="F196">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44021</v>
+        <v>44026</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4831,15 +4831,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>642</v>
+        <v>398</v>
       </c>
       <c r="F197">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44020</v>
+        <v>44025</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4851,15 +4851,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="F198">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44019</v>
+        <v>44024</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4871,15 +4871,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="F199">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4891,15 +4891,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>343</v>
+        <v>820</v>
       </c>
       <c r="F200">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44017</v>
+        <v>44022</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4911,15 +4911,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F201">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44016</v>
+        <v>44021</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4931,15 +4931,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="F202">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44015</v>
+        <v>44020</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4951,15 +4951,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>544</v>
+        <v>630</v>
       </c>
       <c r="F203">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44014</v>
+        <v>44019</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4971,15 +4971,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F204">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44013</v>
+        <v>44018</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4991,15 +4991,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>829</v>
+        <v>343</v>
       </c>
       <c r="F205">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44012</v>
+        <v>44017</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5011,15 +5011,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>689</v>
+        <v>516</v>
       </c>
       <c r="F206">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44011</v>
+        <v>44016</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5031,15 +5031,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>815</v>
+        <v>624</v>
       </c>
       <c r="F207">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44010</v>
+        <v>44015</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5051,15 +5051,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>901</v>
+        <v>544</v>
       </c>
       <c r="F208">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44009</v>
+        <v>44014</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5071,15 +5071,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>890</v>
+        <v>576</v>
       </c>
       <c r="F209">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44008</v>
+        <v>44013</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5091,15 +5091,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>1006</v>
+        <v>829</v>
       </c>
       <c r="F210">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5111,15 +5111,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>1118</v>
+        <v>689</v>
       </c>
       <c r="F211">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44006</v>
+        <v>44011</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5131,15 +5131,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>653</v>
+        <v>815</v>
       </c>
       <c r="F212">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44005</v>
+        <v>44010</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5151,15 +5151,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="F213">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44004</v>
+        <v>44009</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5171,15 +5171,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>958</v>
+        <v>890</v>
       </c>
       <c r="F214">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44003</v>
+        <v>44008</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5191,15 +5191,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>1221</v>
+        <v>1006</v>
       </c>
       <c r="F215">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44002</v>
+        <v>44007</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5211,15 +5211,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>1295</v>
+        <v>1118</v>
       </c>
       <c r="F216">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44001</v>
+        <v>44006</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5231,15 +5231,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>1346</v>
+        <v>653</v>
       </c>
       <c r="F217">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5251,15 +5251,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>1218</v>
+        <v>874</v>
       </c>
       <c r="F218">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>43999</v>
+        <v>44004</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5271,15 +5271,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>1115</v>
+        <v>958</v>
       </c>
       <c r="F219">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>43998</v>
+        <v>44003</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5291,15 +5291,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>1279</v>
+        <v>1221</v>
       </c>
       <c r="F220">
-        <v>120</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>43997</v>
+        <v>44002</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5311,15 +5311,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1056</v>
+        <v>1295</v>
       </c>
       <c r="F221">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>43996</v>
+        <v>44001</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5331,15 +5331,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1514</v>
+        <v>1346</v>
       </c>
       <c r="F222">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>43995</v>
+        <v>44000</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5351,15 +5351,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1425</v>
+        <v>1218</v>
       </c>
       <c r="F223">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>43994</v>
+        <v>43999</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5371,15 +5371,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1541</v>
+        <v>1115</v>
       </c>
       <c r="F224">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5391,15 +5391,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1266</v>
+        <v>1279</v>
       </c>
       <c r="F225">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5411,15 +5411,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1003</v>
+        <v>1056</v>
       </c>
       <c r="F226">
-        <v>164</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5431,15 +5431,15 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1387</v>
+        <v>1514</v>
       </c>
       <c r="F227">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>43990</v>
+        <v>43995</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -5451,15 +5451,15 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>1205</v>
+        <v>1425</v>
       </c>
       <c r="F228">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>43989</v>
+        <v>43994</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -5471,15 +5471,15 @@
         <v>8</v>
       </c>
       <c r="E229">
-        <v>1326</v>
+        <v>1541</v>
       </c>
       <c r="F229">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>43988</v>
+        <v>43993</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5491,15 +5491,15 @@
         <v>8</v>
       </c>
       <c r="E230">
-        <v>1557</v>
+        <v>1266</v>
       </c>
       <c r="F230">
-        <v>143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5511,15 +5511,15 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>1650</v>
+        <v>1003</v>
       </c>
       <c r="F231">
-        <v>258</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5531,15 +5531,15 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>1805</v>
+        <v>1387</v>
       </c>
       <c r="F232">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>43985</v>
+        <v>43990</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5551,15 +5551,15 @@
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1871</v>
+        <v>1205</v>
       </c>
       <c r="F233">
-        <v>254</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>43984</v>
+        <v>43989</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5571,15 +5571,15 @@
         <v>8</v>
       </c>
       <c r="E234">
-        <v>1613</v>
+        <v>1326</v>
       </c>
       <c r="F234">
-        <v>249</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>43983</v>
+        <v>43988</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5591,15 +5591,15 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="F235">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>43982</v>
+        <v>43987</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5611,15 +5611,15 @@
         <v>8</v>
       </c>
       <c r="E236">
-        <v>1936</v>
+        <v>1650</v>
       </c>
       <c r="F236">
-        <v>60</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>43981</v>
+        <v>43986</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5631,15 +5631,15 @@
         <v>8</v>
       </c>
       <c r="E237">
-        <v>2445</v>
+        <v>1805</v>
       </c>
       <c r="F237">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>43980</v>
+        <v>43985</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5651,15 +5651,15 @@
         <v>8</v>
       </c>
       <c r="E238">
-        <v>2095</v>
+        <v>1871</v>
       </c>
       <c r="F238">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>43979</v>
+        <v>43984</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5671,15 +5671,15 @@
         <v>8</v>
       </c>
       <c r="E239">
-        <v>1887</v>
+        <v>1613</v>
       </c>
       <c r="F239">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>43978</v>
+        <v>43983</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5691,15 +5691,15 @@
         <v>8</v>
       </c>
       <c r="E240">
-        <v>2013</v>
+        <v>1570</v>
       </c>
       <c r="F240">
-        <v>422</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>43977</v>
+        <v>43982</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5711,15 +5711,15 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>1936</v>
       </c>
       <c r="F241">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>43976</v>
+        <v>43981</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5731,15 +5731,15 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>1625</v>
+        <v>2445</v>
       </c>
       <c r="F242">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>43975</v>
+        <v>43980</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5751,15 +5751,15 @@
         <v>8</v>
       </c>
       <c r="E243">
-        <v>2409</v>
+        <v>2095</v>
       </c>
       <c r="F243">
-        <v>379</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>43974</v>
+        <v>43979</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5771,15 +5771,15 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>2959</v>
+        <v>1887</v>
       </c>
       <c r="F244">
-        <v>220</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>43973</v>
+        <v>43978</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5791,15 +5791,15 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>3287</v>
+        <v>2013</v>
       </c>
       <c r="F245">
-        <v>291</v>
+        <v>422</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>43972</v>
+        <v>43977</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5811,15 +5811,15 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>2615</v>
+        <v>2004</v>
       </c>
       <c r="F246">
-        <v>273</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>43971</v>
+        <v>43976</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5831,15 +5831,15 @@
         <v>8</v>
       </c>
       <c r="E247">
-        <v>2472</v>
+        <v>1625</v>
       </c>
       <c r="F247">
-        <v>328</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>43970</v>
+        <v>43975</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5851,15 +5851,15 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="F248">
-        <v>500</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>43969</v>
+        <v>43974</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5871,15 +5871,15 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>2684</v>
+        <v>2959</v>
       </c>
       <c r="F249">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>43968</v>
+        <v>43973</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5891,15 +5891,15 @@
         <v>8</v>
       </c>
       <c r="E250">
-        <v>3562</v>
+        <v>3287</v>
       </c>
       <c r="F250">
-        <v>67</v>
+        <v>291</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>43967</v>
+        <v>43972</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5911,15 +5911,15 @@
         <v>8</v>
       </c>
       <c r="E251">
-        <v>3451</v>
+        <v>2615</v>
       </c>
       <c r="F251">
-        <v>411</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>43966</v>
+        <v>43971</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5931,15 +5931,15 @@
         <v>8</v>
       </c>
       <c r="E252">
-        <v>3560</v>
+        <v>2472</v>
       </c>
       <c r="F252">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>43965</v>
+        <v>43970</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5951,15 +5951,15 @@
         <v>8</v>
       </c>
       <c r="E253">
-        <v>3446</v>
+        <v>2412</v>
       </c>
       <c r="F253">
-        <v>352</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>43964</v>
+        <v>43969</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5971,15 +5971,15 @@
         <v>8</v>
       </c>
       <c r="E254">
-        <v>3242</v>
+        <v>2684</v>
       </c>
       <c r="F254">
-        <v>447</v>
+        <v>146</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>43963</v>
+        <v>43968</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5991,15 +5991,15 @@
         <v>8</v>
       </c>
       <c r="E255">
-        <v>3403</v>
+        <v>3562</v>
       </c>
       <c r="F255">
-        <v>614</v>
+        <v>67</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>43962</v>
+        <v>43967</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6011,15 +6011,15 @@
         <v>8</v>
       </c>
       <c r="E256">
-        <v>3877</v>
+        <v>3451</v>
       </c>
       <c r="F256">
-        <v>187</v>
+        <v>411</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>43961</v>
+        <v>43966</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -6031,15 +6031,15 @@
         <v>8</v>
       </c>
       <c r="E257">
-        <v>3923</v>
+        <v>3560</v>
       </c>
       <c r="F257">
-        <v>217</v>
+        <v>350</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>43960</v>
+        <v>43965</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -6051,15 +6051,15 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>3896</v>
+        <v>3446</v>
       </c>
       <c r="F258">
-        <v>275</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -6071,15 +6071,15 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>4649</v>
+        <v>3242</v>
       </c>
       <c r="F259">
-        <v>579</v>
+        <v>447</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>43958</v>
+        <v>43963</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -6091,15 +6091,15 @@
         <v>8</v>
       </c>
       <c r="E260">
-        <v>5614</v>
+        <v>3403</v>
       </c>
       <c r="F260">
-        <v>458</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>43957</v>
+        <v>43962</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -6111,15 +6111,15 @@
         <v>8</v>
       </c>
       <c r="E261">
-        <v>6111</v>
+        <v>3877</v>
       </c>
       <c r="F261">
-        <v>647</v>
+        <v>187</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -6131,15 +6131,15 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>4406</v>
+        <v>3923</v>
       </c>
       <c r="F262">
-        <v>726</v>
+        <v>217</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>43955</v>
+        <v>43960</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -6151,15 +6151,15 @@
         <v>8</v>
       </c>
       <c r="E263">
-        <v>3985</v>
+        <v>3896</v>
       </c>
       <c r="F263">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>43954</v>
+        <v>43959</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6171,15 +6171,15 @@
         <v>8</v>
       </c>
       <c r="E264">
-        <v>4339</v>
+        <v>4649</v>
       </c>
       <c r="F264">
-        <v>253</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>43953</v>
+        <v>43958</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -6191,15 +6191,15 @@
         <v>8</v>
       </c>
       <c r="E265">
-        <v>4806</v>
+        <v>5614</v>
       </c>
       <c r="F265">
-        <v>584</v>
+        <v>458</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -6211,15 +6211,15 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>6201</v>
+        <v>6111</v>
       </c>
       <c r="F266">
-        <v>698</v>
+        <v>647</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>43951</v>
+        <v>43956</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -6231,15 +6231,15 @@
         <v>8</v>
       </c>
       <c r="E267">
-        <v>6032</v>
+        <v>4406</v>
       </c>
       <c r="F267">
-        <v>634</v>
+        <v>726</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>43950</v>
+        <v>43955</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -6251,15 +6251,15 @@
         <v>8</v>
       </c>
       <c r="E268">
-        <v>4076</v>
+        <v>3985</v>
       </c>
       <c r="F268">
-        <v>769</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>43949</v>
+        <v>43954</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6271,15 +6271,15 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>3996</v>
+        <v>4339</v>
       </c>
       <c r="F269">
-        <v>969</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>43948</v>
+        <v>43953</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6291,15 +6291,15 @@
         <v>8</v>
       </c>
       <c r="E270">
-        <v>4310</v>
+        <v>4806</v>
       </c>
       <c r="F270">
-        <v>320</v>
+        <v>584</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>43947</v>
+        <v>43952</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6311,15 +6311,15 @@
         <v>8</v>
       </c>
       <c r="E271">
-        <v>4463</v>
+        <v>6201</v>
       </c>
       <c r="F271">
-        <v>364</v>
+        <v>698</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>43946</v>
+        <v>43951</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6331,15 +6331,15 @@
         <v>8</v>
       </c>
       <c r="E272">
-        <v>4913</v>
+        <v>6032</v>
       </c>
       <c r="F272">
-        <v>815</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>43945</v>
+        <v>43950</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6351,15 +6351,15 @@
         <v>8</v>
       </c>
       <c r="E273">
-        <v>5386</v>
+        <v>4076</v>
       </c>
       <c r="F273">
-        <v>1010</v>
+        <v>769</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>43944</v>
+        <v>43949</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6371,15 +6371,15 @@
         <v>8</v>
       </c>
       <c r="E274">
-        <v>4583</v>
+        <v>3996</v>
       </c>
       <c r="F274">
-        <v>682</v>
+        <v>969</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>43943</v>
+        <v>43948</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6391,15 +6391,15 @@
         <v>8</v>
       </c>
       <c r="E275">
-        <v>4451</v>
+        <v>4310</v>
       </c>
       <c r="F275">
-        <v>847</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6411,15 +6411,15 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>4301</v>
+        <v>4463</v>
       </c>
       <c r="F276">
-        <v>1224</v>
+        <v>364</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>43941</v>
+        <v>43946</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6431,15 +6431,15 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>4676</v>
+        <v>4913</v>
       </c>
       <c r="F277">
-        <v>570</v>
+        <v>815</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>43940</v>
+        <v>43945</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6451,15 +6451,15 @@
         <v>8</v>
       </c>
       <c r="E278">
-        <v>5850</v>
+        <v>5386</v>
       </c>
       <c r="F278">
-        <v>432</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>43939</v>
+        <v>43944</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6471,15 +6471,15 @@
         <v>8</v>
       </c>
       <c r="E279">
-        <v>5526</v>
+        <v>4583</v>
       </c>
       <c r="F279">
-        <v>1105</v>
+        <v>682</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>43938</v>
+        <v>43943</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6491,15 +6491,15 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>5599</v>
+        <v>4451</v>
       </c>
       <c r="F280">
-        <v>913</v>
+        <v>847</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>43937</v>
+        <v>43942</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6511,15 +6511,15 @@
         <v>8</v>
       </c>
       <c r="E281">
-        <v>4618</v>
+        <v>4301</v>
       </c>
       <c r="F281">
-        <v>1036</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>43936</v>
+        <v>43941</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6531,15 +6531,15 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>4605</v>
+        <v>4676</v>
       </c>
       <c r="F282">
-        <v>880</v>
+        <v>570</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>43935</v>
+        <v>43940</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6551,15 +6551,15 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>5252</v>
+        <v>5850</v>
       </c>
       <c r="F283">
-        <v>1076</v>
+        <v>432</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>43934</v>
+        <v>43939</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6571,15 +6571,15 @@
         <v>8</v>
       </c>
       <c r="E284">
-        <v>4342</v>
+        <v>5526</v>
       </c>
       <c r="F284">
-        <v>724</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>43933</v>
+        <v>43938</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6591,15 +6591,15 @@
         <v>8</v>
       </c>
       <c r="E285">
-        <v>5288</v>
+        <v>5599</v>
       </c>
       <c r="F285">
-        <v>657</v>
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>43932</v>
+        <v>43937</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6611,15 +6611,15 @@
         <v>8</v>
       </c>
       <c r="E286">
-        <v>5234</v>
+        <v>4618</v>
       </c>
       <c r="F286">
-        <v>843</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>43931</v>
+        <v>43936</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6631,15 +6631,15 @@
         <v>8</v>
       </c>
       <c r="E287">
-        <v>5706</v>
+        <v>4605</v>
       </c>
       <c r="F287">
-        <v>1122</v>
+        <v>880</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>43930</v>
+        <v>43935</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6651,15 +6651,15 @@
         <v>8</v>
       </c>
       <c r="E288">
-        <v>4675</v>
+        <v>5252</v>
       </c>
       <c r="F288">
-        <v>1116</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>43929</v>
+        <v>43934</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6671,15 +6671,15 @@
         <v>8</v>
       </c>
       <c r="E289">
-        <v>5865</v>
+        <v>4342</v>
       </c>
       <c r="F289">
-        <v>1030</v>
+        <v>724</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>43928</v>
+        <v>43933</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6691,15 +6691,15 @@
         <v>8</v>
       </c>
       <c r="E290">
-        <v>3888</v>
+        <v>5288</v>
       </c>
       <c r="F290">
-        <v>1105</v>
+        <v>657</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>43927</v>
+        <v>43932</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6711,15 +6711,15 @@
         <v>8</v>
       </c>
       <c r="E291">
-        <v>4143</v>
+        <v>5234</v>
       </c>
       <c r="F291">
-        <v>567</v>
+        <v>843</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>43926</v>
+        <v>43931</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -6731,15 +6731,15 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>6199</v>
+        <v>5706</v>
       </c>
       <c r="F292">
-        <v>599</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>43925</v>
+        <v>43930</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6751,15 +6751,15 @@
         <v>8</v>
       </c>
       <c r="E293">
-        <v>4000</v>
+        <v>4675</v>
       </c>
       <c r="F293">
-        <v>756</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6771,15 +6771,15 @@
         <v>8</v>
       </c>
       <c r="E294">
-        <v>4672</v>
+        <v>5865</v>
       </c>
       <c r="F294">
-        <v>736</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>43923</v>
+        <v>43928</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6791,15 +6791,15 @@
         <v>8</v>
       </c>
       <c r="E295">
-        <v>4522</v>
+        <v>3888</v>
       </c>
       <c r="F295">
-        <v>657</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>43922</v>
+        <v>43927</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6811,15 +6811,15 @@
         <v>8</v>
       </c>
       <c r="E296">
-        <v>4567</v>
+        <v>4143</v>
       </c>
       <c r="F296">
-        <v>672</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6831,15 +6831,15 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>3250</v>
+        <v>6199</v>
       </c>
       <c r="F297">
-        <v>403</v>
+        <v>599</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6851,15 +6851,15 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>2665</v>
+        <v>4000</v>
       </c>
       <c r="F298">
-        <v>374</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>43919</v>
+        <v>43924</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6871,15 +6871,15 @@
         <v>8</v>
       </c>
       <c r="E299">
-        <v>2502</v>
+        <v>4672</v>
       </c>
       <c r="F299">
-        <v>212</v>
+        <v>736</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>43918</v>
+        <v>43923</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6891,15 +6891,15 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>2556</v>
+        <v>4522</v>
       </c>
       <c r="F300">
-        <v>292</v>
+        <v>657</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>43917</v>
+        <v>43922</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6911,15 +6911,15 @@
         <v>8</v>
       </c>
       <c r="E301">
-        <v>2890</v>
+        <v>4567</v>
       </c>
       <c r="F301">
-        <v>288</v>
+        <v>672</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6931,15 +6931,15 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>2129</v>
+        <v>3250</v>
       </c>
       <c r="F302">
-        <v>181</v>
+        <v>403</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>43915</v>
+        <v>43920</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6951,15 +6951,15 @@
         <v>8</v>
       </c>
       <c r="E303">
-        <v>1452</v>
+        <v>2665</v>
       </c>
       <c r="F303">
-        <v>191</v>
+        <v>374</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>43914</v>
+        <v>43919</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6971,15 +6971,15 @@
         <v>8</v>
       </c>
       <c r="E304">
-        <v>1427</v>
+        <v>2502</v>
       </c>
       <c r="F304">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>43913</v>
+        <v>43918</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6991,15 +6991,15 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>967</v>
+        <v>2556</v>
       </c>
       <c r="F305">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>43912</v>
+        <v>43917</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7011,15 +7011,15 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>665</v>
+        <v>2890</v>
       </c>
       <c r="F306">
-        <v>36</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -7031,15 +7031,15 @@
         <v>8</v>
       </c>
       <c r="E307">
-        <v>1035</v>
+        <v>2129</v>
       </c>
       <c r="F307">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -7051,15 +7051,15 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>714</v>
+        <v>1452</v>
       </c>
       <c r="F308">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>43909</v>
+        <v>43914</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -7071,15 +7071,15 @@
         <v>8</v>
       </c>
       <c r="E309">
-        <v>643</v>
+        <v>1427</v>
       </c>
       <c r="F309">
-        <v>45</v>
+        <v>148</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -7091,15 +7091,15 @@
         <v>8</v>
       </c>
       <c r="E310">
-        <v>676</v>
+        <v>967</v>
       </c>
       <c r="F310">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>43907</v>
+        <v>43912</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -7111,15 +7111,15 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>407</v>
+        <v>665</v>
       </c>
       <c r="F311">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43906</v>
+        <v>43911</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -7131,15 +7131,15 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>152</v>
+        <v>1035</v>
       </c>
       <c r="F312">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -7151,15 +7151,15 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>330</v>
+        <v>714</v>
       </c>
       <c r="F313">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43904</v>
+        <v>43909</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7171,15 +7171,15 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>264</v>
+        <v>643</v>
       </c>
       <c r="F314">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7191,15 +7191,15 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>207</v>
+        <v>676</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7211,15 +7211,15 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>134</v>
+        <v>407</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
@@ -7231,15 +7231,15 @@
         <v>8</v>
       </c>
       <c r="E317">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>43899</v>
+        <v>43905</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -7251,15 +7251,15 @@
         <v>8</v>
       </c>
       <c r="E318">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="F318">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>43898</v>
+        <v>43904</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
@@ -7271,15 +7271,15 @@
         <v>8</v>
       </c>
       <c r="E319">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>43897</v>
+        <v>43903</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -7291,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="E320">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>43896</v>
+        <v>43902</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
@@ -7311,15 +7311,15 @@
         <v>8</v>
       </c>
       <c r="E321">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>43895</v>
+        <v>43901</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
@@ -7331,7 +7331,7 @@
         <v>8</v>
       </c>
       <c r="E322">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43894</v>
+        <v>43900</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -7351,15 +7351,15 @@
         <v>8</v>
       </c>
       <c r="E323">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43893</v>
+        <v>43899</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -7371,15 +7371,15 @@
         <v>8</v>
       </c>
       <c r="E324">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43892</v>
+        <v>43898</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
@@ -7391,7 +7391,7 @@
         <v>8</v>
       </c>
       <c r="E325">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43891</v>
+        <v>43897</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
@@ -7411,15 +7411,15 @@
         <v>8</v>
       </c>
       <c r="E326">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -7431,15 +7431,15 @@
         <v>8</v>
       </c>
       <c r="E327">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43889</v>
+        <v>43895</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
@@ -7451,7 +7451,7 @@
         <v>8</v>
       </c>
       <c r="E328">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43888</v>
+        <v>43894</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -7471,7 +7471,7 @@
         <v>8</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43887</v>
+        <v>43893</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -7491,7 +7491,7 @@
         <v>8</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43886</v>
+        <v>43892</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
@@ -7511,7 +7511,7 @@
         <v>8</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7531,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="E332">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43884</v>
+        <v>43890</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7551,7 +7551,7 @@
         <v>8</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43883</v>
+        <v>43889</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7571,7 +7571,7 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43882</v>
+        <v>43888</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43881</v>
+        <v>43887</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43880</v>
+        <v>43886</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43879</v>
+        <v>43885</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7651,7 +7651,7 @@
         <v>8</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43878</v>
+        <v>43884</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43877</v>
+        <v>43883</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43876</v>
+        <v>43882</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43875</v>
+        <v>43881</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43874</v>
+        <v>43880</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7751,7 +7751,7 @@
         <v>8</v>
       </c>
       <c r="E343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43873</v>
+        <v>43879</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>43872</v>
+        <v>43878</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>43871</v>
+        <v>43877</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7811,7 +7811,7 @@
         <v>8</v>
       </c>
       <c r="E346">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>43870</v>
+        <v>43876</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -7831,7 +7831,7 @@
         <v>8</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>43869</v>
+        <v>43875</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>43868</v>
+        <v>43874</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -7871,7 +7871,7 @@
         <v>8</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>43867</v>
+        <v>43873</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -7891,7 +7891,7 @@
         <v>8</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>43866</v>
+        <v>43872</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>43865</v>
+        <v>43871</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -7931,7 +7931,7 @@
         <v>8</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>43864</v>
+        <v>43870</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -7951,7 +7951,7 @@
         <v>8</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>43863</v>
+        <v>43869</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>43861</v>
+        <v>43867</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -8011,7 +8011,7 @@
         <v>8</v>
       </c>
       <c r="E356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>43860</v>
+        <v>43866</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>43858</v>
+        <v>43865</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>43857</v>
+        <v>43864</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>43856</v>
+        <v>43863</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>43855</v>
+        <v>43862</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>43854</v>
+        <v>43861</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -8131,7 +8131,7 @@
         <v>8</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>43853</v>
+        <v>43860</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>43852</v>
+        <v>43859</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>43851</v>
+        <v>43858</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>43850</v>
+        <v>43857</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>43849</v>
+        <v>43856</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>43848</v>
+        <v>43855</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>43847</v>
+        <v>43854</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>43846</v>
+        <v>43853</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>43845</v>
+        <v>43852</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>43844</v>
+        <v>43851</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>43843</v>
+        <v>43850</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>43842</v>
+        <v>43849</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>43841</v>
+        <v>43848</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>43839</v>
+        <v>43846</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>43838</v>
+        <v>43845</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>43837</v>
+        <v>43844</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>43836</v>
+        <v>43843</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>43835</v>
+        <v>43842</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>43834</v>
+        <v>43841</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>44115</v>
+        <v>43839</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8571,15 +8571,15 @@
         <v>8</v>
       </c>
       <c r="E384">
-        <v>12872</v>
+        <v>0</v>
       </c>
       <c r="F384">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>44094</v>
+        <v>43838</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8591,15 +8591,15 @@
         <v>8</v>
       </c>
       <c r="E385">
-        <v>3899</v>
+        <v>0</v>
       </c>
       <c r="F385">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>44039</v>
+        <v>43837</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -8611,15 +8611,15 @@
         <v>8</v>
       </c>
       <c r="E386">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>43900</v>
+        <v>43836</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -8631,15 +8631,15 @@
         <v>8</v>
       </c>
       <c r="E387">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F387">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>43859</v>
+        <v>43835</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -8654,6 +8654,46 @@
         <v>0</v>
       </c>
       <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" t="s">
+        <v>8</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" t="s">
+        <v>8</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
         <v>0</v>
       </c>
     </row>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8EEC585-EF57-4D3E-A306-8845349EAAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85CBCE7-1D94-4E93-A5FD-F2E88DE9915F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-25" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-26" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,14 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F390"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -919,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -931,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F2">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -951,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F3">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -971,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F4">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -991,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F5">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1011,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F6">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1031,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F7">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1051,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F8">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1071,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F9">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1091,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F10">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1111,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F11">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1131,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F12">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1151,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F13">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1171,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F14">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1191,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F15">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1211,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F16">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1231,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F17">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1251,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F18">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1271,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F19">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1291,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F20">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1311,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F21">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1331,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F22">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1351,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F23">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1371,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F24">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1391,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F25">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1411,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F26">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1431,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F27">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1451,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F28">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1471,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>53135</v>
+        <v>50023</v>
       </c>
       <c r="F29">
-        <v>414</v>
+        <v>981</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1491,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>41385</v>
+        <v>53135</v>
       </c>
       <c r="F30">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1511,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>30501</v>
+        <v>41385</v>
       </c>
       <c r="F31">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1531,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>35691</v>
+        <v>30501</v>
       </c>
       <c r="F32">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1551,15 +1548,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>32725</v>
+        <v>35691</v>
       </c>
       <c r="F33">
-        <v>613</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1571,15 +1568,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>39877</v>
+        <v>32725</v>
       </c>
       <c r="F34">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1591,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>39237</v>
+        <v>39877</v>
       </c>
       <c r="F35">
-        <v>744</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1611,15 +1608,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>36804</v>
+        <v>39237</v>
       </c>
       <c r="F36">
-        <v>691</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1631,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>33364</v>
+        <v>36804</v>
       </c>
       <c r="F37">
-        <v>215</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1651,15 +1648,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>35928</v>
+        <v>33364</v>
       </c>
       <c r="F38">
-        <v>326</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1671,15 +1668,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>27052</v>
+        <v>35928</v>
       </c>
       <c r="F39">
-        <v>534</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1691,15 +1688,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>28507</v>
+        <v>27052</v>
       </c>
       <c r="F40">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1711,15 +1708,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>35383</v>
+        <v>28507</v>
       </c>
       <c r="F41">
-        <v>532</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1731,15 +1728,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>25161</v>
+        <v>35383</v>
       </c>
       <c r="F42">
-        <v>613</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1751,15 +1748,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>18450</v>
+        <v>25161</v>
       </c>
       <c r="F43">
-        <v>506</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1771,15 +1768,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>20263</v>
+        <v>18450</v>
       </c>
       <c r="F44">
-        <v>232</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1791,15 +1788,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>18447</v>
+        <v>20263</v>
       </c>
       <c r="F45">
-        <v>144</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1811,15 +1808,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>21502</v>
+        <v>18447</v>
       </c>
       <c r="F46">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1831,15 +1828,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>21672</v>
+        <v>21502</v>
       </c>
       <c r="F47">
-        <v>424</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1851,15 +1848,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>20964</v>
+        <v>21672</v>
       </c>
       <c r="F48">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1871,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>16578</v>
+        <v>20964</v>
       </c>
       <c r="F49">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1891,15 +1888,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>12282</v>
+        <v>16578</v>
       </c>
       <c r="F50">
-        <v>616</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1911,15 +1908,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>14718</v>
+        <v>12282</v>
       </c>
       <c r="F51">
-        <v>189</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1931,15 +1928,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>17272</v>
+        <v>14718</v>
       </c>
       <c r="F52">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1951,15 +1948,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>15539</v>
+        <v>17272</v>
       </c>
       <c r="F53">
-        <v>397</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1971,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>16298</v>
+        <v>15539</v>
       </c>
       <c r="F54">
-        <v>504</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1991,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>14879</v>
+        <v>16298</v>
       </c>
       <c r="F55">
-        <v>414</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2011,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>16170</v>
+        <v>14879</v>
       </c>
       <c r="F56">
-        <v>648</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2031,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>13430</v>
+        <v>16170</v>
       </c>
       <c r="F57">
-        <v>603</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2051,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>12330</v>
+        <v>13430</v>
       </c>
       <c r="F58">
-        <v>205</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2071,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>12155</v>
+        <v>12330</v>
       </c>
       <c r="F59">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2091,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>15871</v>
+        <v>12155</v>
       </c>
       <c r="F60">
-        <v>479</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2111,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>16022</v>
+        <v>15871</v>
       </c>
       <c r="F61">
-        <v>521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2131,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>17555</v>
+        <v>16022</v>
       </c>
       <c r="F62">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2151,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>18213</v>
+        <v>17555</v>
       </c>
       <c r="F63">
-        <v>696</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2171,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>11299</v>
+        <v>18213</v>
       </c>
       <c r="F64">
-        <v>608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2191,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>15450</v>
+        <v>11299</v>
       </c>
       <c r="F65">
-        <v>206</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2211,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>18662</v>
+        <v>15450</v>
       </c>
       <c r="F66">
-        <v>398</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2231,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>19875</v>
+        <v>18662</v>
       </c>
       <c r="F67">
-        <v>341</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2251,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>20252</v>
+        <v>19875</v>
       </c>
       <c r="F68">
-        <v>511</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2271,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>22915</v>
+        <v>20252</v>
       </c>
       <c r="F69">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2291,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>19609</v>
+        <v>22915</v>
       </c>
       <c r="F70">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2311,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>20051</v>
+        <v>19609</v>
       </c>
       <c r="F71">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2331,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>21363</v>
+        <v>20051</v>
       </c>
       <c r="F72">
-        <v>213</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2351,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>24962</v>
+        <v>21363</v>
       </c>
       <c r="F73">
-        <v>168</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2371,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>26860</v>
+        <v>24962</v>
       </c>
       <c r="F74">
-        <v>462</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2391,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>27301</v>
+        <v>26860</v>
       </c>
       <c r="F75">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2411,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>33470</v>
+        <v>27301</v>
       </c>
       <c r="F76">
-        <v>563</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2431,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>22950</v>
+        <v>33470</v>
       </c>
       <c r="F77">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2451,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>20412</v>
+        <v>22950</v>
       </c>
       <c r="F78">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2471,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>21350</v>
+        <v>20412</v>
       </c>
       <c r="F79">
-        <v>194</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2491,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>20572</v>
+        <v>21350</v>
       </c>
       <c r="F80">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2511,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>24957</v>
+        <v>20572</v>
       </c>
       <c r="F81">
-        <v>413</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2531,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>23287</v>
+        <v>24957</v>
       </c>
       <c r="F82">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2551,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>24141</v>
+        <v>23287</v>
       </c>
       <c r="F83">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2571,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>25177</v>
+        <v>24141</v>
       </c>
       <c r="F84">
-        <v>492</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2591,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>20018</v>
+        <v>25177</v>
       </c>
       <c r="F85">
-        <v>397</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2611,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>18950</v>
+        <v>20018</v>
       </c>
       <c r="F86">
-        <v>136</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2631,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>23254</v>
+        <v>18950</v>
       </c>
       <c r="F87">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2651,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>21915</v>
+        <v>23254</v>
       </c>
       <c r="F88">
-        <v>326</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2671,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>24405</v>
+        <v>21915</v>
       </c>
       <c r="F89">
-        <v>274</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2691,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>23065</v>
+        <v>24405</v>
       </c>
       <c r="F90">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2711,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>24701</v>
+        <v>23065</v>
       </c>
       <c r="F91">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2731,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>22885</v>
+        <v>24701</v>
       </c>
       <c r="F92">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2751,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>20890</v>
+        <v>22885</v>
       </c>
       <c r="F93">
-        <v>102</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2771,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>19790</v>
+        <v>20890</v>
       </c>
       <c r="F94">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2791,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>23012</v>
+        <v>19790</v>
       </c>
       <c r="F95">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2811,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>20530</v>
+        <v>23012</v>
       </c>
       <c r="F96">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2831,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>21242</v>
+        <v>20530</v>
       </c>
       <c r="F97">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2851,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>26688</v>
+        <v>21242</v>
       </c>
       <c r="F98">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2871,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>21331</v>
+        <v>26688</v>
       </c>
       <c r="F99">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2891,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>18804</v>
+        <v>21331</v>
       </c>
       <c r="F100">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2911,15 +2908,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>16982</v>
+        <v>18804</v>
       </c>
       <c r="F101">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2931,15 +2928,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>16171</v>
+        <v>16982</v>
       </c>
       <c r="F102">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2951,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>15650</v>
+        <v>16171</v>
       </c>
       <c r="F103">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2971,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>18980</v>
+        <v>15650</v>
       </c>
       <c r="F104">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2991,15 +2988,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>19724</v>
+        <v>18980</v>
       </c>
       <c r="F105">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3011,15 +3008,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>17234</v>
+        <v>19724</v>
       </c>
       <c r="F106">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3031,15 +3028,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>13972</v>
+        <v>17234</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3051,15 +3048,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>12872</v>
+        <v>13972</v>
       </c>
       <c r="F108">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3071,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>15166</v>
+        <v>12872</v>
       </c>
       <c r="F109">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3091,15 +3088,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>13864</v>
+        <v>15166</v>
       </c>
       <c r="F110">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3111,15 +3108,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>17540</v>
+        <v>13864</v>
       </c>
       <c r="F111">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3131,15 +3128,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>14162</v>
+        <v>17540</v>
       </c>
       <c r="F112">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3151,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>14542</v>
+        <v>14162</v>
       </c>
       <c r="F113">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3171,15 +3168,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>12594</v>
+        <v>14542</v>
       </c>
       <c r="F114">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3191,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>22961</v>
+        <v>12594</v>
       </c>
       <c r="F115">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3211,15 +3208,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>12872</v>
+        <v>22961</v>
       </c>
       <c r="F116">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3231,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>6968</v>
+        <v>12872</v>
       </c>
       <c r="F117">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3251,15 +3248,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>6914</v>
+        <v>6968</v>
       </c>
       <c r="F118">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3271,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>7108</v>
+        <v>6914</v>
       </c>
       <c r="F119">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3291,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>7143</v>
+        <v>7108</v>
       </c>
       <c r="F120">
         <v>71</v>
@@ -3299,7 +3296,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3311,15 +3308,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>4044</v>
+        <v>7143</v>
       </c>
       <c r="F121">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3331,15 +3328,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>5693</v>
+        <v>4044</v>
       </c>
       <c r="F122">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3351,15 +3348,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>6042</v>
+        <v>5693</v>
       </c>
       <c r="F123">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3371,15 +3368,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>6874</v>
+        <v>6042</v>
       </c>
       <c r="F124">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3391,15 +3388,15 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>6634</v>
+        <v>6874</v>
       </c>
       <c r="F125">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3411,15 +3408,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>6178</v>
+        <v>6634</v>
       </c>
       <c r="F126">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3431,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>4926</v>
+        <v>6178</v>
       </c>
       <c r="F127">
         <v>37</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3451,15 +3448,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>4368</v>
+        <v>4926</v>
       </c>
       <c r="F128">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3471,15 +3468,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>3899</v>
+        <v>4368</v>
       </c>
       <c r="F129">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3491,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>4422</v>
+        <v>3899</v>
       </c>
       <c r="F130">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3511,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>4322</v>
+        <v>4422</v>
       </c>
       <c r="F131">
         <v>27</v>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3531,15 +3528,15 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>3395</v>
+        <v>4322</v>
       </c>
       <c r="F132">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3551,15 +3548,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>3991</v>
+        <v>3395</v>
       </c>
       <c r="F133">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3571,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>3105</v>
+        <v>3991</v>
       </c>
       <c r="F134">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3591,15 +3588,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>2621</v>
+        <v>3105</v>
       </c>
       <c r="F135">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3611,15 +3608,15 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>3330</v>
+        <v>2621</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3631,15 +3628,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>3497</v>
+        <v>3330</v>
       </c>
       <c r="F137">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3651,15 +3648,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>3539</v>
+        <v>3497</v>
       </c>
       <c r="F138">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3671,15 +3668,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>2919</v>
+        <v>3539</v>
       </c>
       <c r="F139">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3691,15 +3688,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>2659</v>
+        <v>2919</v>
       </c>
       <c r="F140">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3711,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>2460</v>
+        <v>2659</v>
       </c>
       <c r="F141">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3731,15 +3728,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2948</v>
+        <v>2460</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3751,15 +3748,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>2988</v>
+        <v>2948</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3771,15 +3768,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>1813</v>
+        <v>2988</v>
       </c>
       <c r="F144">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3791,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1940</v>
+        <v>1813</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3811,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1735</v>
+        <v>1940</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3831,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1508</v>
+        <v>1735</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3851,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1295</v>
+        <v>1508</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3871,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1406</v>
+        <v>1295</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3891,15 +3888,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1715</v>
+        <v>1406</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3911,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1108</v>
+        <v>1715</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3931,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1276</v>
+        <v>1108</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3951,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1522</v>
+        <v>1276</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3971,15 +3968,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1048</v>
+        <v>1522</v>
       </c>
       <c r="F154">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3991,7 +3988,7 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1184</v>
+        <v>1048</v>
       </c>
       <c r="F155">
         <v>16</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4011,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>853</v>
+        <v>1184</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4031,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1160</v>
+        <v>853</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4051,15 +4048,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1288</v>
+        <v>1160</v>
       </c>
       <c r="F158">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4071,15 +4068,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>1033</v>
+        <v>1288</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4091,15 +4088,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>1182</v>
+        <v>1033</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4111,15 +4108,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>812</v>
+        <v>1182</v>
       </c>
       <c r="F161">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4131,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1089</v>
+        <v>812</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4151,15 +4148,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>713</v>
+        <v>1089</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4171,15 +4168,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>1040</v>
+        <v>713</v>
       </c>
       <c r="F164">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4191,15 +4188,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1077</v>
+        <v>1040</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4211,15 +4208,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>1441</v>
+        <v>1077</v>
       </c>
       <c r="F166">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4231,15 +4228,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1129</v>
+        <v>1441</v>
       </c>
       <c r="F167">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4251,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1009</v>
+        <v>1129</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4271,15 +4268,15 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>1148</v>
+        <v>1009</v>
       </c>
       <c r="F169">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4291,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>740</v>
+        <v>1148</v>
       </c>
       <c r="F170">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44052</v>
+        <v>44053</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4311,15 +4308,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>1062</v>
+        <v>740</v>
       </c>
       <c r="F171">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4331,15 +4328,15 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>758</v>
+        <v>1062</v>
       </c>
       <c r="F172">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4351,15 +4348,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>871</v>
+        <v>758</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4371,15 +4368,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>950</v>
+        <v>871</v>
       </c>
       <c r="F174">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4391,15 +4388,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>892</v>
+        <v>950</v>
       </c>
       <c r="F175">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4411,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>670</v>
+        <v>892</v>
       </c>
       <c r="F176">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4431,15 +4428,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>898</v>
+        <v>670</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4451,15 +4448,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>744</v>
+        <v>898</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4471,15 +4468,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F179">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4491,15 +4488,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>880</v>
+        <v>761</v>
       </c>
       <c r="F180">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4511,15 +4508,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4531,15 +4528,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>763</v>
+        <v>846</v>
       </c>
       <c r="F182">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4551,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>581</v>
+        <v>763</v>
       </c>
       <c r="F183">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4571,15 +4568,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>685</v>
+        <v>581</v>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4591,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>745</v>
+        <v>685</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4611,15 +4608,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="F186">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4631,15 +4628,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F187">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4651,15 +4648,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F188">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4671,15 +4668,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="F189">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4691,15 +4688,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>445</v>
+        <v>560</v>
       </c>
       <c r="F190">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4711,15 +4708,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>557</v>
+        <v>445</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44031</v>
+        <v>44032</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4731,15 +4728,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>726</v>
+        <v>557</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4751,15 +4748,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>827</v>
+        <v>726</v>
       </c>
       <c r="F193">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4771,15 +4768,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>687</v>
+        <v>827</v>
       </c>
       <c r="F194">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4791,15 +4788,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4811,15 +4808,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="F196">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4831,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>398</v>
+        <v>538</v>
       </c>
       <c r="F197">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4851,15 +4848,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4871,15 +4868,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="F199">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4891,15 +4888,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>820</v>
+        <v>650</v>
       </c>
       <c r="F200">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4911,15 +4908,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>512</v>
+        <v>820</v>
       </c>
       <c r="F201">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4931,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>642</v>
+        <v>512</v>
       </c>
       <c r="F202">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4951,15 +4948,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F203">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4971,15 +4968,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="F204">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4991,15 +4988,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>343</v>
+        <v>581</v>
       </c>
       <c r="F205">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5011,15 +5008,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="F206">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5031,15 +5028,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>624</v>
+        <v>516</v>
       </c>
       <c r="F207">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5051,15 +5048,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="F208">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5071,15 +5068,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="F209">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5091,15 +5088,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>829</v>
+        <v>576</v>
       </c>
       <c r="F210">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5111,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>689</v>
+        <v>829</v>
       </c>
       <c r="F211">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5131,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>815</v>
+        <v>689</v>
       </c>
       <c r="F212">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5151,15 +5148,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>901</v>
+        <v>815</v>
       </c>
       <c r="F213">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5171,15 +5168,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="F214">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5191,15 +5188,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>1006</v>
+        <v>890</v>
       </c>
       <c r="F215">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5211,15 +5208,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>1118</v>
+        <v>1006</v>
       </c>
       <c r="F216">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5231,15 +5228,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>653</v>
+        <v>1118</v>
       </c>
       <c r="F217">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5251,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>874</v>
+        <v>653</v>
       </c>
       <c r="F218">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5271,15 +5268,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>958</v>
+        <v>874</v>
       </c>
       <c r="F219">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5291,15 +5288,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>1221</v>
+        <v>958</v>
       </c>
       <c r="F220">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5311,15 +5308,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1295</v>
+        <v>1221</v>
       </c>
       <c r="F221">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5331,15 +5328,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="F222">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5351,15 +5348,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1218</v>
+        <v>1346</v>
       </c>
       <c r="F223">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5371,15 +5368,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1115</v>
+        <v>1218</v>
       </c>
       <c r="F224">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5391,15 +5388,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1279</v>
+        <v>1115</v>
       </c>
       <c r="F225">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5411,15 +5408,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1056</v>
+        <v>1279</v>
       </c>
       <c r="F226">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5431,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1514</v>
+        <v>1056</v>
       </c>
       <c r="F227">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8695,6 +8692,26 @@
       </c>
       <c r="F390">
         <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391">
+        <v>1514</v>
+      </c>
+      <c r="F391">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85CBCE7-1D94-4E93-A5FD-F2E88DE9915F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9208979D-DCA7-4724-8AE7-C280273D7074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-26" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-27" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F2">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F3">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F4">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F5">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F6">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F7">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F8">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F9">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F10">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F11">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F12">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F13">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F14">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F15">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F16">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F17">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F18">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F19">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F20">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F21">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F22">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F23">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F24">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F25">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F26">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F27">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F28">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F29">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>53135</v>
+        <v>50023</v>
       </c>
       <c r="F30">
-        <v>414</v>
+        <v>981</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1508,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>41385</v>
+        <v>53135</v>
       </c>
       <c r="F31">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1528,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>30501</v>
+        <v>41385</v>
       </c>
       <c r="F32">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1548,15 +1548,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>35691</v>
+        <v>30501</v>
       </c>
       <c r="F33">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1568,15 +1568,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>32725</v>
+        <v>35691</v>
       </c>
       <c r="F34">
-        <v>613</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1588,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>39877</v>
+        <v>32725</v>
       </c>
       <c r="F35">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1608,15 +1608,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>39237</v>
+        <v>39877</v>
       </c>
       <c r="F36">
-        <v>744</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1628,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>36804</v>
+        <v>39237</v>
       </c>
       <c r="F37">
-        <v>691</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1648,15 +1648,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>33364</v>
+        <v>36804</v>
       </c>
       <c r="F38">
-        <v>215</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1668,15 +1668,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>35928</v>
+        <v>33364</v>
       </c>
       <c r="F39">
-        <v>326</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1688,15 +1688,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>27052</v>
+        <v>35928</v>
       </c>
       <c r="F40">
-        <v>534</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1708,15 +1708,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>28507</v>
+        <v>27052</v>
       </c>
       <c r="F41">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1728,15 +1728,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>35383</v>
+        <v>28507</v>
       </c>
       <c r="F42">
-        <v>532</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1748,15 +1748,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>25161</v>
+        <v>35383</v>
       </c>
       <c r="F43">
-        <v>613</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1768,15 +1768,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>18450</v>
+        <v>25161</v>
       </c>
       <c r="F44">
-        <v>506</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1788,15 +1788,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>20263</v>
+        <v>18450</v>
       </c>
       <c r="F45">
-        <v>232</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1808,15 +1808,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>18447</v>
+        <v>20263</v>
       </c>
       <c r="F46">
-        <v>144</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1828,15 +1828,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>21502</v>
+        <v>18447</v>
       </c>
       <c r="F47">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1848,15 +1848,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>21672</v>
+        <v>21502</v>
       </c>
       <c r="F48">
-        <v>424</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1868,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>20964</v>
+        <v>21672</v>
       </c>
       <c r="F49">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1888,15 +1888,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>16578</v>
+        <v>20964</v>
       </c>
       <c r="F50">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1908,15 +1908,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>12282</v>
+        <v>16578</v>
       </c>
       <c r="F51">
-        <v>616</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1928,15 +1928,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>14718</v>
+        <v>12282</v>
       </c>
       <c r="F52">
-        <v>189</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1948,15 +1948,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>17272</v>
+        <v>14718</v>
       </c>
       <c r="F53">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>15539</v>
+        <v>17272</v>
       </c>
       <c r="F54">
-        <v>397</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1988,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>16298</v>
+        <v>15539</v>
       </c>
       <c r="F55">
-        <v>504</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2008,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>14879</v>
+        <v>16298</v>
       </c>
       <c r="F56">
-        <v>414</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2028,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>16170</v>
+        <v>14879</v>
       </c>
       <c r="F57">
-        <v>648</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>13430</v>
+        <v>16170</v>
       </c>
       <c r="F58">
-        <v>603</v>
+        <v>648</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2068,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>12330</v>
+        <v>13430</v>
       </c>
       <c r="F59">
-        <v>205</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2088,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>12155</v>
+        <v>12330</v>
       </c>
       <c r="F60">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2108,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>15871</v>
+        <v>12155</v>
       </c>
       <c r="F61">
-        <v>479</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2128,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>16022</v>
+        <v>15871</v>
       </c>
       <c r="F62">
-        <v>521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2148,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>17555</v>
+        <v>16022</v>
       </c>
       <c r="F63">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2168,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>18213</v>
+        <v>17555</v>
       </c>
       <c r="F64">
-        <v>696</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2188,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>11299</v>
+        <v>18213</v>
       </c>
       <c r="F65">
-        <v>608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2208,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>15450</v>
+        <v>11299</v>
       </c>
       <c r="F66">
-        <v>206</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2228,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>18662</v>
+        <v>15450</v>
       </c>
       <c r="F67">
-        <v>398</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2248,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>19875</v>
+        <v>18662</v>
       </c>
       <c r="F68">
-        <v>341</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>20252</v>
+        <v>19875</v>
       </c>
       <c r="F69">
-        <v>511</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2288,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>22915</v>
+        <v>20252</v>
       </c>
       <c r="F70">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>19609</v>
+        <v>22915</v>
       </c>
       <c r="F71">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2328,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>20051</v>
+        <v>19609</v>
       </c>
       <c r="F72">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2348,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>21363</v>
+        <v>20051</v>
       </c>
       <c r="F73">
-        <v>213</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2368,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>24962</v>
+        <v>21363</v>
       </c>
       <c r="F74">
-        <v>168</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2388,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>26860</v>
+        <v>24962</v>
       </c>
       <c r="F75">
-        <v>462</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2408,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>27301</v>
+        <v>26860</v>
       </c>
       <c r="F76">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2428,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>33470</v>
+        <v>27301</v>
       </c>
       <c r="F77">
-        <v>563</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>22950</v>
+        <v>33470</v>
       </c>
       <c r="F78">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2468,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>20412</v>
+        <v>22950</v>
       </c>
       <c r="F79">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2488,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>21350</v>
+        <v>20412</v>
       </c>
       <c r="F80">
-        <v>194</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2508,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>20572</v>
+        <v>21350</v>
       </c>
       <c r="F81">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2528,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>24957</v>
+        <v>20572</v>
       </c>
       <c r="F82">
-        <v>413</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2548,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>23287</v>
+        <v>24957</v>
       </c>
       <c r="F83">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2568,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>24141</v>
+        <v>23287</v>
       </c>
       <c r="F84">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2588,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>25177</v>
+        <v>24141</v>
       </c>
       <c r="F85">
-        <v>492</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2608,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>20018</v>
+        <v>25177</v>
       </c>
       <c r="F86">
-        <v>397</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2628,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>18950</v>
+        <v>20018</v>
       </c>
       <c r="F87">
-        <v>136</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>23254</v>
+        <v>18950</v>
       </c>
       <c r="F88">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2668,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>21915</v>
+        <v>23254</v>
       </c>
       <c r="F89">
-        <v>326</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2688,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>24405</v>
+        <v>21915</v>
       </c>
       <c r="F90">
-        <v>274</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2708,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>23065</v>
+        <v>24405</v>
       </c>
       <c r="F91">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>24701</v>
+        <v>23065</v>
       </c>
       <c r="F92">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2748,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>22885</v>
+        <v>24701</v>
       </c>
       <c r="F93">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2768,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>20890</v>
+        <v>22885</v>
       </c>
       <c r="F94">
-        <v>102</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2788,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>19790</v>
+        <v>20890</v>
       </c>
       <c r="F95">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2808,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>23012</v>
+        <v>19790</v>
       </c>
       <c r="F96">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2828,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>20530</v>
+        <v>23012</v>
       </c>
       <c r="F97">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>21242</v>
+        <v>20530</v>
       </c>
       <c r="F98">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2868,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>26688</v>
+        <v>21242</v>
       </c>
       <c r="F99">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2888,10 +2888,10 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>21331</v>
+        <v>26688</v>
       </c>
       <c r="F100">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,7 +3776,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1813</v>
+        <v>1940</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1940</v>
+        <v>1735</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1735</v>
+        <v>1508</v>
       </c>
       <c r="F147">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1508</v>
+        <v>1295</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1295</v>
+        <v>1406</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,15 +3888,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1406</v>
+        <v>1715</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1715</v>
+        <v>1108</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1108</v>
+        <v>1276</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1276</v>
+        <v>1522</v>
       </c>
       <c r="F153">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,15 +3968,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1522</v>
+        <v>1048</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1048</v>
+        <v>1184</v>
       </c>
       <c r="F155">
         <v>16</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1184</v>
+        <v>853</v>
       </c>
       <c r="F156">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>853</v>
+        <v>1160</v>
       </c>
       <c r="F157">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,15 +4048,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1160</v>
+        <v>1288</v>
       </c>
       <c r="F158">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4068,15 +4068,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>1288</v>
+        <v>1033</v>
       </c>
       <c r="F159">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4088,15 +4088,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>1033</v>
+        <v>1182</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4108,15 +4108,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>1182</v>
+        <v>812</v>
       </c>
       <c r="F161">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4128,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>812</v>
+        <v>1089</v>
       </c>
       <c r="F162">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4148,15 +4148,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1089</v>
+        <v>713</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4168,15 +4168,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>713</v>
+        <v>1040</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4188,15 +4188,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1040</v>
+        <v>1077</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4208,15 +4208,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>1077</v>
+        <v>1441</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4228,15 +4228,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1441</v>
+        <v>1129</v>
       </c>
       <c r="F167">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4248,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1129</v>
+        <v>1009</v>
       </c>
       <c r="F168">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4268,15 +4268,15 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>1009</v>
+        <v>1148</v>
       </c>
       <c r="F169">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4288,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>1148</v>
+        <v>740</v>
       </c>
       <c r="F170">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4308,15 +4308,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>740</v>
+        <v>1062</v>
       </c>
       <c r="F171">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4328,15 +4328,15 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>1062</v>
+        <v>758</v>
       </c>
       <c r="F172">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4348,15 +4348,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>758</v>
+        <v>871</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4368,15 +4368,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>871</v>
+        <v>950</v>
       </c>
       <c r="F174">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4388,15 +4388,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>950</v>
+        <v>892</v>
       </c>
       <c r="F175">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4408,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>892</v>
+        <v>670</v>
       </c>
       <c r="F176">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4428,15 +4428,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>670</v>
+        <v>898</v>
       </c>
       <c r="F177">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4448,15 +4448,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>898</v>
+        <v>744</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4468,15 +4468,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="F179">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4488,15 +4488,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>761</v>
+        <v>880</v>
       </c>
       <c r="F180">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4508,15 +4508,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="F181">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4528,15 +4528,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>846</v>
+        <v>763</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4548,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>763</v>
+        <v>581</v>
       </c>
       <c r="F183">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4568,15 +4568,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="F184">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4588,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4608,15 +4608,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="F186">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4628,15 +4628,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F187">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4648,15 +4648,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F188">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4668,15 +4668,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>769</v>
+        <v>560</v>
       </c>
       <c r="F189">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4688,15 +4688,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>560</v>
+        <v>445</v>
       </c>
       <c r="F190">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4708,15 +4708,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="F191">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4728,15 +4728,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>557</v>
+        <v>726</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4748,15 +4748,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="F193">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4768,15 +4768,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>827</v>
+        <v>687</v>
       </c>
       <c r="F194">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4788,15 +4788,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="F195">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4808,15 +4808,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>642</v>
+        <v>538</v>
       </c>
       <c r="F196">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4828,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>538</v>
+        <v>398</v>
       </c>
       <c r="F197">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4848,15 +4848,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>398</v>
+        <v>530</v>
       </c>
       <c r="F198">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4868,15 +4868,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="F199">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4888,15 +4888,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="F200">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4908,15 +4908,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>820</v>
+        <v>512</v>
       </c>
       <c r="F201">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4928,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>512</v>
+        <v>642</v>
       </c>
       <c r="F202">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4948,15 +4948,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F203">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4968,15 +4968,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="F204">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4988,15 +4988,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>581</v>
+        <v>343</v>
       </c>
       <c r="F205">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5008,15 +5008,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>343</v>
+        <v>516</v>
       </c>
       <c r="F206">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5028,15 +5028,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="F207">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5048,15 +5048,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="F208">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5068,15 +5068,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="F209">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5088,15 +5088,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>576</v>
+        <v>829</v>
       </c>
       <c r="F210">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5108,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>829</v>
+        <v>689</v>
       </c>
       <c r="F211">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5128,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>689</v>
+        <v>815</v>
       </c>
       <c r="F212">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5148,15 +5148,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>815</v>
+        <v>901</v>
       </c>
       <c r="F213">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5168,15 +5168,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F214">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5188,15 +5188,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>890</v>
+        <v>1006</v>
       </c>
       <c r="F215">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5208,15 +5208,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>1006</v>
+        <v>1118</v>
       </c>
       <c r="F216">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5228,15 +5228,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>1118</v>
+        <v>653</v>
       </c>
       <c r="F217">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5248,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>653</v>
+        <v>874</v>
       </c>
       <c r="F218">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5268,15 +5268,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>874</v>
+        <v>958</v>
       </c>
       <c r="F219">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5288,15 +5288,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>958</v>
+        <v>1221</v>
       </c>
       <c r="F220">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5308,15 +5308,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1221</v>
+        <v>1295</v>
       </c>
       <c r="F221">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5328,15 +5328,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="F222">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5348,15 +5348,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1346</v>
+        <v>1218</v>
       </c>
       <c r="F223">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5368,15 +5368,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1218</v>
+        <v>1115</v>
       </c>
       <c r="F224">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5388,15 +5388,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1115</v>
+        <v>1279</v>
       </c>
       <c r="F225">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5408,15 +5408,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1279</v>
+        <v>1056</v>
       </c>
       <c r="F226">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5428,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1056</v>
+        <v>1514</v>
       </c>
       <c r="F227">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8696,7 +8696,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>43996</v>
+        <v>44124</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -8708,10 +8708,30 @@
         <v>8</v>
       </c>
       <c r="E391">
-        <v>1514</v>
+        <v>21331</v>
       </c>
       <c r="F391">
-        <v>27</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>8</v>
+      </c>
+      <c r="E392">
+        <v>1813</v>
+      </c>
+      <c r="F392">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9208979D-DCA7-4724-8AE7-C280273D7074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1F11A8-9F04-4F6B-A114-6E8F2568E795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-27" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-28" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F392"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>25308</v>
+        <v>28680</v>
       </c>
       <c r="F2">
-        <v>1725</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F3">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F4">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F5">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F6">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F7">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F8">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F9">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F10">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F11">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F12">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F13">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F14">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F15">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F16">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F17">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F18">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F19">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F20">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F21">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F22">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F23">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F24">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F25">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F26">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F27">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F28">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F29">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F30">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>17272</v>
+        <v>15539</v>
       </c>
       <c r="F54">
-        <v>231</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1988,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>15539</v>
+        <v>16298</v>
       </c>
       <c r="F55">
-        <v>397</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2008,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>16298</v>
+        <v>14879</v>
       </c>
       <c r="F56">
-        <v>504</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2028,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>14879</v>
+        <v>16170</v>
       </c>
       <c r="F57">
-        <v>414</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>16170</v>
+        <v>13430</v>
       </c>
       <c r="F58">
-        <v>648</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2068,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>13430</v>
+        <v>12330</v>
       </c>
       <c r="F59">
-        <v>603</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2088,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>12330</v>
+        <v>12155</v>
       </c>
       <c r="F60">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2108,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>12155</v>
+        <v>15871</v>
       </c>
       <c r="F61">
-        <v>215</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2128,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>15871</v>
+        <v>16022</v>
       </c>
       <c r="F62">
-        <v>479</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2148,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>16022</v>
+        <v>17555</v>
       </c>
       <c r="F63">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2168,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>17555</v>
+        <v>18213</v>
       </c>
       <c r="F64">
-        <v>498</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2188,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>18213</v>
+        <v>11299</v>
       </c>
       <c r="F65">
-        <v>696</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2208,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>11299</v>
+        <v>15450</v>
       </c>
       <c r="F66">
-        <v>608</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2228,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>15450</v>
+        <v>18662</v>
       </c>
       <c r="F67">
-        <v>206</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2248,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>18662</v>
+        <v>19875</v>
       </c>
       <c r="F68">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>19875</v>
+        <v>20252</v>
       </c>
       <c r="F69">
-        <v>341</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2288,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>20252</v>
+        <v>22915</v>
       </c>
       <c r="F70">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>22915</v>
+        <v>19609</v>
       </c>
       <c r="F71">
-        <v>501</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2328,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>19609</v>
+        <v>20051</v>
       </c>
       <c r="F72">
-        <v>529</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2348,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>20051</v>
+        <v>21363</v>
       </c>
       <c r="F73">
-        <v>598</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2368,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>21363</v>
+        <v>24962</v>
       </c>
       <c r="F74">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2388,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>24962</v>
+        <v>26860</v>
       </c>
       <c r="F75">
-        <v>168</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2408,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>26860</v>
+        <v>27301</v>
       </c>
       <c r="F76">
-        <v>462</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2428,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>27301</v>
+        <v>33470</v>
       </c>
       <c r="F77">
-        <v>376</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>33470</v>
+        <v>22950</v>
       </c>
       <c r="F78">
-        <v>563</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2468,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>22950</v>
+        <v>20412</v>
       </c>
       <c r="F79">
-        <v>595</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2488,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>20412</v>
+        <v>21350</v>
       </c>
       <c r="F80">
-        <v>532</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2508,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>21350</v>
+        <v>20572</v>
       </c>
       <c r="F81">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2528,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>20572</v>
+        <v>24957</v>
       </c>
       <c r="F82">
-        <v>156</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2548,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>24957</v>
+        <v>23287</v>
       </c>
       <c r="F83">
-        <v>413</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2568,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>23287</v>
+        <v>24141</v>
       </c>
       <c r="F84">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2588,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>24141</v>
+        <v>25177</v>
       </c>
       <c r="F85">
-        <v>378</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2608,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>25177</v>
+        <v>20018</v>
       </c>
       <c r="F86">
-        <v>492</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2628,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>20018</v>
+        <v>18950</v>
       </c>
       <c r="F87">
-        <v>397</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>18950</v>
+        <v>23254</v>
       </c>
       <c r="F88">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2668,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>23254</v>
+        <v>21915</v>
       </c>
       <c r="F89">
-        <v>162</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2688,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>21915</v>
+        <v>24405</v>
       </c>
       <c r="F90">
-        <v>326</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2708,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>24405</v>
+        <v>23065</v>
       </c>
       <c r="F91">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>23065</v>
+        <v>22885</v>
       </c>
       <c r="F92">
-        <v>280</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2748,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>24701</v>
+        <v>20890</v>
       </c>
       <c r="F93">
-        <v>310</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2768,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>22885</v>
+        <v>19790</v>
       </c>
       <c r="F94">
-        <v>367</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44130</v>
+        <v>44127</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2788,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>20890</v>
+        <v>20530</v>
       </c>
       <c r="F95">
-        <v>102</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44129</v>
+        <v>44126</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2808,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>19790</v>
+        <v>21242</v>
       </c>
       <c r="F96">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44128</v>
+        <v>44125</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2828,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>23012</v>
+        <v>26688</v>
       </c>
       <c r="F97">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44127</v>
+        <v>44124</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>20530</v>
+        <v>21331</v>
       </c>
       <c r="F98">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44126</v>
+        <v>44123</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2868,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>21242</v>
+        <v>18804</v>
       </c>
       <c r="F99">
-        <v>189</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44125</v>
+        <v>44122</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2888,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>26688</v>
+        <v>16982</v>
       </c>
       <c r="F100">
-        <v>191</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2908,15 +2908,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>18804</v>
+        <v>16171</v>
       </c>
       <c r="F101">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2928,15 +2928,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>16982</v>
+        <v>15650</v>
       </c>
       <c r="F102">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2948,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>16171</v>
+        <v>18980</v>
       </c>
       <c r="F103">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2968,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>15650</v>
+        <v>19724</v>
       </c>
       <c r="F104">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2988,15 +2988,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>18980</v>
+        <v>17234</v>
       </c>
       <c r="F105">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3008,15 +3008,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>19724</v>
+        <v>13972</v>
       </c>
       <c r="F106">
-        <v>137</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3028,15 +3028,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>17234</v>
+        <v>12872</v>
       </c>
       <c r="F107">
-        <v>143</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3048,15 +3048,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>13972</v>
+        <v>15166</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3068,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>12872</v>
+        <v>13864</v>
       </c>
       <c r="F109">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3088,15 +3088,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>15166</v>
+        <v>17540</v>
       </c>
       <c r="F110">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3108,15 +3108,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>13864</v>
+        <v>14162</v>
       </c>
       <c r="F111">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3128,15 +3128,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>17540</v>
+        <v>14542</v>
       </c>
       <c r="F112">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3148,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>14162</v>
+        <v>12594</v>
       </c>
       <c r="F113">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3168,15 +3168,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>14542</v>
+        <v>22961</v>
       </c>
       <c r="F114">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3188,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>12594</v>
+        <v>12872</v>
       </c>
       <c r="F115">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3208,15 +3208,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>22961</v>
+        <v>6968</v>
       </c>
       <c r="F116">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3228,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>12872</v>
+        <v>6914</v>
       </c>
       <c r="F117">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3248,15 +3248,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>6968</v>
+        <v>7108</v>
       </c>
       <c r="F118">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3268,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>6914</v>
+        <v>7143</v>
       </c>
       <c r="F119">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3288,15 +3288,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>7108</v>
+        <v>4044</v>
       </c>
       <c r="F120">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3308,15 +3308,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>7143</v>
+        <v>5693</v>
       </c>
       <c r="F121">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3328,15 +3328,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>4044</v>
+        <v>6042</v>
       </c>
       <c r="F122">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3348,15 +3348,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>5693</v>
+        <v>6874</v>
       </c>
       <c r="F123">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3368,15 +3368,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>6042</v>
+        <v>6634</v>
       </c>
       <c r="F124">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3388,15 +3388,15 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>6874</v>
+        <v>6178</v>
       </c>
       <c r="F125">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3408,15 +3408,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>6634</v>
+        <v>4926</v>
       </c>
       <c r="F126">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3428,15 +3428,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>6178</v>
+        <v>4368</v>
       </c>
       <c r="F127">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3448,15 +3448,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>4926</v>
+        <v>3899</v>
       </c>
       <c r="F128">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3468,15 +3468,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>4368</v>
+        <v>4422</v>
       </c>
       <c r="F129">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3488,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>3899</v>
+        <v>4322</v>
       </c>
       <c r="F130">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3508,15 +3508,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>4422</v>
+        <v>3395</v>
       </c>
       <c r="F131">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3528,15 +3528,15 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>4322</v>
+        <v>3991</v>
       </c>
       <c r="F132">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3548,15 +3548,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>3395</v>
+        <v>3105</v>
       </c>
       <c r="F133">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3568,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>3991</v>
+        <v>2621</v>
       </c>
       <c r="F134">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3588,15 +3588,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>3105</v>
+        <v>3330</v>
       </c>
       <c r="F135">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3608,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>2621</v>
+        <v>3497</v>
       </c>
       <c r="F136">
         <v>9</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3628,15 +3628,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>3330</v>
+        <v>3539</v>
       </c>
       <c r="F137">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3648,15 +3648,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>3497</v>
+        <v>2919</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3668,15 +3668,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>3539</v>
+        <v>2659</v>
       </c>
       <c r="F139">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3688,15 +3688,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>2919</v>
+        <v>2460</v>
       </c>
       <c r="F140">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3708,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>2659</v>
+        <v>2948</v>
       </c>
       <c r="F141">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3728,15 +3728,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2460</v>
+        <v>2988</v>
       </c>
       <c r="F142">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3748,15 +3748,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>2948</v>
+        <v>1813</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3768,15 +3768,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>2988</v>
+        <v>1940</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1940</v>
+        <v>1735</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1735</v>
+        <v>1508</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1508</v>
+        <v>1295</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1295</v>
+        <v>1406</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1406</v>
+        <v>1715</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,15 +3888,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1715</v>
+        <v>1108</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1108</v>
+        <v>1276</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1276</v>
+        <v>1522</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1522</v>
+        <v>1048</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,7 +3968,7 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1048</v>
+        <v>1184</v>
       </c>
       <c r="F154">
         <v>16</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,15 +3988,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1184</v>
+        <v>853</v>
       </c>
       <c r="F155">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>853</v>
+        <v>1160</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1160</v>
+        <v>1288</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,15 +4048,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1288</v>
+        <v>1033</v>
       </c>
       <c r="F158">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4068,15 +4068,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>1033</v>
+        <v>1182</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4088,15 +4088,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>1182</v>
+        <v>812</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4108,15 +4108,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>812</v>
+        <v>1089</v>
       </c>
       <c r="F161">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4128,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1089</v>
+        <v>713</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4148,15 +4148,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>713</v>
+        <v>1040</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4168,15 +4168,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>1040</v>
+        <v>1077</v>
       </c>
       <c r="F164">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4188,15 +4188,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1077</v>
+        <v>1441</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4208,15 +4208,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>1441</v>
+        <v>1129</v>
       </c>
       <c r="F166">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4228,15 +4228,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1129</v>
+        <v>1009</v>
       </c>
       <c r="F167">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4248,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1009</v>
+        <v>1148</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4268,15 +4268,15 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>1148</v>
+        <v>740</v>
       </c>
       <c r="F169">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4288,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>740</v>
+        <v>1062</v>
       </c>
       <c r="F170">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4308,15 +4308,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>1062</v>
+        <v>758</v>
       </c>
       <c r="F171">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4328,15 +4328,15 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>758</v>
+        <v>871</v>
       </c>
       <c r="F172">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4348,15 +4348,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>871</v>
+        <v>950</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4368,15 +4368,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>950</v>
+        <v>892</v>
       </c>
       <c r="F174">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4388,15 +4388,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>892</v>
+        <v>670</v>
       </c>
       <c r="F175">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4408,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>670</v>
+        <v>898</v>
       </c>
       <c r="F176">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4428,15 +4428,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>898</v>
+        <v>744</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4448,15 +4448,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4468,15 +4468,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>761</v>
+        <v>880</v>
       </c>
       <c r="F179">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4488,15 +4488,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="F180">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4508,15 +4508,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>846</v>
+        <v>763</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4528,15 +4528,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>763</v>
+        <v>581</v>
       </c>
       <c r="F182">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4548,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="F183">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4568,15 +4568,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4588,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4608,15 +4608,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F186">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4628,15 +4628,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F187">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4648,15 +4648,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>769</v>
+        <v>560</v>
       </c>
       <c r="F188">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4668,15 +4668,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>560</v>
+        <v>445</v>
       </c>
       <c r="F189">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4688,15 +4688,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="F190">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4708,15 +4708,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>557</v>
+        <v>726</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4728,15 +4728,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4748,15 +4748,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>827</v>
+        <v>687</v>
       </c>
       <c r="F193">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4768,15 +4768,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="F194">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4788,15 +4788,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>642</v>
+        <v>538</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4808,15 +4808,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>538</v>
+        <v>398</v>
       </c>
       <c r="F196">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4828,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>398</v>
+        <v>530</v>
       </c>
       <c r="F197">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4848,15 +4848,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4868,15 +4868,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="F199">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4888,15 +4888,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>820</v>
+        <v>512</v>
       </c>
       <c r="F200">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4908,15 +4908,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>512</v>
+        <v>642</v>
       </c>
       <c r="F201">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4928,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F202">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4948,15 +4948,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="F203">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4968,15 +4968,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>581</v>
+        <v>343</v>
       </c>
       <c r="F204">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4988,15 +4988,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>343</v>
+        <v>516</v>
       </c>
       <c r="F205">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5008,15 +5008,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="F206">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5028,15 +5028,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="F207">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5048,15 +5048,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>544</v>
+        <v>829</v>
       </c>
       <c r="F208">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5068,15 +5068,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>576</v>
+        <v>689</v>
       </c>
       <c r="F209">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5088,15 +5088,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F210">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5108,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>689</v>
+        <v>901</v>
       </c>
       <c r="F211">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5128,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>815</v>
+        <v>890</v>
       </c>
       <c r="F212">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5148,15 +5148,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>901</v>
+        <v>1006</v>
       </c>
       <c r="F213">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5168,15 +5168,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>890</v>
+        <v>1118</v>
       </c>
       <c r="F214">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5188,15 +5188,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>1006</v>
+        <v>653</v>
       </c>
       <c r="F215">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5208,15 +5208,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>1118</v>
+        <v>874</v>
       </c>
       <c r="F216">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5228,15 +5228,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>653</v>
+        <v>958</v>
       </c>
       <c r="F217">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5248,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>874</v>
+        <v>1221</v>
       </c>
       <c r="F218">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5268,15 +5268,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>958</v>
+        <v>1295</v>
       </c>
       <c r="F219">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5288,15 +5288,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>1221</v>
+        <v>1346</v>
       </c>
       <c r="F220">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5308,15 +5308,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1295</v>
+        <v>1218</v>
       </c>
       <c r="F221">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5328,15 +5328,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="F222">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5348,15 +5348,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1218</v>
+        <v>1279</v>
       </c>
       <c r="F223">
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5368,15 +5368,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1115</v>
+        <v>1056</v>
       </c>
       <c r="F224">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5388,15 +5388,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1279</v>
+        <v>1514</v>
       </c>
       <c r="F225">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5408,15 +5408,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1056</v>
+        <v>1425</v>
       </c>
       <c r="F226">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5428,15 +5428,15 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1514</v>
+        <v>1541</v>
       </c>
       <c r="F227">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -5448,15 +5448,15 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>1425</v>
+        <v>1266</v>
       </c>
       <c r="F228">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -5468,15 +5468,15 @@
         <v>8</v>
       </c>
       <c r="E229">
-        <v>1541</v>
+        <v>1003</v>
       </c>
       <c r="F229">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5488,15 +5488,15 @@
         <v>8</v>
       </c>
       <c r="E230">
-        <v>1266</v>
+        <v>1387</v>
       </c>
       <c r="F230">
-        <v>76</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5508,15 +5508,15 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>1003</v>
+        <v>1205</v>
       </c>
       <c r="F231">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5528,15 +5528,15 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>1387</v>
+        <v>1326</v>
       </c>
       <c r="F232">
-        <v>195</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5548,15 +5548,15 @@
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1205</v>
+        <v>1557</v>
       </c>
       <c r="F233">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5568,15 +5568,15 @@
         <v>8</v>
       </c>
       <c r="E234">
-        <v>1326</v>
+        <v>1650</v>
       </c>
       <c r="F234">
-        <v>54</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5588,15 +5588,15 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>1557</v>
+        <v>1805</v>
       </c>
       <c r="F235">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5608,15 +5608,15 @@
         <v>8</v>
       </c>
       <c r="E236">
-        <v>1650</v>
+        <v>1871</v>
       </c>
       <c r="F236">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5628,15 +5628,15 @@
         <v>8</v>
       </c>
       <c r="E237">
-        <v>1805</v>
+        <v>1613</v>
       </c>
       <c r="F237">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5648,15 +5648,15 @@
         <v>8</v>
       </c>
       <c r="E238">
-        <v>1871</v>
+        <v>1570</v>
       </c>
       <c r="F238">
-        <v>254</v>
+        <v>86</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5668,15 +5668,15 @@
         <v>8</v>
       </c>
       <c r="E239">
-        <v>1613</v>
+        <v>1936</v>
       </c>
       <c r="F239">
-        <v>249</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5688,15 +5688,15 @@
         <v>8</v>
       </c>
       <c r="E240">
-        <v>1570</v>
+        <v>2445</v>
       </c>
       <c r="F240">
-        <v>86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5708,15 +5708,15 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>1936</v>
+        <v>2095</v>
       </c>
       <c r="F241">
-        <v>60</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5728,15 +5728,15 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>2445</v>
+        <v>1887</v>
       </c>
       <c r="F242">
-        <v>154</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5748,15 +5748,15 @@
         <v>8</v>
       </c>
       <c r="E243">
-        <v>2095</v>
+        <v>2013</v>
       </c>
       <c r="F243">
-        <v>274</v>
+        <v>422</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5768,15 +5768,15 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>1887</v>
+        <v>2004</v>
       </c>
       <c r="F244">
-        <v>343</v>
+        <v>131</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5788,15 +5788,15 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>2013</v>
+        <v>1625</v>
       </c>
       <c r="F245">
-        <v>422</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5808,15 +5808,15 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>2004</v>
+        <v>2409</v>
       </c>
       <c r="F246">
-        <v>131</v>
+        <v>379</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5828,15 +5828,15 @@
         <v>8</v>
       </c>
       <c r="E247">
-        <v>1625</v>
+        <v>2959</v>
       </c>
       <c r="F247">
-        <v>104</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5848,15 +5848,15 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>2409</v>
+        <v>3287</v>
       </c>
       <c r="F248">
-        <v>379</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5868,15 +5868,15 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>2959</v>
+        <v>2615</v>
       </c>
       <c r="F249">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5888,15 +5888,15 @@
         <v>8</v>
       </c>
       <c r="E250">
-        <v>3287</v>
+        <v>2472</v>
       </c>
       <c r="F250">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5908,15 +5908,15 @@
         <v>8</v>
       </c>
       <c r="E251">
-        <v>2615</v>
+        <v>2412</v>
       </c>
       <c r="F251">
-        <v>273</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5928,15 +5928,15 @@
         <v>8</v>
       </c>
       <c r="E252">
-        <v>2472</v>
+        <v>2684</v>
       </c>
       <c r="F252">
-        <v>328</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5948,15 +5948,15 @@
         <v>8</v>
       </c>
       <c r="E253">
-        <v>2412</v>
+        <v>3562</v>
       </c>
       <c r="F253">
-        <v>500</v>
+        <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5968,15 +5968,15 @@
         <v>8</v>
       </c>
       <c r="E254">
-        <v>2684</v>
+        <v>3451</v>
       </c>
       <c r="F254">
-        <v>146</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5988,15 +5988,15 @@
         <v>8</v>
       </c>
       <c r="E255">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="F255">
-        <v>67</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6008,15 +6008,15 @@
         <v>8</v>
       </c>
       <c r="E256">
-        <v>3451</v>
+        <v>3446</v>
       </c>
       <c r="F256">
-        <v>411</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -6028,15 +6028,15 @@
         <v>8</v>
       </c>
       <c r="E257">
-        <v>3560</v>
+        <v>3242</v>
       </c>
       <c r="F257">
-        <v>350</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -6048,15 +6048,15 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>3446</v>
+        <v>3403</v>
       </c>
       <c r="F258">
-        <v>352</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -6068,15 +6068,15 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>3242</v>
+        <v>3877</v>
       </c>
       <c r="F259">
-        <v>447</v>
+        <v>187</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -6088,15 +6088,15 @@
         <v>8</v>
       </c>
       <c r="E260">
-        <v>3403</v>
+        <v>3923</v>
       </c>
       <c r="F260">
-        <v>614</v>
+        <v>217</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -6108,15 +6108,15 @@
         <v>8</v>
       </c>
       <c r="E261">
-        <v>3877</v>
+        <v>3896</v>
       </c>
       <c r="F261">
-        <v>187</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -6128,15 +6128,15 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>3923</v>
+        <v>4649</v>
       </c>
       <c r="F262">
-        <v>217</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -6148,15 +6148,15 @@
         <v>8</v>
       </c>
       <c r="E263">
-        <v>3896</v>
+        <v>5614</v>
       </c>
       <c r="F263">
-        <v>275</v>
+        <v>458</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6168,15 +6168,15 @@
         <v>8</v>
       </c>
       <c r="E264">
-        <v>4649</v>
+        <v>6111</v>
       </c>
       <c r="F264">
-        <v>579</v>
+        <v>647</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -6188,15 +6188,15 @@
         <v>8</v>
       </c>
       <c r="E265">
-        <v>5614</v>
+        <v>4406</v>
       </c>
       <c r="F265">
-        <v>458</v>
+        <v>726</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -6208,15 +6208,15 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>6111</v>
+        <v>3985</v>
       </c>
       <c r="F266">
-        <v>647</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -6228,15 +6228,15 @@
         <v>8</v>
       </c>
       <c r="E267">
-        <v>4406</v>
+        <v>4339</v>
       </c>
       <c r="F267">
-        <v>726</v>
+        <v>253</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -6248,15 +6248,15 @@
         <v>8</v>
       </c>
       <c r="E268">
-        <v>3985</v>
+        <v>4806</v>
       </c>
       <c r="F268">
-        <v>272</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6268,15 +6268,15 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>4339</v>
+        <v>6201</v>
       </c>
       <c r="F269">
-        <v>253</v>
+        <v>698</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6288,15 +6288,15 @@
         <v>8</v>
       </c>
       <c r="E270">
-        <v>4806</v>
+        <v>6032</v>
       </c>
       <c r="F270">
-        <v>584</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6308,15 +6308,15 @@
         <v>8</v>
       </c>
       <c r="E271">
-        <v>6201</v>
+        <v>4076</v>
       </c>
       <c r="F271">
-        <v>698</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6328,15 +6328,15 @@
         <v>8</v>
       </c>
       <c r="E272">
-        <v>6032</v>
+        <v>3996</v>
       </c>
       <c r="F272">
-        <v>634</v>
+        <v>969</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6348,15 +6348,15 @@
         <v>8</v>
       </c>
       <c r="E273">
-        <v>4076</v>
+        <v>4310</v>
       </c>
       <c r="F273">
-        <v>769</v>
+        <v>320</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6368,15 +6368,15 @@
         <v>8</v>
       </c>
       <c r="E274">
-        <v>3996</v>
+        <v>4463</v>
       </c>
       <c r="F274">
-        <v>969</v>
+        <v>364</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6388,15 +6388,15 @@
         <v>8</v>
       </c>
       <c r="E275">
-        <v>4310</v>
+        <v>4913</v>
       </c>
       <c r="F275">
-        <v>320</v>
+        <v>815</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6408,15 +6408,15 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>4463</v>
+        <v>5386</v>
       </c>
       <c r="F276">
-        <v>364</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6428,15 +6428,15 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>4913</v>
+        <v>4583</v>
       </c>
       <c r="F277">
-        <v>815</v>
+        <v>682</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6448,15 +6448,15 @@
         <v>8</v>
       </c>
       <c r="E278">
-        <v>5386</v>
+        <v>4451</v>
       </c>
       <c r="F278">
-        <v>1010</v>
+        <v>847</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6468,15 +6468,15 @@
         <v>8</v>
       </c>
       <c r="E279">
-        <v>4583</v>
+        <v>4301</v>
       </c>
       <c r="F279">
-        <v>682</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6488,15 +6488,15 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>4451</v>
+        <v>4676</v>
       </c>
       <c r="F280">
-        <v>847</v>
+        <v>570</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6508,15 +6508,15 @@
         <v>8</v>
       </c>
       <c r="E281">
-        <v>4301</v>
+        <v>5850</v>
       </c>
       <c r="F281">
-        <v>1224</v>
+        <v>432</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6528,15 +6528,15 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>4676</v>
+        <v>5526</v>
       </c>
       <c r="F282">
-        <v>570</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6548,15 +6548,15 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>5850</v>
+        <v>5599</v>
       </c>
       <c r="F283">
-        <v>432</v>
+        <v>913</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6568,15 +6568,15 @@
         <v>8</v>
       </c>
       <c r="E284">
-        <v>5526</v>
+        <v>4618</v>
       </c>
       <c r="F284">
-        <v>1105</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6588,15 +6588,15 @@
         <v>8</v>
       </c>
       <c r="E285">
-        <v>5599</v>
+        <v>4605</v>
       </c>
       <c r="F285">
-        <v>913</v>
+        <v>880</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6608,15 +6608,15 @@
         <v>8</v>
       </c>
       <c r="E286">
-        <v>4618</v>
+        <v>5252</v>
       </c>
       <c r="F286">
-        <v>1036</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6628,15 +6628,15 @@
         <v>8</v>
       </c>
       <c r="E287">
-        <v>4605</v>
+        <v>4342</v>
       </c>
       <c r="F287">
-        <v>880</v>
+        <v>724</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6648,15 +6648,15 @@
         <v>8</v>
       </c>
       <c r="E288">
-        <v>5252</v>
+        <v>5288</v>
       </c>
       <c r="F288">
-        <v>1076</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6668,15 +6668,15 @@
         <v>8</v>
       </c>
       <c r="E289">
-        <v>4342</v>
+        <v>5234</v>
       </c>
       <c r="F289">
-        <v>724</v>
+        <v>843</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6688,15 +6688,15 @@
         <v>8</v>
       </c>
       <c r="E290">
-        <v>5288</v>
+        <v>5706</v>
       </c>
       <c r="F290">
-        <v>657</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6708,15 +6708,15 @@
         <v>8</v>
       </c>
       <c r="E291">
-        <v>5234</v>
+        <v>4675</v>
       </c>
       <c r="F291">
-        <v>843</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -6728,15 +6728,15 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>5706</v>
+        <v>5865</v>
       </c>
       <c r="F292">
-        <v>1122</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6748,15 +6748,15 @@
         <v>8</v>
       </c>
       <c r="E293">
-        <v>4675</v>
+        <v>3888</v>
       </c>
       <c r="F293">
-        <v>1116</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6768,15 +6768,15 @@
         <v>8</v>
       </c>
       <c r="E294">
-        <v>5865</v>
+        <v>4143</v>
       </c>
       <c r="F294">
-        <v>1030</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6788,15 +6788,15 @@
         <v>8</v>
       </c>
       <c r="E295">
-        <v>3888</v>
+        <v>6199</v>
       </c>
       <c r="F295">
-        <v>1105</v>
+        <v>599</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6808,15 +6808,15 @@
         <v>8</v>
       </c>
       <c r="E296">
-        <v>4143</v>
+        <v>4000</v>
       </c>
       <c r="F296">
-        <v>567</v>
+        <v>756</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6828,15 +6828,15 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>6199</v>
+        <v>4672</v>
       </c>
       <c r="F297">
-        <v>599</v>
+        <v>736</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6848,15 +6848,15 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>4000</v>
+        <v>4522</v>
       </c>
       <c r="F298">
-        <v>756</v>
+        <v>657</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6868,15 +6868,15 @@
         <v>8</v>
       </c>
       <c r="E299">
-        <v>4672</v>
+        <v>4567</v>
       </c>
       <c r="F299">
-        <v>736</v>
+        <v>672</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6888,15 +6888,15 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>4522</v>
+        <v>3250</v>
       </c>
       <c r="F300">
-        <v>657</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6908,15 +6908,15 @@
         <v>8</v>
       </c>
       <c r="E301">
-        <v>4567</v>
+        <v>2665</v>
       </c>
       <c r="F301">
-        <v>672</v>
+        <v>374</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6928,15 +6928,15 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>3250</v>
+        <v>2502</v>
       </c>
       <c r="F302">
-        <v>403</v>
+        <v>212</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6948,15 +6948,15 @@
         <v>8</v>
       </c>
       <c r="E303">
-        <v>2665</v>
+        <v>2556</v>
       </c>
       <c r="F303">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6968,15 +6968,15 @@
         <v>8</v>
       </c>
       <c r="E304">
-        <v>2502</v>
+        <v>2890</v>
       </c>
       <c r="F304">
-        <v>212</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6988,15 +6988,15 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>2556</v>
+        <v>2129</v>
       </c>
       <c r="F305">
-        <v>292</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7008,15 +7008,15 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>2890</v>
+        <v>1452</v>
       </c>
       <c r="F306">
-        <v>288</v>
+        <v>191</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -7028,15 +7028,15 @@
         <v>8</v>
       </c>
       <c r="E307">
-        <v>2129</v>
+        <v>1427</v>
       </c>
       <c r="F307">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -7048,15 +7048,15 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>1452</v>
+        <v>967</v>
       </c>
       <c r="F308">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -7068,15 +7068,15 @@
         <v>8</v>
       </c>
       <c r="E309">
-        <v>1427</v>
+        <v>665</v>
       </c>
       <c r="F309">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -7088,15 +7088,15 @@
         <v>8</v>
       </c>
       <c r="E310">
-        <v>967</v>
+        <v>1035</v>
       </c>
       <c r="F310">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -7108,15 +7108,15 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="F311">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -7128,15 +7128,15 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>1035</v>
+        <v>643</v>
       </c>
       <c r="F312">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -7148,15 +7148,15 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="F313">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7168,15 +7168,15 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>643</v>
+        <v>407</v>
       </c>
       <c r="F314">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7188,15 +7188,15 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>676</v>
+        <v>152</v>
       </c>
       <c r="F315">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7208,15 +7208,15 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F316">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
@@ -7228,15 +7228,15 @@
         <v>8</v>
       </c>
       <c r="E317">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="F317">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -7248,15 +7248,15 @@
         <v>8</v>
       </c>
       <c r="E318">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="F318">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
@@ -7268,15 +7268,15 @@
         <v>8</v>
       </c>
       <c r="E319">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="F319">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -7288,15 +7288,15 @@
         <v>8</v>
       </c>
       <c r="E320">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="F320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
@@ -7308,15 +7308,15 @@
         <v>8</v>
       </c>
       <c r="E321">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
@@ -7328,15 +7328,15 @@
         <v>8</v>
       </c>
       <c r="E322">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -7348,15 +7348,15 @@
         <v>8</v>
       </c>
       <c r="E323">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F323">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -7368,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="E324">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
@@ -7388,15 +7388,15 @@
         <v>8</v>
       </c>
       <c r="E325">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
@@ -7408,15 +7408,15 @@
         <v>8</v>
       </c>
       <c r="E326">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -7428,15 +7428,15 @@
         <v>8</v>
       </c>
       <c r="E327">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
@@ -7448,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="E328">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -7468,7 +7468,7 @@
         <v>8</v>
       </c>
       <c r="E329">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -7488,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="E330">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
@@ -7508,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="E331">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7528,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="E332">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7548,7 +7548,7 @@
         <v>8</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7568,7 +7568,7 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7608,7 +7608,7 @@
         <v>8</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7648,7 +7648,7 @@
         <v>8</v>
       </c>
       <c r="E338">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -7828,7 +7828,7 @@
         <v>8</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -7868,7 +7868,7 @@
         <v>8</v>
       </c>
       <c r="E349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -7888,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>43872</v>
+        <v>43869</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -7928,7 +7928,7 @@
         <v>8</v>
       </c>
       <c r="E352">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>43869</v>
+        <v>43866</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -8008,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="E356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>43866</v>
+        <v>43863</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>43865</v>
+        <v>43862</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -8068,7 +8068,7 @@
         <v>8</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>43862</v>
+        <v>43859</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>43861</v>
+        <v>43858</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -8128,7 +8128,7 @@
         <v>8</v>
       </c>
       <c r="E362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>43860</v>
+        <v>43857</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>43859</v>
+        <v>43856</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>43858</v>
+        <v>43855</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>43857</v>
+        <v>43854</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>43856</v>
+        <v>43853</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>43855</v>
+        <v>43852</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>43854</v>
+        <v>43851</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>43853</v>
+        <v>43850</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>43852</v>
+        <v>43849</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>43851</v>
+        <v>43848</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>43850</v>
+        <v>43847</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>43849</v>
+        <v>43846</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>43848</v>
+        <v>43845</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>43847</v>
+        <v>43844</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>43846</v>
+        <v>43843</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>43845</v>
+        <v>43842</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>43844</v>
+        <v>43841</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>43843</v>
+        <v>43840</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>43842</v>
+        <v>43839</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>43840</v>
+        <v>43837</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>43838</v>
+        <v>43835</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>43837</v>
+        <v>43834</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>43836</v>
+        <v>43833</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>43835</v>
+        <v>44195</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -8648,15 +8648,15 @@
         <v>8</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>50023</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>981</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>43834</v>
+        <v>44171</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -8668,15 +8668,15 @@
         <v>8</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>17272</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>231</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>43833</v>
+        <v>44132</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -8688,15 +8688,15 @@
         <v>8</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>24701</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>44124</v>
+        <v>44128</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -8708,15 +8708,15 @@
         <v>8</v>
       </c>
       <c r="E391">
-        <v>21331</v>
+        <v>23012</v>
       </c>
       <c r="F391">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>44079</v>
+        <v>44015</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8728,10 +8728,30 @@
         <v>8</v>
       </c>
       <c r="E392">
-        <v>1813</v>
+        <v>544</v>
       </c>
       <c r="F392">
-        <v>12</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>8</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1F11A8-9F04-4F6B-A114-6E8F2568E795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D69F492-6D8D-461E-8905-5CE0CD6E794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-28" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-29" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F393"/>
+  <dimension ref="A1:F394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>28680</v>
+        <v>29079</v>
       </c>
       <c r="F2">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>25308</v>
+        <v>28680</v>
       </c>
       <c r="F3">
-        <v>1725</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F4">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F5">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F6">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F7">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F8">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F9">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F10">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F11">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F12">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F13">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F14">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F15">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F16">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F17">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F18">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F19">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F20">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F21">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F22">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F23">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F24">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F25">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F26">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F27">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F28">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F29">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F30">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1508,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>53135</v>
+        <v>55892</v>
       </c>
       <c r="F31">
-        <v>414</v>
+        <v>964</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1528,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>41385</v>
+        <v>50023</v>
       </c>
       <c r="F32">
-        <v>357</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1548,15 +1548,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>30501</v>
+        <v>53135</v>
       </c>
       <c r="F33">
-        <v>317</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1568,15 +1568,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>35691</v>
+        <v>41385</v>
       </c>
       <c r="F34">
-        <v>230</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1588,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>32725</v>
+        <v>30501</v>
       </c>
       <c r="F35">
-        <v>613</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1608,15 +1608,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>39877</v>
+        <v>35691</v>
       </c>
       <c r="F36">
-        <v>585</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1628,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>39237</v>
+        <v>32725</v>
       </c>
       <c r="F37">
-        <v>744</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1648,15 +1648,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>36804</v>
+        <v>39877</v>
       </c>
       <c r="F38">
-        <v>691</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1668,15 +1668,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>33364</v>
+        <v>39237</v>
       </c>
       <c r="F39">
-        <v>215</v>
+        <v>744</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1688,15 +1688,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>35928</v>
+        <v>36804</v>
       </c>
       <c r="F40">
-        <v>326</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1708,15 +1708,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>27052</v>
+        <v>33364</v>
       </c>
       <c r="F41">
-        <v>534</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1728,15 +1728,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>28507</v>
+        <v>35928</v>
       </c>
       <c r="F42">
-        <v>489</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1748,15 +1748,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>35383</v>
+        <v>27052</v>
       </c>
       <c r="F43">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1768,15 +1768,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>25161</v>
+        <v>28507</v>
       </c>
       <c r="F44">
-        <v>613</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1788,15 +1788,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>18450</v>
+        <v>35383</v>
       </c>
       <c r="F45">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1808,15 +1808,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>20263</v>
+        <v>25161</v>
       </c>
       <c r="F46">
-        <v>232</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1828,15 +1828,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>18447</v>
+        <v>18450</v>
       </c>
       <c r="F47">
-        <v>144</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1848,15 +1848,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>21502</v>
+        <v>18447</v>
       </c>
       <c r="F48">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1868,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>21672</v>
+        <v>21502</v>
       </c>
       <c r="F49">
-        <v>424</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1888,15 +1888,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>20964</v>
+        <v>21672</v>
       </c>
       <c r="F50">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1908,15 +1908,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>16578</v>
+        <v>20964</v>
       </c>
       <c r="F51">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1928,15 +1928,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>12282</v>
+        <v>16578</v>
       </c>
       <c r="F52">
-        <v>616</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1948,15 +1948,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>14718</v>
+        <v>12282</v>
       </c>
       <c r="F53">
-        <v>189</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>15539</v>
+        <v>14718</v>
       </c>
       <c r="F54">
-        <v>397</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44169</v>
+        <v>44171</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1988,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>16298</v>
+        <v>17272</v>
       </c>
       <c r="F55">
-        <v>504</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44168</v>
+        <v>44170</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2008,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>14879</v>
+        <v>15539</v>
       </c>
       <c r="F56">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2028,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>16170</v>
+        <v>16298</v>
       </c>
       <c r="F57">
-        <v>648</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>13430</v>
+        <v>14879</v>
       </c>
       <c r="F58">
-        <v>603</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2068,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>12330</v>
+        <v>16170</v>
       </c>
       <c r="F59">
-        <v>205</v>
+        <v>648</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2088,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>12155</v>
+        <v>13430</v>
       </c>
       <c r="F60">
-        <v>215</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2108,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>15871</v>
+        <v>12330</v>
       </c>
       <c r="F61">
-        <v>479</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2128,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>16022</v>
+        <v>12155</v>
       </c>
       <c r="F62">
-        <v>521</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2148,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>17555</v>
+        <v>15871</v>
       </c>
       <c r="F63">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2168,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>18213</v>
+        <v>16022</v>
       </c>
       <c r="F64">
-        <v>696</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2188,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>11299</v>
+        <v>17555</v>
       </c>
       <c r="F65">
-        <v>608</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2208,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>15450</v>
+        <v>18213</v>
       </c>
       <c r="F66">
-        <v>206</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2228,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>18662</v>
+        <v>11299</v>
       </c>
       <c r="F67">
-        <v>398</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2248,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>19875</v>
+        <v>15450</v>
       </c>
       <c r="F68">
-        <v>341</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>20252</v>
+        <v>18662</v>
       </c>
       <c r="F69">
-        <v>511</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2288,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>22915</v>
+        <v>19875</v>
       </c>
       <c r="F70">
-        <v>501</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>19609</v>
+        <v>20252</v>
       </c>
       <c r="F71">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2328,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>20051</v>
+        <v>22915</v>
       </c>
       <c r="F72">
-        <v>598</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2348,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>21363</v>
+        <v>19609</v>
       </c>
       <c r="F73">
-        <v>213</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2368,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>24962</v>
+        <v>20051</v>
       </c>
       <c r="F74">
-        <v>168</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2388,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>26860</v>
+        <v>21363</v>
       </c>
       <c r="F75">
-        <v>462</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44148</v>
+        <v>44150</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2408,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>27301</v>
+        <v>24962</v>
       </c>
       <c r="F76">
-        <v>376</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44147</v>
+        <v>44149</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2428,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>33470</v>
+        <v>26860</v>
       </c>
       <c r="F77">
-        <v>563</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>22950</v>
+        <v>27301</v>
       </c>
       <c r="F78">
-        <v>595</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44145</v>
+        <v>44147</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2468,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>20412</v>
+        <v>33470</v>
       </c>
       <c r="F79">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2488,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>21350</v>
+        <v>22950</v>
       </c>
       <c r="F80">
-        <v>194</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2508,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>20572</v>
+        <v>20412</v>
       </c>
       <c r="F81">
-        <v>156</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2528,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>24957</v>
+        <v>21350</v>
       </c>
       <c r="F82">
-        <v>413</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44141</v>
+        <v>44143</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2548,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>23287</v>
+        <v>20572</v>
       </c>
       <c r="F83">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2568,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>24141</v>
+        <v>24957</v>
       </c>
       <c r="F84">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2588,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>25177</v>
+        <v>23287</v>
       </c>
       <c r="F85">
-        <v>492</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2608,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>20018</v>
+        <v>24141</v>
       </c>
       <c r="F86">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2628,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>18950</v>
+        <v>25177</v>
       </c>
       <c r="F87">
-        <v>136</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44136</v>
+        <v>44138</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>23254</v>
+        <v>20018</v>
       </c>
       <c r="F88">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2668,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>21915</v>
+        <v>18950</v>
       </c>
       <c r="F89">
-        <v>326</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2688,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>24405</v>
+        <v>23254</v>
       </c>
       <c r="F90">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2708,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>23065</v>
+        <v>21915</v>
       </c>
       <c r="F91">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>22885</v>
+        <v>24405</v>
       </c>
       <c r="F92">
-        <v>367</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44130</v>
+        <v>44133</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2748,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>20890</v>
+        <v>23065</v>
       </c>
       <c r="F93">
-        <v>102</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44129</v>
+        <v>44132</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2768,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>19790</v>
+        <v>24701</v>
       </c>
       <c r="F94">
-        <v>151</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2788,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>20530</v>
+        <v>22885</v>
       </c>
       <c r="F95">
-        <v>224</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44126</v>
+        <v>44130</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2808,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>21242</v>
+        <v>20890</v>
       </c>
       <c r="F96">
-        <v>189</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44125</v>
+        <v>44129</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2828,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>26688</v>
+        <v>19790</v>
       </c>
       <c r="F97">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44124</v>
+        <v>44128</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>21331</v>
+        <v>23012</v>
       </c>
       <c r="F98">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2868,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>18804</v>
+        <v>20530</v>
       </c>
       <c r="F99">
-        <v>80</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44122</v>
+        <v>44126</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2888,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>16982</v>
+        <v>21242</v>
       </c>
       <c r="F100">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44121</v>
+        <v>44125</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2908,15 +2908,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>16171</v>
+        <v>26688</v>
       </c>
       <c r="F101">
-        <v>150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2928,15 +2928,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>15650</v>
+        <v>21331</v>
       </c>
       <c r="F102">
-        <v>136</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44119</v>
+        <v>44123</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2948,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>18980</v>
+        <v>18804</v>
       </c>
       <c r="F103">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2968,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>19724</v>
+        <v>16982</v>
       </c>
       <c r="F104">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44117</v>
+        <v>44121</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2988,15 +2988,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>17234</v>
+        <v>16171</v>
       </c>
       <c r="F105">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44116</v>
+        <v>44120</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3008,15 +3008,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>13972</v>
+        <v>15650</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44115</v>
+        <v>44119</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3028,15 +3028,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>12872</v>
+        <v>18980</v>
       </c>
       <c r="F107">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44114</v>
+        <v>44118</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3048,15 +3048,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>15166</v>
+        <v>19724</v>
       </c>
       <c r="F108">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3068,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>13864</v>
+        <v>17234</v>
       </c>
       <c r="F109">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44112</v>
+        <v>44116</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3088,15 +3088,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>17540</v>
+        <v>13972</v>
       </c>
       <c r="F110">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44111</v>
+        <v>44115</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3108,15 +3108,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>14162</v>
+        <v>12872</v>
       </c>
       <c r="F111">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44110</v>
+        <v>44114</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3128,15 +3128,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>14542</v>
+        <v>15166</v>
       </c>
       <c r="F112">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44109</v>
+        <v>44113</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3148,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>12594</v>
+        <v>13864</v>
       </c>
       <c r="F113">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44108</v>
+        <v>44112</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3168,15 +3168,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>22961</v>
+        <v>17540</v>
       </c>
       <c r="F114">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44107</v>
+        <v>44111</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3188,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>12872</v>
+        <v>14162</v>
       </c>
       <c r="F115">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44106</v>
+        <v>44110</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3208,15 +3208,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>6968</v>
+        <v>14542</v>
       </c>
       <c r="F116">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44105</v>
+        <v>44109</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3228,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>6914</v>
+        <v>12594</v>
       </c>
       <c r="F117">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44104</v>
+        <v>44108</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3248,15 +3248,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>7108</v>
+        <v>22961</v>
       </c>
       <c r="F118">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44103</v>
+        <v>44107</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3268,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>7143</v>
+        <v>12872</v>
       </c>
       <c r="F119">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44102</v>
+        <v>44106</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3288,15 +3288,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>4044</v>
+        <v>6968</v>
       </c>
       <c r="F120">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44101</v>
+        <v>44105</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3308,15 +3308,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>5693</v>
+        <v>6914</v>
       </c>
       <c r="F121">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44100</v>
+        <v>44104</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3328,15 +3328,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>6042</v>
+        <v>7108</v>
       </c>
       <c r="F122">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3348,15 +3348,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>6874</v>
+        <v>7143</v>
       </c>
       <c r="F123">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44098</v>
+        <v>44102</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3368,15 +3368,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>6634</v>
+        <v>4044</v>
       </c>
       <c r="F124">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44097</v>
+        <v>44101</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3388,15 +3388,15 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>6178</v>
+        <v>5693</v>
       </c>
       <c r="F125">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44096</v>
+        <v>44100</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3408,15 +3408,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>4926</v>
+        <v>6042</v>
       </c>
       <c r="F126">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3428,15 +3428,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>4368</v>
+        <v>6874</v>
       </c>
       <c r="F127">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44094</v>
+        <v>44098</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3448,15 +3448,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>3899</v>
+        <v>6634</v>
       </c>
       <c r="F128">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44093</v>
+        <v>44097</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3468,15 +3468,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>4422</v>
+        <v>6178</v>
       </c>
       <c r="F129">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3488,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>4322</v>
+        <v>4926</v>
       </c>
       <c r="F130">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44091</v>
+        <v>44095</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3508,15 +3508,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>3395</v>
+        <v>4368</v>
       </c>
       <c r="F131">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44090</v>
+        <v>44094</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3528,15 +3528,15 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>3991</v>
+        <v>3899</v>
       </c>
       <c r="F132">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44089</v>
+        <v>44093</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3548,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>3105</v>
+        <v>4422</v>
       </c>
       <c r="F133">
         <v>27</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44088</v>
+        <v>44092</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3568,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>2621</v>
+        <v>4322</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44087</v>
+        <v>44091</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3588,15 +3588,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>3330</v>
+        <v>3395</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44086</v>
+        <v>44090</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3608,15 +3608,15 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>3497</v>
+        <v>3991</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3628,15 +3628,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>3539</v>
+        <v>3105</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3648,15 +3648,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>2919</v>
+        <v>2621</v>
       </c>
       <c r="F138">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44083</v>
+        <v>44087</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3668,15 +3668,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>2659</v>
+        <v>3330</v>
       </c>
       <c r="F139">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44082</v>
+        <v>44086</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3688,15 +3688,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>2460</v>
+        <v>3497</v>
       </c>
       <c r="F140">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44081</v>
+        <v>44085</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3708,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>2948</v>
+        <v>3539</v>
       </c>
       <c r="F141">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44080</v>
+        <v>44084</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3728,15 +3728,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2988</v>
+        <v>2919</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44079</v>
+        <v>44083</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3748,15 +3748,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>1813</v>
+        <v>2659</v>
       </c>
       <c r="F143">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3768,15 +3768,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>1940</v>
+        <v>2460</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1735</v>
+        <v>2948</v>
       </c>
       <c r="F145">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44076</v>
+        <v>44080</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1508</v>
+        <v>2988</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44075</v>
+        <v>44079</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1295</v>
+        <v>1813</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44074</v>
+        <v>44078</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1406</v>
+        <v>1940</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44073</v>
+        <v>44077</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44072</v>
+        <v>44076</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,15 +3888,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1108</v>
+        <v>1508</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="F151">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44070</v>
+        <v>44074</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1522</v>
+        <v>1406</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44069</v>
+        <v>44073</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1048</v>
+        <v>1715</v>
       </c>
       <c r="F153">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44068</v>
+        <v>44072</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,15 +3968,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1184</v>
+        <v>1108</v>
       </c>
       <c r="F154">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44067</v>
+        <v>44071</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,15 +3988,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>853</v>
+        <v>1276</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44066</v>
+        <v>44070</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1160</v>
+        <v>1522</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44065</v>
+        <v>44069</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1288</v>
+        <v>1048</v>
       </c>
       <c r="F157">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,15 +4048,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1033</v>
+        <v>1184</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44063</v>
+        <v>44067</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4068,15 +4068,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>1182</v>
+        <v>853</v>
       </c>
       <c r="F159">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44062</v>
+        <v>44066</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4088,15 +4088,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>812</v>
+        <v>1160</v>
       </c>
       <c r="F160">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44061</v>
+        <v>44065</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4108,15 +4108,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>1089</v>
+        <v>1288</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44060</v>
+        <v>44064</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4128,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>713</v>
+        <v>1033</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44059</v>
+        <v>44063</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4148,15 +4148,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1040</v>
+        <v>1182</v>
       </c>
       <c r="F163">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44058</v>
+        <v>44062</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4168,15 +4168,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>1077</v>
+        <v>812</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4188,15 +4188,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1441</v>
+        <v>1089</v>
       </c>
       <c r="F165">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4208,15 +4208,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>1129</v>
+        <v>713</v>
       </c>
       <c r="F166">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44055</v>
+        <v>44058</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4228,15 +4228,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1009</v>
+        <v>1077</v>
       </c>
       <c r="F167">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4248,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1148</v>
+        <v>1441</v>
       </c>
       <c r="F168">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4268,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>740</v>
+        <v>1129</v>
       </c>
       <c r="F169">
         <v>18</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44052</v>
+        <v>44055</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4288,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>1062</v>
+        <v>1009</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44051</v>
+        <v>44054</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4308,15 +4308,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>758</v>
+        <v>1148</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4328,15 +4328,15 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>871</v>
+        <v>740</v>
       </c>
       <c r="F172">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44049</v>
+        <v>44052</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4348,15 +4348,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>950</v>
+        <v>1062</v>
       </c>
       <c r="F173">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44048</v>
+        <v>44051</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4368,15 +4368,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>892</v>
+        <v>758</v>
       </c>
       <c r="F174">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44047</v>
+        <v>44050</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4388,15 +4388,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>670</v>
+        <v>871</v>
       </c>
       <c r="F175">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4408,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>898</v>
+        <v>950</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44045</v>
+        <v>44048</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4428,15 +4428,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>744</v>
+        <v>892</v>
       </c>
       <c r="F177">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44044</v>
+        <v>44047</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4448,15 +4448,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>761</v>
+        <v>670</v>
       </c>
       <c r="F178">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4468,15 +4468,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="F179">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4488,15 +4488,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>846</v>
+        <v>744</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44041</v>
+        <v>44044</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4508,15 +4508,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F181">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44040</v>
+        <v>44043</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4528,15 +4528,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>581</v>
+        <v>880</v>
       </c>
       <c r="F182">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4548,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>685</v>
+        <v>846</v>
       </c>
       <c r="F183">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44038</v>
+        <v>44041</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4568,15 +4568,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="F184">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44037</v>
+        <v>44040</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4588,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>767</v>
+        <v>581</v>
       </c>
       <c r="F185">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4608,15 +4608,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>768</v>
+        <v>685</v>
       </c>
       <c r="F186">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44035</v>
+        <v>44038</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4628,15 +4628,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="F187">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44034</v>
+        <v>44037</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4648,15 +4648,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>560</v>
+        <v>767</v>
       </c>
       <c r="F188">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44033</v>
+        <v>44036</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4668,15 +4668,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>445</v>
+        <v>768</v>
       </c>
       <c r="F189">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44032</v>
+        <v>44035</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4688,15 +4688,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>557</v>
+        <v>769</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44031</v>
+        <v>44034</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4708,15 +4708,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>726</v>
+        <v>560</v>
       </c>
       <c r="F191">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44030</v>
+        <v>44033</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4728,15 +4728,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>827</v>
+        <v>445</v>
       </c>
       <c r="F192">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4748,15 +4748,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>687</v>
+        <v>557</v>
       </c>
       <c r="F193">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44028</v>
+        <v>44031</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4768,15 +4768,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="F194">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44027</v>
+        <v>44030</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4788,15 +4788,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>538</v>
+        <v>827</v>
       </c>
       <c r="F195">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4808,15 +4808,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>398</v>
+        <v>687</v>
       </c>
       <c r="F196">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44025</v>
+        <v>44028</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4828,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44024</v>
+        <v>44027</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4848,15 +4848,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>650</v>
+        <v>538</v>
       </c>
       <c r="F198">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44023</v>
+        <v>44026</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4868,15 +4868,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>820</v>
+        <v>398</v>
       </c>
       <c r="F199">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4888,15 +4888,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="F200">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44021</v>
+        <v>44024</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4908,15 +4908,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F201">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44020</v>
+        <v>44023</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4928,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F202">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44019</v>
+        <v>44022</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4948,15 +4948,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="F203">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44018</v>
+        <v>44021</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4968,15 +4968,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>343</v>
+        <v>642</v>
       </c>
       <c r="F204">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44017</v>
+        <v>44020</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4988,15 +4988,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="F205">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44016</v>
+        <v>44019</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5008,15 +5008,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="F206">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44014</v>
+        <v>44018</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5028,15 +5028,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>576</v>
+        <v>343</v>
       </c>
       <c r="F207">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44013</v>
+        <v>44017</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5048,15 +5048,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>829</v>
+        <v>516</v>
       </c>
       <c r="F208">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44012</v>
+        <v>44016</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5068,15 +5068,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>689</v>
+        <v>624</v>
       </c>
       <c r="F209">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44011</v>
+        <v>44015</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5088,15 +5088,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>815</v>
+        <v>544</v>
       </c>
       <c r="F210">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44010</v>
+        <v>44014</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5108,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>901</v>
+        <v>576</v>
       </c>
       <c r="F211">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44009</v>
+        <v>44013</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5128,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>890</v>
+        <v>829</v>
       </c>
       <c r="F212">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5148,15 +5148,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>1006</v>
+        <v>689</v>
       </c>
       <c r="F213">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44007</v>
+        <v>44011</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5168,15 +5168,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>1118</v>
+        <v>815</v>
       </c>
       <c r="F214">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44006</v>
+        <v>44010</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5188,15 +5188,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>653</v>
+        <v>901</v>
       </c>
       <c r="F215">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44005</v>
+        <v>44008</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5208,15 +5208,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>874</v>
+        <v>1006</v>
       </c>
       <c r="F216">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44004</v>
+        <v>44007</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5228,15 +5228,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>958</v>
+        <v>1118</v>
       </c>
       <c r="F217">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44003</v>
+        <v>44006</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5248,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>1221</v>
+        <v>653</v>
       </c>
       <c r="F218">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5268,15 +5268,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>1295</v>
+        <v>874</v>
       </c>
       <c r="F219">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5288,15 +5288,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>1346</v>
+        <v>958</v>
       </c>
       <c r="F220">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5308,15 +5308,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="F221">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>43999</v>
+        <v>44002</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5328,15 +5328,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1115</v>
+        <v>1295</v>
       </c>
       <c r="F222">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5348,15 +5348,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1279</v>
+        <v>1346</v>
       </c>
       <c r="F223">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5368,15 +5368,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1056</v>
+        <v>1218</v>
       </c>
       <c r="F224">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43996</v>
+        <v>43999</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5388,15 +5388,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1514</v>
+        <v>1115</v>
       </c>
       <c r="F225">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5408,15 +5408,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1425</v>
+        <v>1279</v>
       </c>
       <c r="F226">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5428,15 +5428,15 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1541</v>
+        <v>1056</v>
       </c>
       <c r="F227">
-        <v>131</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -5448,15 +5448,15 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>1266</v>
+        <v>1514</v>
       </c>
       <c r="F228">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -5468,15 +5468,15 @@
         <v>8</v>
       </c>
       <c r="E229">
-        <v>1003</v>
+        <v>1425</v>
       </c>
       <c r="F229">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>43991</v>
+        <v>43994</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5488,15 +5488,15 @@
         <v>8</v>
       </c>
       <c r="E230">
-        <v>1387</v>
+        <v>1541</v>
       </c>
       <c r="F230">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>43990</v>
+        <v>43993</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5508,15 +5508,15 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>1205</v>
+        <v>1266</v>
       </c>
       <c r="F231">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>43989</v>
+        <v>43992</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5528,15 +5528,15 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>1326</v>
+        <v>1003</v>
       </c>
       <c r="F232">
-        <v>54</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5548,15 +5548,15 @@
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1557</v>
+        <v>1387</v>
       </c>
       <c r="F233">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>43987</v>
+        <v>43990</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5568,15 +5568,15 @@
         <v>8</v>
       </c>
       <c r="E234">
-        <v>1650</v>
+        <v>1205</v>
       </c>
       <c r="F234">
-        <v>258</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5588,15 +5588,15 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>1805</v>
+        <v>1326</v>
       </c>
       <c r="F235">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>43985</v>
+        <v>43988</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5608,15 +5608,15 @@
         <v>8</v>
       </c>
       <c r="E236">
-        <v>1871</v>
+        <v>1557</v>
       </c>
       <c r="F236">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>43984</v>
+        <v>43987</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5628,15 +5628,15 @@
         <v>8</v>
       </c>
       <c r="E237">
-        <v>1613</v>
+        <v>1650</v>
       </c>
       <c r="F237">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5648,15 +5648,15 @@
         <v>8</v>
       </c>
       <c r="E238">
-        <v>1570</v>
+        <v>1805</v>
       </c>
       <c r="F238">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>43982</v>
+        <v>43985</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5668,15 +5668,15 @@
         <v>8</v>
       </c>
       <c r="E239">
-        <v>1936</v>
+        <v>1871</v>
       </c>
       <c r="F239">
-        <v>60</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>43981</v>
+        <v>43984</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5688,15 +5688,15 @@
         <v>8</v>
       </c>
       <c r="E240">
-        <v>2445</v>
+        <v>1613</v>
       </c>
       <c r="F240">
-        <v>154</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5708,15 +5708,15 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>2095</v>
+        <v>1570</v>
       </c>
       <c r="F241">
-        <v>274</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5728,15 +5728,15 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>1887</v>
+        <v>1936</v>
       </c>
       <c r="F242">
-        <v>343</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5748,15 +5748,15 @@
         <v>8</v>
       </c>
       <c r="E243">
-        <v>2013</v>
+        <v>2445</v>
       </c>
       <c r="F243">
-        <v>422</v>
+        <v>154</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5768,15 +5768,15 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2095</v>
       </c>
       <c r="F244">
-        <v>131</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>43976</v>
+        <v>43979</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5788,15 +5788,15 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>1625</v>
+        <v>1887</v>
       </c>
       <c r="F245">
-        <v>104</v>
+        <v>343</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>43975</v>
+        <v>43978</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5808,15 +5808,15 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>2409</v>
+        <v>2013</v>
       </c>
       <c r="F246">
-        <v>379</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>43974</v>
+        <v>43977</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5828,15 +5828,15 @@
         <v>8</v>
       </c>
       <c r="E247">
-        <v>2959</v>
+        <v>2004</v>
       </c>
       <c r="F247">
-        <v>220</v>
+        <v>131</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>43973</v>
+        <v>43976</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5848,15 +5848,15 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>3287</v>
+        <v>1625</v>
       </c>
       <c r="F248">
-        <v>291</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>43972</v>
+        <v>43975</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5868,15 +5868,15 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>2615</v>
+        <v>2409</v>
       </c>
       <c r="F249">
-        <v>273</v>
+        <v>379</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>43971</v>
+        <v>43974</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5888,15 +5888,15 @@
         <v>8</v>
       </c>
       <c r="E250">
-        <v>2472</v>
+        <v>2959</v>
       </c>
       <c r="F250">
-        <v>328</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>43970</v>
+        <v>43973</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5908,15 +5908,15 @@
         <v>8</v>
       </c>
       <c r="E251">
-        <v>2412</v>
+        <v>3287</v>
       </c>
       <c r="F251">
-        <v>500</v>
+        <v>291</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>43969</v>
+        <v>43972</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5928,15 +5928,15 @@
         <v>8</v>
       </c>
       <c r="E252">
-        <v>2684</v>
+        <v>2615</v>
       </c>
       <c r="F252">
-        <v>146</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5948,15 +5948,15 @@
         <v>8</v>
       </c>
       <c r="E253">
-        <v>3562</v>
+        <v>2472</v>
       </c>
       <c r="F253">
-        <v>67</v>
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>43967</v>
+        <v>43970</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5968,15 +5968,15 @@
         <v>8</v>
       </c>
       <c r="E254">
-        <v>3451</v>
+        <v>2412</v>
       </c>
       <c r="F254">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5988,15 +5988,15 @@
         <v>8</v>
       </c>
       <c r="E255">
-        <v>3560</v>
+        <v>2684</v>
       </c>
       <c r="F255">
-        <v>350</v>
+        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>43965</v>
+        <v>43968</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6008,15 +6008,15 @@
         <v>8</v>
       </c>
       <c r="E256">
-        <v>3446</v>
+        <v>3562</v>
       </c>
       <c r="F256">
-        <v>352</v>
+        <v>67</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -6028,15 +6028,15 @@
         <v>8</v>
       </c>
       <c r="E257">
-        <v>3242</v>
+        <v>3451</v>
       </c>
       <c r="F257">
-        <v>447</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>43963</v>
+        <v>43966</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -6048,15 +6048,15 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>3403</v>
+        <v>3560</v>
       </c>
       <c r="F258">
-        <v>614</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>43962</v>
+        <v>43965</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -6068,15 +6068,15 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>3877</v>
+        <v>3446</v>
       </c>
       <c r="F259">
-        <v>187</v>
+        <v>352</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -6088,15 +6088,15 @@
         <v>8</v>
       </c>
       <c r="E260">
-        <v>3923</v>
+        <v>3242</v>
       </c>
       <c r="F260">
-        <v>217</v>
+        <v>447</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -6108,15 +6108,15 @@
         <v>8</v>
       </c>
       <c r="E261">
-        <v>3896</v>
+        <v>3403</v>
       </c>
       <c r="F261">
-        <v>275</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -6128,15 +6128,15 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>4649</v>
+        <v>3877</v>
       </c>
       <c r="F262">
-        <v>579</v>
+        <v>187</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -6148,15 +6148,15 @@
         <v>8</v>
       </c>
       <c r="E263">
-        <v>5614</v>
+        <v>3923</v>
       </c>
       <c r="F263">
-        <v>458</v>
+        <v>217</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6168,15 +6168,15 @@
         <v>8</v>
       </c>
       <c r="E264">
-        <v>6111</v>
+        <v>3896</v>
       </c>
       <c r="F264">
-        <v>647</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -6188,15 +6188,15 @@
         <v>8</v>
       </c>
       <c r="E265">
-        <v>4406</v>
+        <v>4649</v>
       </c>
       <c r="F265">
-        <v>726</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -6208,15 +6208,15 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>3985</v>
+        <v>5614</v>
       </c>
       <c r="F266">
-        <v>272</v>
+        <v>458</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>43954</v>
+        <v>43957</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -6228,15 +6228,15 @@
         <v>8</v>
       </c>
       <c r="E267">
-        <v>4339</v>
+        <v>6111</v>
       </c>
       <c r="F267">
-        <v>253</v>
+        <v>647</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>43953</v>
+        <v>43956</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -6248,15 +6248,15 @@
         <v>8</v>
       </c>
       <c r="E268">
-        <v>4806</v>
+        <v>4406</v>
       </c>
       <c r="F268">
-        <v>584</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6268,15 +6268,15 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>6201</v>
+        <v>3985</v>
       </c>
       <c r="F269">
-        <v>698</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>43951</v>
+        <v>43954</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6288,15 +6288,15 @@
         <v>8</v>
       </c>
       <c r="E270">
-        <v>6032</v>
+        <v>4339</v>
       </c>
       <c r="F270">
-        <v>634</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6308,15 +6308,15 @@
         <v>8</v>
       </c>
       <c r="E271">
-        <v>4076</v>
+        <v>4806</v>
       </c>
       <c r="F271">
-        <v>769</v>
+        <v>584</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>43949</v>
+        <v>43952</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6328,15 +6328,15 @@
         <v>8</v>
       </c>
       <c r="E272">
-        <v>3996</v>
+        <v>6201</v>
       </c>
       <c r="F272">
-        <v>969</v>
+        <v>698</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6348,15 +6348,15 @@
         <v>8</v>
       </c>
       <c r="E273">
-        <v>4310</v>
+        <v>6032</v>
       </c>
       <c r="F273">
-        <v>320</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6368,15 +6368,15 @@
         <v>8</v>
       </c>
       <c r="E274">
-        <v>4463</v>
+        <v>4076</v>
       </c>
       <c r="F274">
-        <v>364</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>43946</v>
+        <v>43949</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6388,15 +6388,15 @@
         <v>8</v>
       </c>
       <c r="E275">
-        <v>4913</v>
+        <v>3996</v>
       </c>
       <c r="F275">
-        <v>815</v>
+        <v>969</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>43945</v>
+        <v>43948</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6408,15 +6408,15 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>5386</v>
+        <v>4310</v>
       </c>
       <c r="F276">
-        <v>1010</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6428,15 +6428,15 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>4583</v>
+        <v>4463</v>
       </c>
       <c r="F277">
-        <v>682</v>
+        <v>364</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6448,15 +6448,15 @@
         <v>8</v>
       </c>
       <c r="E278">
-        <v>4451</v>
+        <v>4913</v>
       </c>
       <c r="F278">
-        <v>847</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6468,15 +6468,15 @@
         <v>8</v>
       </c>
       <c r="E279">
-        <v>4301</v>
+        <v>5386</v>
       </c>
       <c r="F279">
-        <v>1224</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>43941</v>
+        <v>43944</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6488,15 +6488,15 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>4676</v>
+        <v>4583</v>
       </c>
       <c r="F280">
-        <v>570</v>
+        <v>682</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>43940</v>
+        <v>43943</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6508,15 +6508,15 @@
         <v>8</v>
       </c>
       <c r="E281">
-        <v>5850</v>
+        <v>4451</v>
       </c>
       <c r="F281">
-        <v>432</v>
+        <v>847</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>43939</v>
+        <v>43942</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6528,15 +6528,15 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>5526</v>
+        <v>4301</v>
       </c>
       <c r="F282">
-        <v>1105</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6548,15 +6548,15 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>5599</v>
+        <v>4676</v>
       </c>
       <c r="F283">
-        <v>913</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>43937</v>
+        <v>43940</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6568,15 +6568,15 @@
         <v>8</v>
       </c>
       <c r="E284">
-        <v>4618</v>
+        <v>5850</v>
       </c>
       <c r="F284">
-        <v>1036</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>43936</v>
+        <v>43939</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6588,15 +6588,15 @@
         <v>8</v>
       </c>
       <c r="E285">
-        <v>4605</v>
+        <v>5526</v>
       </c>
       <c r="F285">
-        <v>880</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6608,15 +6608,15 @@
         <v>8</v>
       </c>
       <c r="E286">
-        <v>5252</v>
+        <v>5599</v>
       </c>
       <c r="F286">
-        <v>1076</v>
+        <v>913</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>43934</v>
+        <v>43937</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6628,15 +6628,15 @@
         <v>8</v>
       </c>
       <c r="E287">
-        <v>4342</v>
+        <v>4618</v>
       </c>
       <c r="F287">
-        <v>724</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>43933</v>
+        <v>43936</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6648,15 +6648,15 @@
         <v>8</v>
       </c>
       <c r="E288">
-        <v>5288</v>
+        <v>4605</v>
       </c>
       <c r="F288">
-        <v>657</v>
+        <v>880</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>43932</v>
+        <v>43935</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6668,15 +6668,15 @@
         <v>8</v>
       </c>
       <c r="E289">
-        <v>5234</v>
+        <v>5252</v>
       </c>
       <c r="F289">
-        <v>843</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>43931</v>
+        <v>43934</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6688,15 +6688,15 @@
         <v>8</v>
       </c>
       <c r="E290">
-        <v>5706</v>
+        <v>4342</v>
       </c>
       <c r="F290">
-        <v>1122</v>
+        <v>724</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6708,15 +6708,15 @@
         <v>8</v>
       </c>
       <c r="E291">
-        <v>4675</v>
+        <v>5288</v>
       </c>
       <c r="F291">
-        <v>1116</v>
+        <v>657</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>43929</v>
+        <v>43932</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -6728,15 +6728,15 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>5865</v>
+        <v>5234</v>
       </c>
       <c r="F292">
-        <v>1030</v>
+        <v>843</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>43928</v>
+        <v>43931</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6748,15 +6748,15 @@
         <v>8</v>
       </c>
       <c r="E293">
-        <v>3888</v>
+        <v>5706</v>
       </c>
       <c r="F293">
-        <v>1105</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>43927</v>
+        <v>43930</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6768,15 +6768,15 @@
         <v>8</v>
       </c>
       <c r="E294">
-        <v>4143</v>
+        <v>4675</v>
       </c>
       <c r="F294">
-        <v>567</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6788,15 +6788,15 @@
         <v>8</v>
       </c>
       <c r="E295">
-        <v>6199</v>
+        <v>5865</v>
       </c>
       <c r="F295">
-        <v>599</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>43925</v>
+        <v>43928</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6808,15 +6808,15 @@
         <v>8</v>
       </c>
       <c r="E296">
-        <v>4000</v>
+        <v>3888</v>
       </c>
       <c r="F296">
-        <v>756</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6828,15 +6828,15 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>4672</v>
+        <v>4143</v>
       </c>
       <c r="F297">
-        <v>736</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>43923</v>
+        <v>43926</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6848,15 +6848,15 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>4522</v>
+        <v>6199</v>
       </c>
       <c r="F298">
-        <v>657</v>
+        <v>599</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>43922</v>
+        <v>43925</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6868,15 +6868,15 @@
         <v>8</v>
       </c>
       <c r="E299">
-        <v>4567</v>
+        <v>4000</v>
       </c>
       <c r="F299">
-        <v>672</v>
+        <v>756</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>43921</v>
+        <v>43924</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6888,15 +6888,15 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>3250</v>
+        <v>4672</v>
       </c>
       <c r="F300">
-        <v>403</v>
+        <v>736</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>43920</v>
+        <v>43923</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6908,15 +6908,15 @@
         <v>8</v>
       </c>
       <c r="E301">
-        <v>2665</v>
+        <v>4522</v>
       </c>
       <c r="F301">
-        <v>374</v>
+        <v>657</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6928,15 +6928,15 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>2502</v>
+        <v>4567</v>
       </c>
       <c r="F302">
-        <v>212</v>
+        <v>672</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>43918</v>
+        <v>43921</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6948,15 +6948,15 @@
         <v>8</v>
       </c>
       <c r="E303">
-        <v>2556</v>
+        <v>3250</v>
       </c>
       <c r="F303">
-        <v>292</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6968,15 +6968,15 @@
         <v>8</v>
       </c>
       <c r="E304">
-        <v>2890</v>
+        <v>2665</v>
       </c>
       <c r="F304">
-        <v>288</v>
+        <v>374</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6988,15 +6988,15 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>2129</v>
+        <v>2502</v>
       </c>
       <c r="F305">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7008,15 +7008,15 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>1452</v>
+        <v>2556</v>
       </c>
       <c r="F306">
-        <v>191</v>
+        <v>292</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -7028,15 +7028,15 @@
         <v>8</v>
       </c>
       <c r="E307">
-        <v>1427</v>
+        <v>2890</v>
       </c>
       <c r="F307">
-        <v>148</v>
+        <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -7048,15 +7048,15 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>967</v>
+        <v>2129</v>
       </c>
       <c r="F308">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -7068,15 +7068,15 @@
         <v>8</v>
       </c>
       <c r="E309">
-        <v>665</v>
+        <v>1452</v>
       </c>
       <c r="F309">
-        <v>36</v>
+        <v>191</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -7088,15 +7088,15 @@
         <v>8</v>
       </c>
       <c r="E310">
-        <v>1035</v>
+        <v>1427</v>
       </c>
       <c r="F310">
-        <v>58</v>
+        <v>148</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -7108,15 +7108,15 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>714</v>
+        <v>967</v>
       </c>
       <c r="F311">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -7128,15 +7128,15 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="F312">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -7148,15 +7148,15 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>676</v>
+        <v>1035</v>
       </c>
       <c r="F313">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7168,15 +7168,15 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>407</v>
+        <v>714</v>
       </c>
       <c r="F314">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7188,15 +7188,15 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>152</v>
+        <v>643</v>
       </c>
       <c r="F315">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7208,15 +7208,15 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>330</v>
+        <v>676</v>
       </c>
       <c r="F316">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
@@ -7228,15 +7228,15 @@
         <v>8</v>
       </c>
       <c r="E317">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="F317">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -7248,15 +7248,15 @@
         <v>8</v>
       </c>
       <c r="E318">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="F318">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
@@ -7268,15 +7268,15 @@
         <v>8</v>
       </c>
       <c r="E319">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -7288,15 +7288,15 @@
         <v>8</v>
       </c>
       <c r="E320">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>43900</v>
+        <v>43903</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
@@ -7308,15 +7308,15 @@
         <v>8</v>
       </c>
       <c r="E321">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="F321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>43899</v>
+        <v>43902</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
@@ -7328,15 +7328,15 @@
         <v>8</v>
       </c>
       <c r="E322">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -7348,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="E323">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -7368,15 +7368,15 @@
         <v>8</v>
       </c>
       <c r="E324">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F324">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
@@ -7388,7 +7388,7 @@
         <v>8</v>
       </c>
       <c r="E325">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43895</v>
+        <v>43898</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
@@ -7408,7 +7408,7 @@
         <v>8</v>
       </c>
       <c r="E326">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43894</v>
+        <v>43897</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -7428,15 +7428,15 @@
         <v>8</v>
       </c>
       <c r="E327">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
@@ -7448,15 +7448,15 @@
         <v>8</v>
       </c>
       <c r="E328">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -7468,7 +7468,7 @@
         <v>8</v>
       </c>
       <c r="E329">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43891</v>
+        <v>43894</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -7488,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="E330">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43890</v>
+        <v>43893</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
@@ -7508,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="E331">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43889</v>
+        <v>43892</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7528,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="E332">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43888</v>
+        <v>43891</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7548,7 +7548,7 @@
         <v>8</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43887</v>
+        <v>43890</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7568,7 +7568,7 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43886</v>
+        <v>43889</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7588,7 +7588,7 @@
         <v>8</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43885</v>
+        <v>43888</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7608,7 +7608,7 @@
         <v>8</v>
       </c>
       <c r="E336">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43884</v>
+        <v>43887</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43883</v>
+        <v>43886</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7668,7 +7668,7 @@
         <v>8</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43881</v>
+        <v>43884</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43880</v>
+        <v>43883</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43879</v>
+        <v>43882</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43878</v>
+        <v>43881</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43877</v>
+        <v>43880</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>43876</v>
+        <v>43879</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>43875</v>
+        <v>43878</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>43874</v>
+        <v>43877</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -7828,7 +7828,7 @@
         <v>8</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>43873</v>
+        <v>43876</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>43872</v>
+        <v>43875</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>43871</v>
+        <v>43874</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -7888,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="E350">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>43869</v>
+        <v>43873</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>43867</v>
+        <v>43871</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>43866</v>
+        <v>43870</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -7968,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>43865</v>
+        <v>43869</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>43864</v>
+        <v>43868</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>43863</v>
+        <v>43867</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -8028,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>43861</v>
+        <v>43865</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -8068,7 +8068,7 @@
         <v>8</v>
       </c>
       <c r="E359">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>43859</v>
+        <v>43863</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>43858</v>
+        <v>43862</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>43857</v>
+        <v>43861</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -8148,7 +8148,7 @@
         <v>8</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>43856</v>
+        <v>43860</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>43855</v>
+        <v>43859</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>43854</v>
+        <v>43858</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>43853</v>
+        <v>43857</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>43852</v>
+        <v>43856</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>43851</v>
+        <v>43855</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>43850</v>
+        <v>43854</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>43849</v>
+        <v>43853</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>43848</v>
+        <v>43852</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>43846</v>
+        <v>43850</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>43845</v>
+        <v>43849</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>43844</v>
+        <v>43848</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>43843</v>
+        <v>43847</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>43842</v>
+        <v>43846</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>43841</v>
+        <v>43845</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>43840</v>
+        <v>43844</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>43839</v>
+        <v>43843</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>43838</v>
+        <v>43842</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>43837</v>
+        <v>43841</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>43836</v>
+        <v>43840</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>43835</v>
+        <v>43839</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>43834</v>
+        <v>43838</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>43833</v>
+        <v>43837</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>44195</v>
+        <v>43836</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -8648,15 +8648,15 @@
         <v>8</v>
       </c>
       <c r="E388">
-        <v>50023</v>
+        <v>0</v>
       </c>
       <c r="F388">
-        <v>981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>44171</v>
+        <v>43835</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -8668,15 +8668,15 @@
         <v>8</v>
       </c>
       <c r="E389">
-        <v>17272</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>44132</v>
+        <v>43834</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -8688,15 +8688,15 @@
         <v>8</v>
       </c>
       <c r="E390">
-        <v>24701</v>
+        <v>0</v>
       </c>
       <c r="F390">
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>44128</v>
+        <v>43833</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -8708,15 +8708,15 @@
         <v>8</v>
       </c>
       <c r="E391">
-        <v>23012</v>
+        <v>0</v>
       </c>
       <c r="F391">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>44015</v>
+        <v>44179</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8728,15 +8728,15 @@
         <v>8</v>
       </c>
       <c r="E392">
-        <v>544</v>
+        <v>20263</v>
       </c>
       <c r="F392">
-        <v>50</v>
+        <v>232</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <v>43870</v>
+        <v>44059</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8748,10 +8748,30 @@
         <v>8</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>1040</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" t="s">
+        <v>8</v>
+      </c>
+      <c r="E394">
+        <v>890</v>
+      </c>
+      <c r="F394">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D69F492-6D8D-461E-8905-5CE0CD6E794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16393363-DC68-4C79-989E-CB7852D7DB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-29" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-30 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>29079</v>
+        <v>23275</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>28680</v>
+        <v>29079</v>
       </c>
       <c r="F3">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>25308</v>
+        <v>28680</v>
       </c>
       <c r="F4">
-        <v>1725</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F5">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F6">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F7">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F8">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F9">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F10">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F11">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F12">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F13">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F14">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F15">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F16">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F17">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F18">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F19">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F20">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F21">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F22">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F23">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F24">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F25">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F26">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F27">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F28">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F29">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F30">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1508,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F31">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1528,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F32">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1548,15 +1548,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>53135</v>
+        <v>50023</v>
       </c>
       <c r="F33">
-        <v>414</v>
+        <v>981</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1568,15 +1568,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>41385</v>
+        <v>53135</v>
       </c>
       <c r="F34">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1588,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>30501</v>
+        <v>41385</v>
       </c>
       <c r="F35">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1608,15 +1608,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>35691</v>
+        <v>30501</v>
       </c>
       <c r="F36">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1628,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>32725</v>
+        <v>35691</v>
       </c>
       <c r="F37">
-        <v>613</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1648,15 +1648,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>39877</v>
+        <v>32725</v>
       </c>
       <c r="F38">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1668,15 +1668,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>39237</v>
+        <v>39877</v>
       </c>
       <c r="F39">
-        <v>744</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1688,15 +1688,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>36804</v>
+        <v>39237</v>
       </c>
       <c r="F40">
-        <v>691</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1708,15 +1708,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>33364</v>
+        <v>36804</v>
       </c>
       <c r="F41">
-        <v>215</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1728,15 +1728,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>35928</v>
+        <v>33364</v>
       </c>
       <c r="F42">
-        <v>326</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1748,15 +1748,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>27052</v>
+        <v>35928</v>
       </c>
       <c r="F43">
-        <v>534</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1768,15 +1768,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>28507</v>
+        <v>27052</v>
       </c>
       <c r="F44">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1788,15 +1788,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>35383</v>
+        <v>28507</v>
       </c>
       <c r="F45">
-        <v>532</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1808,15 +1808,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>25161</v>
+        <v>35383</v>
       </c>
       <c r="F46">
-        <v>613</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1828,15 +1828,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>18450</v>
+        <v>25161</v>
       </c>
       <c r="F47">
-        <v>506</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1848,15 +1848,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>18447</v>
+        <v>18450</v>
       </c>
       <c r="F48">
-        <v>144</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1868,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>21502</v>
+        <v>20263</v>
       </c>
       <c r="F49">
-        <v>519</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1888,15 +1888,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>21672</v>
+        <v>18447</v>
       </c>
       <c r="F50">
-        <v>424</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1908,15 +1908,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>20964</v>
+        <v>21502</v>
       </c>
       <c r="F51">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1928,15 +1928,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>16578</v>
+        <v>21672</v>
       </c>
       <c r="F52">
-        <v>533</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1948,15 +1948,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>12282</v>
+        <v>20964</v>
       </c>
       <c r="F53">
-        <v>616</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>14718</v>
+        <v>16578</v>
       </c>
       <c r="F54">
-        <v>189</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1988,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>17272</v>
+        <v>12282</v>
       </c>
       <c r="F55">
-        <v>231</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2008,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>15539</v>
+        <v>14718</v>
       </c>
       <c r="F56">
-        <v>397</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44169</v>
+        <v>44171</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2028,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>16298</v>
+        <v>17272</v>
       </c>
       <c r="F57">
-        <v>504</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44168</v>
+        <v>44170</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>14879</v>
+        <v>15539</v>
       </c>
       <c r="F58">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2068,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>16170</v>
+        <v>16298</v>
       </c>
       <c r="F59">
-        <v>648</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2088,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>13430</v>
+        <v>14879</v>
       </c>
       <c r="F60">
-        <v>603</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2108,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>12330</v>
+        <v>16170</v>
       </c>
       <c r="F61">
-        <v>205</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2128,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>12155</v>
+        <v>13430</v>
       </c>
       <c r="F62">
-        <v>215</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2148,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>15871</v>
+        <v>12330</v>
       </c>
       <c r="F63">
-        <v>479</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2168,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>16022</v>
+        <v>12155</v>
       </c>
       <c r="F64">
-        <v>521</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2188,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>17555</v>
+        <v>15871</v>
       </c>
       <c r="F65">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2208,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>18213</v>
+        <v>16022</v>
       </c>
       <c r="F66">
-        <v>696</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2228,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>11299</v>
+        <v>17555</v>
       </c>
       <c r="F67">
-        <v>608</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2248,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>15450</v>
+        <v>18213</v>
       </c>
       <c r="F68">
-        <v>206</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>18662</v>
+        <v>11299</v>
       </c>
       <c r="F69">
-        <v>398</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2288,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>19875</v>
+        <v>15450</v>
       </c>
       <c r="F70">
-        <v>341</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>20252</v>
+        <v>18662</v>
       </c>
       <c r="F71">
-        <v>511</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2328,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>22915</v>
+        <v>19875</v>
       </c>
       <c r="F72">
-        <v>501</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2348,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>19609</v>
+        <v>20252</v>
       </c>
       <c r="F73">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2368,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>20051</v>
+        <v>22915</v>
       </c>
       <c r="F74">
-        <v>598</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2388,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>21363</v>
+        <v>19609</v>
       </c>
       <c r="F75">
-        <v>213</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2408,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>24962</v>
+        <v>20051</v>
       </c>
       <c r="F76">
-        <v>168</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2428,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>26860</v>
+        <v>21363</v>
       </c>
       <c r="F77">
-        <v>462</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44148</v>
+        <v>44150</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>27301</v>
+        <v>24962</v>
       </c>
       <c r="F78">
-        <v>376</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44147</v>
+        <v>44149</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2468,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>33470</v>
+        <v>26860</v>
       </c>
       <c r="F79">
-        <v>563</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2488,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>22950</v>
+        <v>27301</v>
       </c>
       <c r="F80">
-        <v>595</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44145</v>
+        <v>44147</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2508,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>20412</v>
+        <v>33470</v>
       </c>
       <c r="F81">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2528,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>21350</v>
+        <v>22950</v>
       </c>
       <c r="F82">
-        <v>194</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2548,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>20572</v>
+        <v>20412</v>
       </c>
       <c r="F83">
-        <v>156</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2568,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>24957</v>
+        <v>21350</v>
       </c>
       <c r="F84">
-        <v>413</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44141</v>
+        <v>44143</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2588,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>23287</v>
+        <v>20572</v>
       </c>
       <c r="F85">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2608,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>24141</v>
+        <v>24957</v>
       </c>
       <c r="F86">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2628,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>25177</v>
+        <v>23287</v>
       </c>
       <c r="F87">
-        <v>492</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>20018</v>
+        <v>24141</v>
       </c>
       <c r="F88">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2668,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>18950</v>
+        <v>25177</v>
       </c>
       <c r="F89">
-        <v>136</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44136</v>
+        <v>44138</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2688,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>23254</v>
+        <v>20018</v>
       </c>
       <c r="F90">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2708,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>21915</v>
+        <v>18950</v>
       </c>
       <c r="F91">
-        <v>326</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>24405</v>
+        <v>23254</v>
       </c>
       <c r="F92">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2748,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>23065</v>
+        <v>21915</v>
       </c>
       <c r="F93">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44132</v>
+        <v>44134</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2768,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>24701</v>
+        <v>24405</v>
       </c>
       <c r="F94">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2788,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>22885</v>
+        <v>23065</v>
       </c>
       <c r="F95">
-        <v>367</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2808,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>20890</v>
+        <v>24701</v>
       </c>
       <c r="F96">
-        <v>102</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44129</v>
+        <v>44131</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2828,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>19790</v>
+        <v>22885</v>
       </c>
       <c r="F97">
-        <v>151</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>23012</v>
+        <v>20890</v>
       </c>
       <c r="F98">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44127</v>
+        <v>44129</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2868,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>20530</v>
+        <v>19790</v>
       </c>
       <c r="F99">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44126</v>
+        <v>44128</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2888,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>21242</v>
+        <v>23012</v>
       </c>
       <c r="F100">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44125</v>
+        <v>44127</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2908,15 +2908,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>26688</v>
+        <v>20530</v>
       </c>
       <c r="F101">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2928,15 +2928,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>21331</v>
+        <v>21242</v>
       </c>
       <c r="F102">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44123</v>
+        <v>44125</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2948,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>18804</v>
+        <v>26688</v>
       </c>
       <c r="F103">
-        <v>80</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2968,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>16982</v>
+        <v>21331</v>
       </c>
       <c r="F104">
-        <v>67</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44121</v>
+        <v>44123</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2988,15 +2988,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>16171</v>
+        <v>18804</v>
       </c>
       <c r="F105">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44120</v>
+        <v>44122</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3008,15 +3008,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>15650</v>
+        <v>16982</v>
       </c>
       <c r="F106">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44119</v>
+        <v>44121</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3028,15 +3028,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>18980</v>
+        <v>16171</v>
       </c>
       <c r="F107">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3048,15 +3048,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>19724</v>
+        <v>15650</v>
       </c>
       <c r="F108">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3068,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>17234</v>
+        <v>18980</v>
       </c>
       <c r="F109">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3088,15 +3088,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>13972</v>
+        <v>19724</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3108,15 +3108,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>12872</v>
+        <v>17234</v>
       </c>
       <c r="F111">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44114</v>
+        <v>44116</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3128,15 +3128,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>15166</v>
+        <v>13972</v>
       </c>
       <c r="F112">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3148,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>13864</v>
+        <v>12872</v>
       </c>
       <c r="F113">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3168,15 +3168,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>17540</v>
+        <v>15166</v>
       </c>
       <c r="F114">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44111</v>
+        <v>44113</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3188,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>14162</v>
+        <v>13864</v>
       </c>
       <c r="F115">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44110</v>
+        <v>44112</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3208,15 +3208,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>14542</v>
+        <v>17540</v>
       </c>
       <c r="F116">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3228,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>12594</v>
+        <v>14162</v>
       </c>
       <c r="F117">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3248,15 +3248,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>22961</v>
+        <v>14542</v>
       </c>
       <c r="F118">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3268,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>12872</v>
+        <v>12594</v>
       </c>
       <c r="F119">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44106</v>
+        <v>44108</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3288,15 +3288,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>6968</v>
+        <v>22961</v>
       </c>
       <c r="F120">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3308,15 +3308,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>6914</v>
+        <v>12872</v>
       </c>
       <c r="F121">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3328,15 +3328,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>7108</v>
+        <v>6968</v>
       </c>
       <c r="F122">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3348,15 +3348,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>7143</v>
+        <v>6914</v>
       </c>
       <c r="F123">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3368,15 +3368,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>4044</v>
+        <v>7108</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44101</v>
+        <v>44103</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3388,15 +3388,15 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>5693</v>
+        <v>7143</v>
       </c>
       <c r="F125">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3408,15 +3408,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>6042</v>
+        <v>4044</v>
       </c>
       <c r="F126">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3428,15 +3428,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>6874</v>
+        <v>5693</v>
       </c>
       <c r="F127">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3448,15 +3448,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>6634</v>
+        <v>6042</v>
       </c>
       <c r="F128">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3468,15 +3468,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>6178</v>
+        <v>6874</v>
       </c>
       <c r="F129">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3488,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>4926</v>
+        <v>6634</v>
       </c>
       <c r="F130">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3508,15 +3508,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>4368</v>
+        <v>6178</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3528,15 +3528,15 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>3899</v>
+        <v>4926</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3548,15 +3548,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>4422</v>
+        <v>4368</v>
       </c>
       <c r="F133">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3568,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>4322</v>
+        <v>3899</v>
       </c>
       <c r="F134">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3588,15 +3588,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>3395</v>
+        <v>4422</v>
       </c>
       <c r="F135">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3608,15 +3608,15 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>3991</v>
+        <v>4322</v>
       </c>
       <c r="F136">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3628,15 +3628,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>3105</v>
+        <v>3395</v>
       </c>
       <c r="F137">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3648,15 +3648,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>2621</v>
+        <v>3991</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3668,15 +3668,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>3330</v>
+        <v>3105</v>
       </c>
       <c r="F139">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3688,7 +3688,7 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>3497</v>
+        <v>2621</v>
       </c>
       <c r="F140">
         <v>9</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44085</v>
+        <v>44087</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3708,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>3539</v>
+        <v>3330</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3728,15 +3728,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2919</v>
+        <v>3497</v>
       </c>
       <c r="F142">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3748,15 +3748,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>2659</v>
+        <v>3539</v>
       </c>
       <c r="F143">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3768,15 +3768,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>2460</v>
+        <v>2919</v>
       </c>
       <c r="F144">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>2948</v>
+        <v>2659</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44080</v>
+        <v>44082</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>2988</v>
+        <v>2460</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44079</v>
+        <v>44081</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1813</v>
+        <v>2948</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44078</v>
+        <v>44080</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>1940</v>
+        <v>2988</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1735</v>
+        <v>1813</v>
       </c>
       <c r="F149">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44076</v>
+        <v>44078</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1508</v>
+        <v>1940</v>
       </c>
       <c r="F150">
         <v>10</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1295</v>
+        <v>1735</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44074</v>
+        <v>44076</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1406</v>
+        <v>1508</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44073</v>
+        <v>44075</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1715</v>
+        <v>1295</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44072</v>
+        <v>44074</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,15 +3968,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1108</v>
+        <v>1406</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44071</v>
+        <v>44073</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,15 +3988,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1276</v>
+        <v>1715</v>
       </c>
       <c r="F155">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44070</v>
+        <v>44072</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1522</v>
+        <v>1108</v>
       </c>
       <c r="F156">
         <v>12</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1048</v>
+        <v>1276</v>
       </c>
       <c r="F157">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,15 +4048,15 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1184</v>
+        <v>1522</v>
       </c>
       <c r="F158">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4068,15 +4068,15 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>853</v>
+        <v>1048</v>
       </c>
       <c r="F159">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4088,15 +4088,15 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>1160</v>
+        <v>1184</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -4108,15 +4108,15 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>1288</v>
+        <v>853</v>
       </c>
       <c r="F161">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44064</v>
+        <v>44066</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -4128,15 +4128,15 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1033</v>
+        <v>1160</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -4148,15 +4148,15 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1182</v>
+        <v>1288</v>
       </c>
       <c r="F163">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4168,15 +4168,15 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>812</v>
+        <v>1033</v>
       </c>
       <c r="F164">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4188,15 +4188,15 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1089</v>
+        <v>1182</v>
       </c>
       <c r="F165">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44060</v>
+        <v>44062</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4208,15 +4208,15 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>713</v>
+        <v>812</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44058</v>
+        <v>44061</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -4228,15 +4228,15 @@
         <v>8</v>
       </c>
       <c r="E167">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4248,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1441</v>
+        <v>713</v>
       </c>
       <c r="F168">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44056</v>
+        <v>44059</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -4268,15 +4268,15 @@
         <v>8</v>
       </c>
       <c r="E169">
-        <v>1129</v>
+        <v>1040</v>
       </c>
       <c r="F169">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44055</v>
+        <v>44058</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -4288,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>1009</v>
+        <v>1077</v>
       </c>
       <c r="F170">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -4308,15 +4308,15 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>1148</v>
+        <v>1441</v>
       </c>
       <c r="F171">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4328,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="E172">
-        <v>740</v>
+        <v>1129</v>
       </c>
       <c r="F172">
         <v>18</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44052</v>
+        <v>44055</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4348,15 +4348,15 @@
         <v>8</v>
       </c>
       <c r="E173">
-        <v>1062</v>
+        <v>1009</v>
       </c>
       <c r="F173">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44051</v>
+        <v>44054</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -4368,15 +4368,15 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>758</v>
+        <v>1148</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -4388,15 +4388,15 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>871</v>
+        <v>740</v>
       </c>
       <c r="F175">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44049</v>
+        <v>44052</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4408,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>950</v>
+        <v>1062</v>
       </c>
       <c r="F176">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44048</v>
+        <v>44051</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -4428,15 +4428,15 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>892</v>
+        <v>758</v>
       </c>
       <c r="F177">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44047</v>
+        <v>44050</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -4448,15 +4448,15 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>670</v>
+        <v>871</v>
       </c>
       <c r="F178">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4468,15 +4468,15 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>898</v>
+        <v>950</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44045</v>
+        <v>44048</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -4488,15 +4488,15 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>744</v>
+        <v>892</v>
       </c>
       <c r="F180">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44044</v>
+        <v>44047</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -4508,15 +4508,15 @@
         <v>8</v>
       </c>
       <c r="E181">
-        <v>761</v>
+        <v>670</v>
       </c>
       <c r="F181">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4528,15 +4528,15 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="F182">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4548,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>846</v>
+        <v>744</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44041</v>
+        <v>44044</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4568,15 +4568,15 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F184">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44040</v>
+        <v>44043</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4588,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>581</v>
+        <v>880</v>
       </c>
       <c r="F185">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4608,15 +4608,15 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>685</v>
+        <v>846</v>
       </c>
       <c r="F186">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44038</v>
+        <v>44041</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4628,15 +4628,15 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="F187">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44037</v>
+        <v>44040</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4648,15 +4648,15 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>767</v>
+        <v>581</v>
       </c>
       <c r="F188">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4668,15 +4668,15 @@
         <v>8</v>
       </c>
       <c r="E189">
-        <v>768</v>
+        <v>685</v>
       </c>
       <c r="F189">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44035</v>
+        <v>44038</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4688,15 +4688,15 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="F190">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44034</v>
+        <v>44037</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4708,15 +4708,15 @@
         <v>8</v>
       </c>
       <c r="E191">
-        <v>560</v>
+        <v>767</v>
       </c>
       <c r="F191">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44033</v>
+        <v>44036</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4728,15 +4728,15 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>445</v>
+        <v>768</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44032</v>
+        <v>44035</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4748,15 +4748,15 @@
         <v>8</v>
       </c>
       <c r="E193">
-        <v>557</v>
+        <v>769</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44031</v>
+        <v>44034</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4768,15 +4768,15 @@
         <v>8</v>
       </c>
       <c r="E194">
-        <v>726</v>
+        <v>560</v>
       </c>
       <c r="F194">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44030</v>
+        <v>44033</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4788,15 +4788,15 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>827</v>
+        <v>445</v>
       </c>
       <c r="F195">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4808,15 +4808,15 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>687</v>
+        <v>557</v>
       </c>
       <c r="F196">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44028</v>
+        <v>44031</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -4828,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="F197">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44027</v>
+        <v>44030</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -4848,15 +4848,15 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>538</v>
+        <v>827</v>
       </c>
       <c r="F198">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -4868,15 +4868,15 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>398</v>
+        <v>687</v>
       </c>
       <c r="F199">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44025</v>
+        <v>44028</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4888,15 +4888,15 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="F200">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44024</v>
+        <v>44027</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -4908,15 +4908,15 @@
         <v>8</v>
       </c>
       <c r="E201">
-        <v>650</v>
+        <v>538</v>
       </c>
       <c r="F201">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44023</v>
+        <v>44026</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -4928,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="E202">
-        <v>820</v>
+        <v>398</v>
       </c>
       <c r="F202">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -4948,15 +4948,15 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="F203">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44021</v>
+        <v>44024</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -4968,15 +4968,15 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F204">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44020</v>
+        <v>44023</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -4988,15 +4988,15 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F205">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44019</v>
+        <v>44022</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5008,15 +5008,15 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="F206">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44018</v>
+        <v>44021</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -5028,15 +5028,15 @@
         <v>8</v>
       </c>
       <c r="E207">
-        <v>343</v>
+        <v>642</v>
       </c>
       <c r="F207">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44017</v>
+        <v>44020</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5048,15 +5048,15 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="F208">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44016</v>
+        <v>44019</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5068,15 +5068,15 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="F209">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -5088,15 +5088,15 @@
         <v>8</v>
       </c>
       <c r="E210">
-        <v>544</v>
+        <v>343</v>
       </c>
       <c r="F210">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44014</v>
+        <v>44017</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -5108,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="E211">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="F211">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44013</v>
+        <v>44016</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -5128,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E212">
-        <v>829</v>
+        <v>624</v>
       </c>
       <c r="F212">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44012</v>
+        <v>44015</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -5148,15 +5148,15 @@
         <v>8</v>
       </c>
       <c r="E213">
-        <v>689</v>
+        <v>544</v>
       </c>
       <c r="F213">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44011</v>
+        <v>44014</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5168,15 +5168,15 @@
         <v>8</v>
       </c>
       <c r="E214">
-        <v>815</v>
+        <v>576</v>
       </c>
       <c r="F214">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44010</v>
+        <v>44013</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5188,15 +5188,15 @@
         <v>8</v>
       </c>
       <c r="E215">
-        <v>901</v>
+        <v>829</v>
       </c>
       <c r="F215">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5208,15 +5208,15 @@
         <v>8</v>
       </c>
       <c r="E216">
-        <v>1006</v>
+        <v>689</v>
       </c>
       <c r="F216">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44007</v>
+        <v>44011</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5228,15 +5228,15 @@
         <v>8</v>
       </c>
       <c r="E217">
-        <v>1118</v>
+        <v>815</v>
       </c>
       <c r="F217">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44006</v>
+        <v>44010</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5248,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>653</v>
+        <v>901</v>
       </c>
       <c r="F218">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44005</v>
+        <v>44009</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5268,15 +5268,15 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="F219">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44004</v>
+        <v>44008</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5288,15 +5288,15 @@
         <v>8</v>
       </c>
       <c r="E220">
-        <v>958</v>
+        <v>1006</v>
       </c>
       <c r="F220">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44003</v>
+        <v>44007</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5308,15 +5308,15 @@
         <v>8</v>
       </c>
       <c r="E221">
-        <v>1221</v>
+        <v>1118</v>
       </c>
       <c r="F221">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44002</v>
+        <v>44006</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5328,15 +5328,15 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>1295</v>
+        <v>653</v>
       </c>
       <c r="F222">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5348,15 +5348,15 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1346</v>
+        <v>874</v>
       </c>
       <c r="F223">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>44000</v>
+        <v>44004</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5368,15 +5368,15 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>1218</v>
+        <v>958</v>
       </c>
       <c r="F224">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43999</v>
+        <v>44003</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5388,15 +5388,15 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>1115</v>
+        <v>1221</v>
       </c>
       <c r="F225">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5408,15 +5408,15 @@
         <v>8</v>
       </c>
       <c r="E226">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="F226">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>43997</v>
+        <v>44001</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -5428,15 +5428,15 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1056</v>
+        <v>1346</v>
       </c>
       <c r="F227">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>43996</v>
+        <v>44000</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -5448,15 +5448,15 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>1514</v>
+        <v>1218</v>
       </c>
       <c r="F228">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>43995</v>
+        <v>43999</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -5468,15 +5468,15 @@
         <v>8</v>
       </c>
       <c r="E229">
-        <v>1425</v>
+        <v>1115</v>
       </c>
       <c r="F229">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -5488,15 +5488,15 @@
         <v>8</v>
       </c>
       <c r="E230">
-        <v>1541</v>
+        <v>1279</v>
       </c>
       <c r="F230">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>43993</v>
+        <v>43997</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -5508,15 +5508,15 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>1266</v>
+        <v>1056</v>
       </c>
       <c r="F231">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>43992</v>
+        <v>43996</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -5528,15 +5528,15 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>1003</v>
+        <v>1514</v>
       </c>
       <c r="F232">
-        <v>164</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>43991</v>
+        <v>43995</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -5548,15 +5548,15 @@
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1387</v>
+        <v>1425</v>
       </c>
       <c r="F233">
-        <v>195</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>43990</v>
+        <v>43994</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
@@ -5568,15 +5568,15 @@
         <v>8</v>
       </c>
       <c r="E234">
-        <v>1205</v>
+        <v>1541</v>
       </c>
       <c r="F234">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>43989</v>
+        <v>43993</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -5588,15 +5588,15 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>1326</v>
+        <v>1266</v>
       </c>
       <c r="F235">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>43988</v>
+        <v>43992</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -5608,15 +5608,15 @@
         <v>8</v>
       </c>
       <c r="E236">
-        <v>1557</v>
+        <v>1003</v>
       </c>
       <c r="F236">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -5628,15 +5628,15 @@
         <v>8</v>
       </c>
       <c r="E237">
-        <v>1650</v>
+        <v>1387</v>
       </c>
       <c r="F237">
-        <v>258</v>
+        <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -5648,15 +5648,15 @@
         <v>8</v>
       </c>
       <c r="E238">
-        <v>1805</v>
+        <v>1205</v>
       </c>
       <c r="F238">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>43985</v>
+        <v>43989</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -5668,15 +5668,15 @@
         <v>8</v>
       </c>
       <c r="E239">
-        <v>1871</v>
+        <v>1326</v>
       </c>
       <c r="F239">
-        <v>254</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -5688,15 +5688,15 @@
         <v>8</v>
       </c>
       <c r="E240">
-        <v>1613</v>
+        <v>1557</v>
       </c>
       <c r="F240">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>43983</v>
+        <v>43987</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -5708,15 +5708,15 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>1570</v>
+        <v>1650</v>
       </c>
       <c r="F241">
-        <v>86</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>43982</v>
+        <v>43986</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5728,15 +5728,15 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>1936</v>
+        <v>1805</v>
       </c>
       <c r="F242">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>43981</v>
+        <v>43985</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5748,15 +5748,15 @@
         <v>8</v>
       </c>
       <c r="E243">
-        <v>2445</v>
+        <v>1871</v>
       </c>
       <c r="F243">
-        <v>154</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5768,15 +5768,15 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>2095</v>
+        <v>1613</v>
       </c>
       <c r="F244">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>43979</v>
+        <v>43983</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5788,15 +5788,15 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>1887</v>
+        <v>1570</v>
       </c>
       <c r="F245">
-        <v>343</v>
+        <v>86</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>43978</v>
+        <v>43982</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5808,15 +5808,15 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>2013</v>
+        <v>1936</v>
       </c>
       <c r="F246">
-        <v>422</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>43977</v>
+        <v>43981</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5828,15 +5828,15 @@
         <v>8</v>
       </c>
       <c r="E247">
-        <v>2004</v>
+        <v>2445</v>
       </c>
       <c r="F247">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>43976</v>
+        <v>43980</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5848,15 +5848,15 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>1625</v>
+        <v>2095</v>
       </c>
       <c r="F248">
-        <v>104</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>43975</v>
+        <v>43979</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5868,15 +5868,15 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>2409</v>
+        <v>1887</v>
       </c>
       <c r="F249">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>43974</v>
+        <v>43978</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5888,15 +5888,15 @@
         <v>8</v>
       </c>
       <c r="E250">
-        <v>2959</v>
+        <v>2013</v>
       </c>
       <c r="F250">
-        <v>220</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5908,15 +5908,15 @@
         <v>8</v>
       </c>
       <c r="E251">
-        <v>3287</v>
+        <v>2004</v>
       </c>
       <c r="F251">
-        <v>291</v>
+        <v>131</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>43972</v>
+        <v>43976</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5928,15 +5928,15 @@
         <v>8</v>
       </c>
       <c r="E252">
-        <v>2615</v>
+        <v>1625</v>
       </c>
       <c r="F252">
-        <v>273</v>
+        <v>104</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>43971</v>
+        <v>43975</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5948,15 +5948,15 @@
         <v>8</v>
       </c>
       <c r="E253">
-        <v>2472</v>
+        <v>2409</v>
       </c>
       <c r="F253">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>43970</v>
+        <v>43974</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5968,15 +5968,15 @@
         <v>8</v>
       </c>
       <c r="E254">
-        <v>2412</v>
+        <v>2959</v>
       </c>
       <c r="F254">
-        <v>500</v>
+        <v>220</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>43969</v>
+        <v>43973</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5988,15 +5988,15 @@
         <v>8</v>
       </c>
       <c r="E255">
-        <v>2684</v>
+        <v>3287</v>
       </c>
       <c r="F255">
-        <v>146</v>
+        <v>291</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>43968</v>
+        <v>43972</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6008,15 +6008,15 @@
         <v>8</v>
       </c>
       <c r="E256">
-        <v>3562</v>
+        <v>2615</v>
       </c>
       <c r="F256">
-        <v>67</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>43967</v>
+        <v>43971</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -6028,15 +6028,15 @@
         <v>8</v>
       </c>
       <c r="E257">
-        <v>3451</v>
+        <v>2472</v>
       </c>
       <c r="F257">
-        <v>411</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -6048,15 +6048,15 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>3560</v>
+        <v>2412</v>
       </c>
       <c r="F258">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>43965</v>
+        <v>43969</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -6068,15 +6068,15 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>3446</v>
+        <v>2684</v>
       </c>
       <c r="F259">
-        <v>352</v>
+        <v>146</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -6088,15 +6088,15 @@
         <v>8</v>
       </c>
       <c r="E260">
-        <v>3242</v>
+        <v>3562</v>
       </c>
       <c r="F260">
-        <v>447</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>43963</v>
+        <v>43967</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -6108,15 +6108,15 @@
         <v>8</v>
       </c>
       <c r="E261">
-        <v>3403</v>
+        <v>3451</v>
       </c>
       <c r="F261">
-        <v>614</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>43962</v>
+        <v>43966</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -6128,15 +6128,15 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>3877</v>
+        <v>3560</v>
       </c>
       <c r="F262">
-        <v>187</v>
+        <v>350</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -6148,15 +6148,15 @@
         <v>8</v>
       </c>
       <c r="E263">
-        <v>3923</v>
+        <v>3446</v>
       </c>
       <c r="F263">
-        <v>217</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>43960</v>
+        <v>43964</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6168,15 +6168,15 @@
         <v>8</v>
       </c>
       <c r="E264">
-        <v>3896</v>
+        <v>3242</v>
       </c>
       <c r="F264">
-        <v>275</v>
+        <v>447</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -6188,15 +6188,15 @@
         <v>8</v>
       </c>
       <c r="E265">
-        <v>4649</v>
+        <v>3403</v>
       </c>
       <c r="F265">
-        <v>579</v>
+        <v>614</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -6208,15 +6208,15 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>5614</v>
+        <v>3877</v>
       </c>
       <c r="F266">
-        <v>458</v>
+        <v>187</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -6228,15 +6228,15 @@
         <v>8</v>
       </c>
       <c r="E267">
-        <v>6111</v>
+        <v>3923</v>
       </c>
       <c r="F267">
-        <v>647</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -6248,15 +6248,15 @@
         <v>8</v>
       </c>
       <c r="E268">
-        <v>4406</v>
+        <v>3896</v>
       </c>
       <c r="F268">
-        <v>726</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>43955</v>
+        <v>43959</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -6268,15 +6268,15 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>3985</v>
+        <v>4649</v>
       </c>
       <c r="F269">
-        <v>272</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>43954</v>
+        <v>43958</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -6288,15 +6288,15 @@
         <v>8</v>
       </c>
       <c r="E270">
-        <v>4339</v>
+        <v>5614</v>
       </c>
       <c r="F270">
-        <v>253</v>
+        <v>458</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>43953</v>
+        <v>43957</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -6308,15 +6308,15 @@
         <v>8</v>
       </c>
       <c r="E271">
-        <v>4806</v>
+        <v>6111</v>
       </c>
       <c r="F271">
-        <v>584</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>43952</v>
+        <v>43956</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6328,15 +6328,15 @@
         <v>8</v>
       </c>
       <c r="E272">
-        <v>6201</v>
+        <v>4406</v>
       </c>
       <c r="F272">
-        <v>698</v>
+        <v>726</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6348,15 +6348,15 @@
         <v>8</v>
       </c>
       <c r="E273">
-        <v>6032</v>
+        <v>3985</v>
       </c>
       <c r="F273">
-        <v>634</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>43950</v>
+        <v>43954</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6368,15 +6368,15 @@
         <v>8</v>
       </c>
       <c r="E274">
-        <v>4076</v>
+        <v>4339</v>
       </c>
       <c r="F274">
-        <v>769</v>
+        <v>253</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>43949</v>
+        <v>43953</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6388,15 +6388,15 @@
         <v>8</v>
       </c>
       <c r="E275">
-        <v>3996</v>
+        <v>4806</v>
       </c>
       <c r="F275">
-        <v>969</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>43948</v>
+        <v>43952</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6408,15 +6408,15 @@
         <v>8</v>
       </c>
       <c r="E276">
-        <v>4310</v>
+        <v>6201</v>
       </c>
       <c r="F276">
-        <v>320</v>
+        <v>698</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6428,15 +6428,15 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>4463</v>
+        <v>6032</v>
       </c>
       <c r="F277">
-        <v>364</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>43946</v>
+        <v>43950</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6448,15 +6448,15 @@
         <v>8</v>
       </c>
       <c r="E278">
-        <v>4913</v>
+        <v>4076</v>
       </c>
       <c r="F278">
-        <v>815</v>
+        <v>769</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6468,15 +6468,15 @@
         <v>8</v>
       </c>
       <c r="E279">
-        <v>5386</v>
+        <v>3996</v>
       </c>
       <c r="F279">
-        <v>1010</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>43944</v>
+        <v>43948</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6488,15 +6488,15 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>4583</v>
+        <v>4310</v>
       </c>
       <c r="F280">
-        <v>682</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>43943</v>
+        <v>43947</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6508,15 +6508,15 @@
         <v>8</v>
       </c>
       <c r="E281">
-        <v>4451</v>
+        <v>4463</v>
       </c>
       <c r="F281">
-        <v>847</v>
+        <v>364</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>43942</v>
+        <v>43946</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6528,15 +6528,15 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>4301</v>
+        <v>4913</v>
       </c>
       <c r="F282">
-        <v>1224</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>43941</v>
+        <v>43945</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6548,15 +6548,15 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>4676</v>
+        <v>5386</v>
       </c>
       <c r="F283">
-        <v>570</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>43940</v>
+        <v>43944</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6568,15 +6568,15 @@
         <v>8</v>
       </c>
       <c r="E284">
-        <v>5850</v>
+        <v>4583</v>
       </c>
       <c r="F284">
-        <v>432</v>
+        <v>682</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>43939</v>
+        <v>43943</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6588,15 +6588,15 @@
         <v>8</v>
       </c>
       <c r="E285">
-        <v>5526</v>
+        <v>4451</v>
       </c>
       <c r="F285">
-        <v>1105</v>
+        <v>847</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6608,15 +6608,15 @@
         <v>8</v>
       </c>
       <c r="E286">
-        <v>5599</v>
+        <v>4301</v>
       </c>
       <c r="F286">
-        <v>913</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>43937</v>
+        <v>43941</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -6628,15 +6628,15 @@
         <v>8</v>
       </c>
       <c r="E287">
-        <v>4618</v>
+        <v>4676</v>
       </c>
       <c r="F287">
-        <v>1036</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>43936</v>
+        <v>43940</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -6648,15 +6648,15 @@
         <v>8</v>
       </c>
       <c r="E288">
-        <v>4605</v>
+        <v>5850</v>
       </c>
       <c r="F288">
-        <v>880</v>
+        <v>432</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>43935</v>
+        <v>43939</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -6668,15 +6668,15 @@
         <v>8</v>
       </c>
       <c r="E289">
-        <v>5252</v>
+        <v>5526</v>
       </c>
       <c r="F289">
-        <v>1076</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>43934</v>
+        <v>43938</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -6688,15 +6688,15 @@
         <v>8</v>
       </c>
       <c r="E290">
-        <v>4342</v>
+        <v>5599</v>
       </c>
       <c r="F290">
-        <v>724</v>
+        <v>913</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>43933</v>
+        <v>43937</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -6708,15 +6708,15 @@
         <v>8</v>
       </c>
       <c r="E291">
-        <v>5288</v>
+        <v>4618</v>
       </c>
       <c r="F291">
-        <v>657</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>43932</v>
+        <v>43936</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -6728,15 +6728,15 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>5234</v>
+        <v>4605</v>
       </c>
       <c r="F292">
-        <v>843</v>
+        <v>880</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -6748,15 +6748,15 @@
         <v>8</v>
       </c>
       <c r="E293">
-        <v>5706</v>
+        <v>5252</v>
       </c>
       <c r="F293">
-        <v>1122</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -6768,15 +6768,15 @@
         <v>8</v>
       </c>
       <c r="E294">
-        <v>4675</v>
+        <v>4342</v>
       </c>
       <c r="F294">
-        <v>1116</v>
+        <v>724</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>43929</v>
+        <v>43933</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -6788,15 +6788,15 @@
         <v>8</v>
       </c>
       <c r="E295">
-        <v>5865</v>
+        <v>5288</v>
       </c>
       <c r="F295">
-        <v>1030</v>
+        <v>657</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>43928</v>
+        <v>43932</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -6808,15 +6808,15 @@
         <v>8</v>
       </c>
       <c r="E296">
-        <v>3888</v>
+        <v>5234</v>
       </c>
       <c r="F296">
-        <v>1105</v>
+        <v>843</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>43927</v>
+        <v>43931</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -6828,15 +6828,15 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>4143</v>
+        <v>5706</v>
       </c>
       <c r="F297">
-        <v>567</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>43926</v>
+        <v>43930</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -6848,15 +6848,15 @@
         <v>8</v>
       </c>
       <c r="E298">
-        <v>6199</v>
+        <v>4675</v>
       </c>
       <c r="F298">
-        <v>599</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>43925</v>
+        <v>43929</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -6868,15 +6868,15 @@
         <v>8</v>
       </c>
       <c r="E299">
-        <v>4000</v>
+        <v>5865</v>
       </c>
       <c r="F299">
-        <v>756</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6888,15 +6888,15 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>4672</v>
+        <v>3888</v>
       </c>
       <c r="F300">
-        <v>736</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6908,15 +6908,15 @@
         <v>8</v>
       </c>
       <c r="E301">
-        <v>4522</v>
+        <v>4143</v>
       </c>
       <c r="F301">
-        <v>657</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6928,15 +6928,15 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>4567</v>
+        <v>6199</v>
       </c>
       <c r="F302">
-        <v>672</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>43921</v>
+        <v>43925</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6948,15 +6948,15 @@
         <v>8</v>
       </c>
       <c r="E303">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="F303">
-        <v>403</v>
+        <v>756</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>43920</v>
+        <v>43924</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6968,15 +6968,15 @@
         <v>8</v>
       </c>
       <c r="E304">
-        <v>2665</v>
+        <v>4672</v>
       </c>
       <c r="F304">
-        <v>374</v>
+        <v>736</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>43919</v>
+        <v>43923</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6988,15 +6988,15 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>2502</v>
+        <v>4522</v>
       </c>
       <c r="F305">
-        <v>212</v>
+        <v>657</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>43918</v>
+        <v>43922</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7008,15 +7008,15 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>2556</v>
+        <v>4567</v>
       </c>
       <c r="F306">
-        <v>292</v>
+        <v>672</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -7028,15 +7028,15 @@
         <v>8</v>
       </c>
       <c r="E307">
-        <v>2890</v>
+        <v>3250</v>
       </c>
       <c r="F307">
-        <v>288</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -7048,15 +7048,15 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>2129</v>
+        <v>2665</v>
       </c>
       <c r="F308">
-        <v>181</v>
+        <v>374</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -7068,15 +7068,15 @@
         <v>8</v>
       </c>
       <c r="E309">
-        <v>1452</v>
+        <v>2502</v>
       </c>
       <c r="F309">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -7088,15 +7088,15 @@
         <v>8</v>
       </c>
       <c r="E310">
-        <v>1427</v>
+        <v>2556</v>
       </c>
       <c r="F310">
-        <v>148</v>
+        <v>292</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -7108,15 +7108,15 @@
         <v>8</v>
       </c>
       <c r="E311">
-        <v>967</v>
+        <v>2890</v>
       </c>
       <c r="F311">
-        <v>76</v>
+        <v>288</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>43912</v>
+        <v>43916</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -7128,15 +7128,15 @@
         <v>8</v>
       </c>
       <c r="E312">
-        <v>665</v>
+        <v>2129</v>
       </c>
       <c r="F312">
-        <v>36</v>
+        <v>181</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>43911</v>
+        <v>43915</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -7148,15 +7148,15 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>1035</v>
+        <v>1452</v>
       </c>
       <c r="F313">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7168,15 +7168,15 @@
         <v>8</v>
       </c>
       <c r="E314">
-        <v>714</v>
+        <v>1427</v>
       </c>
       <c r="F314">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7188,15 +7188,15 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>643</v>
+        <v>967</v>
       </c>
       <c r="F315">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7208,15 +7208,15 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F316">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
@@ -7228,15 +7228,15 @@
         <v>8</v>
       </c>
       <c r="E317">
-        <v>407</v>
+        <v>1035</v>
       </c>
       <c r="F317">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -7248,15 +7248,15 @@
         <v>8</v>
       </c>
       <c r="E318">
-        <v>152</v>
+        <v>714</v>
       </c>
       <c r="F318">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
@@ -7268,15 +7268,15 @@
         <v>8</v>
       </c>
       <c r="E319">
-        <v>330</v>
+        <v>643</v>
       </c>
       <c r="F319">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -7288,15 +7288,15 @@
         <v>8</v>
       </c>
       <c r="E320">
-        <v>264</v>
+        <v>676</v>
       </c>
       <c r="F320">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
@@ -7308,15 +7308,15 @@
         <v>8</v>
       </c>
       <c r="E321">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
@@ -7328,15 +7328,15 @@
         <v>8</v>
       </c>
       <c r="E322">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>43901</v>
+        <v>43905</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -7348,15 +7348,15 @@
         <v>8</v>
       </c>
       <c r="E323">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>43900</v>
+        <v>43904</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -7368,15 +7368,15 @@
         <v>8</v>
       </c>
       <c r="E324">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="F324">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>43899</v>
+        <v>43903</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
@@ -7388,7 +7388,7 @@
         <v>8</v>
       </c>
       <c r="E325">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>43898</v>
+        <v>43902</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
@@ -7408,15 +7408,15 @@
         <v>8</v>
       </c>
       <c r="E326">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -7428,15 +7428,15 @@
         <v>8</v>
       </c>
       <c r="E327">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
@@ -7448,15 +7448,15 @@
         <v>8</v>
       </c>
       <c r="E328">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>43895</v>
+        <v>43899</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -7468,15 +7468,15 @@
         <v>8</v>
       </c>
       <c r="E329">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>43894</v>
+        <v>43898</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -7488,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="E330">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>43893</v>
+        <v>43897</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
@@ -7508,15 +7508,15 @@
         <v>8</v>
       </c>
       <c r="E331">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>43892</v>
+        <v>43896</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7528,15 +7528,15 @@
         <v>8</v>
       </c>
       <c r="E332">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>43891</v>
+        <v>43895</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7548,7 +7548,7 @@
         <v>8</v>
       </c>
       <c r="E333">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>43890</v>
+        <v>43894</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7568,7 +7568,7 @@
         <v>8</v>
       </c>
       <c r="E334">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7588,7 +7588,7 @@
         <v>8</v>
       </c>
       <c r="E335">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>43888</v>
+        <v>43892</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7608,7 +7608,7 @@
         <v>8</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>43887</v>
+        <v>43891</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7628,7 +7628,7 @@
         <v>8</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>43886</v>
+        <v>43890</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7648,7 +7648,7 @@
         <v>8</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7668,7 +7668,7 @@
         <v>8</v>
       </c>
       <c r="E339">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>43884</v>
+        <v>43888</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>43883</v>
+        <v>43887</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7748,7 +7748,7 @@
         <v>8</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>43880</v>
+        <v>43884</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>43879</v>
+        <v>43883</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>43878</v>
+        <v>43882</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>43876</v>
+        <v>43880</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>43874</v>
+        <v>43878</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -7888,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>43873</v>
+        <v>43877</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>43872</v>
+        <v>43876</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>43871</v>
+        <v>43875</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="E353">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>43870</v>
+        <v>43874</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>43869</v>
+        <v>43873</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>43867</v>
+        <v>43871</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -8028,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>43866</v>
+        <v>43870</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8048,7 +8048,7 @@
         <v>8</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>43865</v>
+        <v>43869</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>43864</v>
+        <v>43868</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>43863</v>
+        <v>43867</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -8108,7 +8108,7 @@
         <v>8</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>43862</v>
+        <v>43866</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>43861</v>
+        <v>43865</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -8148,7 +8148,7 @@
         <v>8</v>
       </c>
       <c r="E363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>43859</v>
+        <v>43863</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>43858</v>
+        <v>43862</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>43857</v>
+        <v>43861</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8228,7 +8228,7 @@
         <v>8</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>43856</v>
+        <v>43860</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>43855</v>
+        <v>43859</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>43854</v>
+        <v>43858</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>43853</v>
+        <v>43857</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>43852</v>
+        <v>43856</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>43851</v>
+        <v>43855</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>43850</v>
+        <v>43854</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>43849</v>
+        <v>43853</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>43848</v>
+        <v>43852</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>43846</v>
+        <v>43850</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>43845</v>
+        <v>43849</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>43844</v>
+        <v>43848</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>43843</v>
+        <v>43847</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>43842</v>
+        <v>43846</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>43841</v>
+        <v>43845</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>43840</v>
+        <v>43844</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>43839</v>
+        <v>43843</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>43838</v>
+        <v>43842</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>43837</v>
+        <v>43841</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>43836</v>
+        <v>43840</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>43835</v>
+        <v>43839</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>43834</v>
+        <v>43838</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>43833</v>
+        <v>43837</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>44179</v>
+        <v>43836</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8728,15 +8728,15 @@
         <v>8</v>
       </c>
       <c r="E392">
-        <v>20263</v>
+        <v>0</v>
       </c>
       <c r="F392">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <v>44059</v>
+        <v>43835</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8748,15 +8748,15 @@
         <v>8</v>
       </c>
       <c r="E393">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="F393">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <v>44009</v>
+        <v>43834</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8768,10 +8768,30 @@
         <v>8</v>
       </c>
       <c r="E394">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>40</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" t="s">
+        <v>8</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16393363-DC68-4C79-989E-CB7852D7DB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE5FE4D-2F59-45DF-BDE0-C2F1E7A01C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-30 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-01-31" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F395"/>
+  <dimension ref="A1:F396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +928,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>23275</v>
+        <v>21088</v>
       </c>
       <c r="F2">
-        <v>1200</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>29079</v>
+        <v>23275</v>
       </c>
       <c r="F3">
-        <v>1245</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +968,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>28680</v>
+        <v>29079</v>
       </c>
       <c r="F4">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +988,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>25308</v>
+        <v>28680</v>
       </c>
       <c r="F5">
-        <v>1725</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1008,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F6">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1028,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F7">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1048,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F8">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F9">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F10">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F11">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F12">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F13">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1168,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F14">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F15">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1208,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F16">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F17">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F18">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1268,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F19">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1288,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F20">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F21">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1328,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F22">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F23">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1368,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F24">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F25">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1408,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F26">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1428,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F27">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1448,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F28">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1468,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F29">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F30">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1508,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F31">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1528,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F32">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1548,15 +1548,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F33">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1568,15 +1568,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>53135</v>
+        <v>50023</v>
       </c>
       <c r="F34">
-        <v>414</v>
+        <v>981</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1588,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>41385</v>
+        <v>53135</v>
       </c>
       <c r="F35">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1608,15 +1608,15 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>30501</v>
+        <v>41385</v>
       </c>
       <c r="F36">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1628,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>35691</v>
+        <v>30501</v>
       </c>
       <c r="F37">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1648,15 +1648,15 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>32725</v>
+        <v>35691</v>
       </c>
       <c r="F38">
-        <v>613</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1668,15 +1668,15 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>39877</v>
+        <v>32725</v>
       </c>
       <c r="F39">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1688,15 +1688,15 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>39237</v>
+        <v>39877</v>
       </c>
       <c r="F40">
-        <v>744</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1708,15 +1708,15 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>36804</v>
+        <v>39237</v>
       </c>
       <c r="F41">
-        <v>691</v>
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1728,15 +1728,15 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>33364</v>
+        <v>36804</v>
       </c>
       <c r="F42">
-        <v>215</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1748,15 +1748,15 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>35928</v>
+        <v>33364</v>
       </c>
       <c r="F43">
-        <v>326</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1768,15 +1768,15 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>27052</v>
+        <v>35928</v>
       </c>
       <c r="F44">
-        <v>534</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1788,15 +1788,15 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>28507</v>
+        <v>27052</v>
       </c>
       <c r="F45">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1808,15 +1808,15 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>35383</v>
+        <v>28507</v>
       </c>
       <c r="F46">
-        <v>532</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1828,15 +1828,15 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>25161</v>
+        <v>35383</v>
       </c>
       <c r="F47">
-        <v>613</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1848,15 +1848,15 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>18450</v>
+        <v>25161</v>
       </c>
       <c r="F48">
-        <v>506</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1868,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>20263</v>
+        <v>18450</v>
       </c>
       <c r="F49">
-        <v>232</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1888,15 +1888,15 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>18447</v>
+        <v>20263</v>
       </c>
       <c r="F50">
-        <v>144</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1908,15 +1908,15 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>21502</v>
+        <v>18447</v>
       </c>
       <c r="F51">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1928,15 +1928,15 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>21672</v>
+        <v>21502</v>
       </c>
       <c r="F52">
-        <v>424</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1948,15 +1948,15 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>20964</v>
+        <v>21672</v>
       </c>
       <c r="F53">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>16578</v>
+        <v>20964</v>
       </c>
       <c r="F54">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1988,15 +1988,15 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>12282</v>
+        <v>16578</v>
       </c>
       <c r="F55">
-        <v>616</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2008,15 +2008,15 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>14718</v>
+        <v>12282</v>
       </c>
       <c r="F56">
-        <v>189</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2028,15 +2028,15 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>17272</v>
+        <v>14718</v>
       </c>
       <c r="F57">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>15539</v>
+        <v>17272</v>
       </c>
       <c r="F58">
-        <v>397</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2068,15 +2068,15 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>16298</v>
+        <v>15539</v>
       </c>
       <c r="F59">
-        <v>504</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2088,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>14879</v>
+        <v>16298</v>
       </c>
       <c r="F60">
-        <v>414</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2108,15 +2108,15 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>16170</v>
+        <v>14879</v>
       </c>
       <c r="F61">
-        <v>648</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2128,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>13430</v>
+        <v>16170</v>
       </c>
       <c r="F62">
-        <v>603</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2148,15 +2148,15 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>12330</v>
+        <v>13430</v>
       </c>
       <c r="F63">
-        <v>205</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2168,15 +2168,15 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>12155</v>
+        <v>12330</v>
       </c>
       <c r="F64">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2188,15 +2188,15 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>15871</v>
+        <v>12155</v>
       </c>
       <c r="F65">
-        <v>479</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2208,15 +2208,15 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>16022</v>
+        <v>15871</v>
       </c>
       <c r="F66">
-        <v>521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2228,15 +2228,15 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>17555</v>
+        <v>16022</v>
       </c>
       <c r="F67">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2248,15 +2248,15 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>18213</v>
+        <v>17555</v>
       </c>
       <c r="F68">
-        <v>696</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>11299</v>
+        <v>18213</v>
       </c>
       <c r="F69">
-        <v>608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2288,15 +2288,15 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>15450</v>
+        <v>11299</v>
       </c>
       <c r="F70">
-        <v>206</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>18662</v>
+        <v>15450</v>
       </c>
       <c r="F71">
-        <v>398</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2328,15 +2328,15 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>19875</v>
+        <v>18662</v>
       </c>
       <c r="F72">
-        <v>341</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2348,15 +2348,15 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>20252</v>
+        <v>19875</v>
       </c>
       <c r="F73">
-        <v>511</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2368,15 +2368,15 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>22915</v>
+        <v>20252</v>
       </c>
       <c r="F74">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2388,15 +2388,15 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>19609</v>
+        <v>22915</v>
       </c>
       <c r="F75">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2408,15 +2408,15 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>20051</v>
+        <v>19609</v>
       </c>
       <c r="F76">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2428,15 +2428,15 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>21363</v>
+        <v>20051</v>
       </c>
       <c r="F77">
-        <v>213</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>24962</v>
+        <v>21363</v>
       </c>
       <c r="F78">
-        <v>168</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -2468,15 +2468,15 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>26860</v>
+        <v>24962</v>
       </c>
       <c r="F79">
-        <v>462</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2488,15 +2488,15 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>27301</v>
+        <v>26860</v>
       </c>
       <c r="F80">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -2508,15 +2508,15 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>33470</v>
+        <v>27301</v>
       </c>
       <c r="F81">
-        <v>563</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -2528,15 +2528,15 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>22950</v>
+        <v>33470</v>
       </c>
       <c r="F82">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -2548,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>20412</v>
+        <v>22950</v>
       </c>
       <c r="F83">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -2568,15 +2568,15 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>21350</v>
+        <v>20412</v>
       </c>
       <c r="F84">
-        <v>194</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -2588,15 +2588,15 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>20572</v>
+        <v>21350</v>
       </c>
       <c r="F85">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -2608,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>24957</v>
+        <v>20572</v>
       </c>
       <c r="F86">
-        <v>413</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -2628,15 +2628,15 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>23287</v>
+        <v>24957</v>
       </c>
       <c r="F87">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>24141</v>
+        <v>23287</v>
       </c>
       <c r="F88">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -2668,15 +2668,15 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>25177</v>
+        <v>24141</v>
       </c>
       <c r="F89">
-        <v>492</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2688,15 +2688,15 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>20018</v>
+        <v>25177</v>
       </c>
       <c r="F90">
-        <v>397</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -2708,15 +2708,15 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>18950</v>
+        <v>20018</v>
       </c>
       <c r="F91">
-        <v>136</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>23254</v>
+        <v>18950</v>
       </c>
       <c r="F92">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2748,15 +2748,15 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>21915</v>
+        <v>23254</v>
       </c>
       <c r="F93">
-        <v>326</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2768,15 +2768,15 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>24405</v>
+        <v>21915</v>
       </c>
       <c r="F94">
-        <v>274</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2788,15 +2788,15 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>23065</v>
+        <v>24405</v>
       </c>
       <c r="F95">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2808,15 +2808,15 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>24701</v>
+        <v>23065</v>
       </c>
       <c r="F96">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2828,15 +2828,15 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>22885</v>
+        <v>24701</v>
       </c>
       <c r="F97">
-        <v>367</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>20890</v>
+        <v>22885</v>
       </c>
       <c r="F98">
-        <v>102</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2868,15 +2868,15 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>19790</v>
+        <v>20890</v>
       </c>
       <c r="F99">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2888,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>23012</v>
+        <v>19790</v>
       </c>
       <c r="F100">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2908,15 +2908,15 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>20530</v>
+        <v>23012</v>
       </c>
       <c r="F101">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2928,15 +2928,15 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>21242</v>
+        <v>20530</v>
       </c>
       <c r="F102">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2948,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>26688</v>
+        <v>21242</v>
       </c>
       <c r="F103">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2968,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>21331</v>
+        <v>26688</v>
       </c>
       <c r="F104">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2988,15 +2988,15 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>18804</v>
+        <v>21331</v>
       </c>
       <c r="F105">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3008,15 +3008,15 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>16982</v>
+        <v>18804</v>
       </c>
       <c r="F106">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3028,15 +3028,15 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>16171</v>
+        <v>16982</v>
       </c>
       <c r="F107">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3048,15 +3048,15 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>15650</v>
+        <v>16171</v>
       </c>
       <c r="F108">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3068,15 +3068,15 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>18980</v>
+        <v>15650</v>
       </c>
       <c r="F109">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3088,15 +3088,15 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>19724</v>
+        <v>18980</v>
       </c>
       <c r="F110">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3108,15 +3108,15 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>17234</v>
+        <v>19724</v>
       </c>
       <c r="F111">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3128,15 +3128,15 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>13972</v>
+        <v>17234</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3148,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>12872</v>
+        <v>13972</v>
       </c>
       <c r="F113">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3168,15 +3168,15 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>15166</v>
+        <v>12872</v>
       </c>
       <c r="F114">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3188,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>13864</v>
+        <v>15166</v>
       </c>
       <c r="F115">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3208,15 +3208,15 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>17540</v>
+        <v>13864</v>
       </c>
       <c r="F116">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3228,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>14162</v>
+        <v>17540</v>
       </c>
       <c r="F117">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3248,15 +3248,15 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>14542</v>
+        <v>14162</v>
       </c>
       <c r="F118">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3268,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>12594</v>
+        <v>14542</v>
       </c>
       <c r="F119">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3288,15 +3288,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>22961</v>
+        <v>12594</v>
       </c>
       <c r="F120">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3308,15 +3308,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>12872</v>
+        <v>22961</v>
       </c>
       <c r="F121">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3328,15 +3328,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>6968</v>
+        <v>12872</v>
       </c>
       <c r="F122">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3348,15 +3348,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>6914</v>
+        <v>6968</v>
       </c>
       <c r="F123">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3368,15 +3368,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>7108</v>
+        <v>6914</v>
       </c>
       <c r="F124">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3388,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>7143</v>
+        <v>7108</v>
       </c>
       <c r="F125">
         <v>71</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3408,15 +3408,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>4044</v>
+        <v>7143</v>
       </c>
       <c r="F126">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3428,15 +3428,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>5693</v>
+        <v>4044</v>
       </c>
       <c r="F127">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3448,15 +3448,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>6042</v>
+        <v>5693</v>
       </c>
       <c r="F128">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3468,15 +3468,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>6874</v>
+        <v>6042</v>
       </c>
       <c r="F129">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3488,15 +3488,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>6634</v>
+        <v>6874</v>
       </c>
       <c r="F130">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3508,15 +3508,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>6178</v>
+        <v>6634</v>
       </c>
       <c r="F131">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3528,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>4926</v>
+        <v>6178</v>
       </c>
       <c r="F132">
         <v>37</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3548,15 +3548,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>4368</v>
+        <v>4926</v>
       </c>
       <c r="F133">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3568,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>3899</v>
+        <v>4368</v>
       </c>
       <c r="F134">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3588,15 +3588,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>4422</v>
+        <v>3899</v>
       </c>
       <c r="F135">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3608,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>4322</v>
+        <v>4422</v>
       </c>
       <c r="F136">
         <v>27</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3628,15 +3628,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>3395</v>
+        <v>4322</v>
       </c>
       <c r="F137">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3648,15 +3648,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>3991</v>
+        <v>3395</v>
       </c>
       <c r="F138">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3668,15 +3668,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>3105</v>
+        <v>3991</v>
       </c>
       <c r="F139">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3688,15 +3688,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>2621</v>
+        <v>3105</v>
       </c>
       <c r="F140">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3708,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>3330</v>
+        <v>2621</v>
       </c>
       <c r="F141">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3728,15 +3728,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>3497</v>
+        <v>3330</v>
       </c>
       <c r="F142">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3748,15 +3748,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>3539</v>
+        <v>3497</v>
       </c>
       <c r="F143">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3768,15 +3768,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>2919</v>
+        <v>3539</v>
       </c>
       <c r="F144">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3788,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>2659</v>
+        <v>2919</v>
       </c>
       <c r="F145">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3808,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>2460</v>
+        <v>2659</v>
       </c>
       <c r="F146">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3828,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>2948</v>
+        <v>2460</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3848,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>2988</v>
+        <v>2948</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3868,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1813</v>
+        <v>2988</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,15 +3888,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1940</v>
+        <v>1813</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1735</v>
+        <v>1940</v>
       </c>
       <c r="F151">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3928,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1508</v>
+        <v>1735</v>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3948,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1295</v>
+        <v>1508</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,15 +3968,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1406</v>
+        <v>1295</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,15 +3988,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1715</v>
+        <v>1406</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1108</v>
+        <v>1715</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4028,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1276</v>
+        <v>1108</v>
       </c>
       <c r="F157">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,10 +4048,10 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1522</v>
+        <v>1276</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -8792,6 +8792,26 @@
       </c>
       <c r="F395">
         <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" t="s">
+        <v>8</v>
+      </c>
+      <c r="E396">
+        <v>1522</v>
+      </c>
+      <c r="F396">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/CovidUK.xlsx
+++ b/CovidUK.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE5FE4D-2F59-45DF-BDE0-C2F1E7A01C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78ECFEC6-6194-42A7-8FB1-9C910D2BFF76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="14378" windowHeight="8474"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_2021-01-31" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_2021-02-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -888,11 +888,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F396"/>
+  <dimension ref="A1:F397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -916,7 +919,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -928,15 +931,15 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>21088</v>
+        <v>18607</v>
       </c>
       <c r="F2">
-        <v>587</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -948,15 +951,15 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>23275</v>
+        <v>21088</v>
       </c>
       <c r="F3">
-        <v>1200</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -968,15 +971,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>29079</v>
+        <v>23275</v>
       </c>
       <c r="F4">
-        <v>1245</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -988,15 +991,15 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>28680</v>
+        <v>29079</v>
       </c>
       <c r="F5">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1008,15 +1011,15 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>25308</v>
+        <v>28680</v>
       </c>
       <c r="F6">
-        <v>1725</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1028,15 +1031,15 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>20089</v>
+        <v>25308</v>
       </c>
       <c r="F7">
-        <v>1631</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1048,15 +1051,15 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>22195</v>
+        <v>20089</v>
       </c>
       <c r="F8">
-        <v>592</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1068,15 +1071,15 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>30004</v>
+        <v>22195</v>
       </c>
       <c r="F9">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1088,15 +1091,15 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>33552</v>
+        <v>30004</v>
       </c>
       <c r="F10">
-        <v>1348</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1108,15 +1111,15 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>40261</v>
+        <v>33552</v>
       </c>
       <c r="F11">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1128,15 +1131,15 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>37892</v>
+        <v>40261</v>
       </c>
       <c r="F12">
-        <v>1290</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1148,15 +1151,15 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>38905</v>
+        <v>37892</v>
       </c>
       <c r="F13">
-        <v>1820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1168,15 +1171,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>33355</v>
+        <v>38905</v>
       </c>
       <c r="F14">
-        <v>1610</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1188,15 +1191,15 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>37535</v>
+        <v>33355</v>
       </c>
       <c r="F15">
-        <v>599</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1208,15 +1211,15 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>38598</v>
+        <v>37535</v>
       </c>
       <c r="F16">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1228,15 +1231,15 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>41346</v>
+        <v>38598</v>
       </c>
       <c r="F17">
-        <v>1295</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1248,15 +1251,15 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>55761</v>
+        <v>41346</v>
       </c>
       <c r="F18">
-        <v>1280</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1268,15 +1271,15 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>48682</v>
+        <v>55761</v>
       </c>
       <c r="F19">
-        <v>1248</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1288,15 +1291,15 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>47525</v>
+        <v>48682</v>
       </c>
       <c r="F20">
-        <v>1564</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1308,15 +1311,15 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>45533</v>
+        <v>47525</v>
       </c>
       <c r="F21">
-        <v>1243</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,15 +1331,15 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>46169</v>
+        <v>45533</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1348,15 +1351,15 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>54940</v>
+        <v>46169</v>
       </c>
       <c r="F23">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1368,15 +1371,15 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>59937</v>
+        <v>54940</v>
       </c>
       <c r="F24">
-        <v>1035</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1388,15 +1391,15 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>68053</v>
+        <v>59937</v>
       </c>
       <c r="F25">
-        <v>1325</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1408,15 +1411,15 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>52618</v>
+        <v>68053</v>
       </c>
       <c r="F26">
-        <v>1162</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1428,15 +1431,15 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>62322</v>
+        <v>52618</v>
       </c>
       <c r="F27">
-        <v>1041</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1448,15 +1451,15 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>60916</v>
+        <v>62322</v>
       </c>
       <c r="F28">
-        <v>830</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1468,15 +1471,15 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>58784</v>
+        <v>60916</v>
       </c>
       <c r="F29">
-        <v>407</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1488,15 +1491,15 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>54990</v>
+        <v>58784</v>
       </c>
       <c r="F30">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1508,15 +1511,15 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>57725</v>
+        <v>54990</v>
       </c>
       <c r="F31">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1528,15 +1531,15 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>53285</v>
+        <v>57725</v>
       </c>
       <c r="F32">
-        <v>656</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1548,15 +1551,15 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>55892</v>
+        <v>53285</v>
       </c>
       <c r="F33">
-        <v>964</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1568,15 +1571,15 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>50023</v>
+        <v>55892</v>
       </c>
       <c r="F34">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1588,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>53135</v>
+        <v>50023</v>
       </c>
       <c r="F35">
-        <v>414</v>
+        <v>981</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,7 +3259,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -3268,15 +3271,15 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>14542</v>
+        <v>12594</v>
       </c>
       <c r="F119">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3288,15 +3291,15 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>12594</v>
+        <v>22961</v>
       </c>
       <c r="F120">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -3308,15 +3311,15 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>22961</v>
+        <v>12872</v>
       </c>
       <c r="F121">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3328,15 +3331,15 @@
         <v>8</v>
       </c>
       <c r="E122">
-        <v>12872</v>
+        <v>6968</v>
       </c>
       <c r="F122">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3348,15 +3351,15 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>6968</v>
+        <v>6914</v>
       </c>
       <c r="F123">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3368,15 +3371,15 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>6914</v>
+        <v>7108</v>
       </c>
       <c r="F124">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3388,7 +3391,7 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>7108</v>
+        <v>7143</v>
       </c>
       <c r="F125">
         <v>71</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3408,15 +3411,15 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>7143</v>
+        <v>4044</v>
       </c>
       <c r="F126">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3428,15 +3431,15 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>4044</v>
+        <v>5693</v>
       </c>
       <c r="F127">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3448,15 +3451,15 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>5693</v>
+        <v>6042</v>
       </c>
       <c r="F128">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3468,15 +3471,15 @@
         <v>8</v>
       </c>
       <c r="E129">
-        <v>6042</v>
+        <v>6874</v>
       </c>
       <c r="F129">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3488,15 +3491,15 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>6874</v>
+        <v>6634</v>
       </c>
       <c r="F130">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3508,15 +3511,15 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>6634</v>
+        <v>6178</v>
       </c>
       <c r="F131">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3528,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>6178</v>
+        <v>4926</v>
       </c>
       <c r="F132">
         <v>37</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3548,15 +3551,15 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>4926</v>
+        <v>4368</v>
       </c>
       <c r="F133">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3568,15 +3571,15 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>4368</v>
+        <v>3899</v>
       </c>
       <c r="F134">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3588,15 +3591,15 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>3899</v>
+        <v>4422</v>
       </c>
       <c r="F135">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3608,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>4422</v>
+        <v>4322</v>
       </c>
       <c r="F136">
         <v>27</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -3628,15 +3631,15 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>4322</v>
+        <v>3395</v>
       </c>
       <c r="F137">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -3648,15 +3651,15 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>3395</v>
+        <v>3991</v>
       </c>
       <c r="F138">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3668,15 +3671,15 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>3991</v>
+        <v>3105</v>
       </c>
       <c r="F139">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -3688,15 +3691,15 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>3105</v>
+        <v>2621</v>
       </c>
       <c r="F140">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -3708,15 +3711,15 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>2621</v>
+        <v>3330</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -3728,15 +3731,15 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>3330</v>
+        <v>3497</v>
       </c>
       <c r="F142">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -3748,15 +3751,15 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>3497</v>
+        <v>3539</v>
       </c>
       <c r="F143">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -3768,15 +3771,15 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>3539</v>
+        <v>2919</v>
       </c>
       <c r="F144">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -3788,15 +3791,15 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>2919</v>
+        <v>2659</v>
       </c>
       <c r="F145">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -3808,15 +3811,15 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>2659</v>
+        <v>2460</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3828,15 +3831,15 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>2460</v>
+        <v>2948</v>
       </c>
       <c r="F147">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3848,15 +3851,15 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>2948</v>
+        <v>2988</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3868,15 +3871,15 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>2988</v>
+        <v>1813</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -3888,15 +3891,15 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>1813</v>
+        <v>1940</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -3908,15 +3911,15 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1940</v>
+        <v>1735</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3928,15 +3931,15 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1735</v>
+        <v>1508</v>
       </c>
       <c r="F152">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3948,15 +3951,15 @@
         <v>8</v>
       </c>
       <c r="E153">
-        <v>1508</v>
+        <v>1295</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3968,15 +3971,15 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1295</v>
+        <v>1406</v>
       </c>
       <c r="F154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3988,15 +3991,15 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1406</v>
+        <v>1715</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4008,15 +4011,15 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>1715</v>
+        <v>1108</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4028,15 +4031,15 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>1108</v>
+        <v>1276</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4048,10 +4051,10 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1276</v>
+        <v>1522</v>
       </c>
       <c r="F158">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -8796,7 +8799,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <v>44070</v>
+        <v>44194</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8808,10 +8811,30 @@
         <v>8</v>
       </c>
       <c r="E396">
-        <v>1522</v>
+        <v>53135</v>
       </c>
       <c r="F396">
-        <v>12</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397">
+        <v>14542</v>
+      </c>
+      <c r="F397">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
